--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 09 – 21.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 09 – 21.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nastia\GitHub\Фопи\Зарплата ФОП 2021\Табель ФОП 2020\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="80" windowWidth="15120" windowHeight="7760" tabRatio="867"/>
+    <workbookView xWindow="120" yWindow="84" windowWidth="15120" windowHeight="7764" tabRatio="867"/>
   </bookViews>
   <sheets>
     <sheet name="Угринчук" sheetId="25" r:id="rId1"/>
@@ -26,7 +21,7 @@
     <sheet name="Ерідан" sheetId="19" r:id="rId12"/>
     <sheet name="Старчевська" sheetId="12" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -342,16 +337,16 @@
     <t>Табель склав___________Угринчук В.Г.</t>
   </si>
   <si>
-    <t>Феськів Роман Михайлович (0.75, 20.07)</t>
+    <t>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</t>
   </si>
   <si>
-    <t>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</t>
+    <t>Феськів Роман Михайлович (0.5, 20.07)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1148,7 +1143,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1171,7 +1166,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Офіс">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1209,9 +1204,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Офіс">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1246,7 +1241,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1281,7 +1276,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Офіс">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1458,23 +1453,23 @@
   <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13:Y14"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.36328125" style="2" customWidth="1"/>
-    <col min="21" max="24" width="5.453125" style="2" customWidth="1"/>
-    <col min="25" max="26" width="9.08984375" style="2"/>
-    <col min="27" max="27" width="6.08984375" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="9.08984375" style="2"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.33203125" style="2" customWidth="1"/>
+    <col min="21" max="24" width="5.44140625" style="2" customWidth="1"/>
+    <col min="25" max="26" width="9.109375" style="2"/>
+    <col min="27" max="27" width="6.109375" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
@@ -1491,7 +1486,7 @@
       <c r="W1" s="100"/>
       <c r="X1" s="100"/>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="101" t="s">
         <v>101</v>
       </c>
@@ -1519,7 +1514,7 @@
       <c r="W2" s="101"/>
       <c r="X2" s="101"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="94"/>
       <c r="B3" s="94"/>
       <c r="C3" s="94"/>
@@ -1542,7 +1537,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="94"/>
       <c r="B4" s="94"/>
       <c r="C4" s="94"/>
@@ -1570,7 +1565,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="94"/>
       <c r="B5" s="94"/>
       <c r="C5" s="94"/>
@@ -1598,7 +1593,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="94"/>
       <c r="B6" s="94"/>
       <c r="C6" s="94"/>
@@ -1626,7 +1621,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
         <v>2</v>
       </c>
@@ -1654,7 +1649,7 @@
       <c r="W7" s="102"/>
       <c r="X7" s="102"/>
     </row>
-    <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="19.95" x14ac:dyDescent="0.35">
       <c r="A8" s="103" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
@@ -1683,7 +1678,7 @@
       <c r="W8" s="103"/>
       <c r="X8" s="103"/>
     </row>
-    <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
@@ -1731,7 +1726,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="104"/>
       <c r="B10" s="105"/>
       <c r="C10" s="104"/>
@@ -1759,16 +1754,16 @@
       <c r="Y10" s="112"/>
       <c r="Z10" s="98"/>
     </row>
-    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="113">
         <v>1</v>
       </c>
       <c r="B11" s="113"/>
       <c r="C11" s="114" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D11" s="115" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="E11" s="25">
         <v>1</v>
@@ -1835,19 +1830,19 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="113"/>
       <c r="B12" s="113"/>
       <c r="C12" s="114"/>
       <c r="D12" s="115"/>
       <c r="E12" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>13</v>
@@ -1856,19 +1851,19 @@
         <v>13</v>
       </c>
       <c r="J12" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K12" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L12" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M12" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N12" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O12" s="26" t="s">
         <v>13</v>
@@ -1877,16 +1872,16 @@
         <v>13</v>
       </c>
       <c r="Q12" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R12" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S12" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T12" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U12" s="117"/>
       <c r="V12" s="117"/>
@@ -1896,10 +1891,10 @@
       <c r="Z12" s="122"/>
       <c r="AA12" s="2">
         <f>SUM(E12:T12)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="113"/>
       <c r="B13" s="113"/>
       <c r="C13" s="114"/>
@@ -1958,21 +1953,21 @@
       <c r="X13" s="91"/>
       <c r="Y13" s="119">
         <f>AB13</f>
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="Z13" s="122"/>
       <c r="AB13" s="2">
         <f>AA12+AA14</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="113"/>
       <c r="B14" s="113"/>
       <c r="C14" s="114"/>
       <c r="D14" s="115"/>
       <c r="E14" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F14" s="26" t="s">
         <v>13</v>
@@ -1981,19 +1976,19 @@
         <v>13</v>
       </c>
       <c r="H14" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J14" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K14" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L14" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M14" s="26" t="s">
         <v>13</v>
@@ -2002,16 +1997,16 @@
         <v>13</v>
       </c>
       <c r="O14" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P14" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R14" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S14" s="29" t="s">
         <v>10</v>
@@ -2027,7 +2022,7 @@
       <c r="Z14" s="122"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2108,7 +2103,7 @@
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
     </row>
-    <row r="18" spans="1:24" s="93" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" s="93" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="B18" s="123" t="s">
         <v>12</v>
       </c>
@@ -2205,18 +2200,17 @@
       <selection activeCell="E12" sqref="E12:T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.26953125" style="2" customWidth="1"/>
-    <col min="21" max="25" width="5.453125" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="2" width="3.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.21875" style="2" customWidth="1"/>
+    <col min="21" max="25" width="5.44140625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
         <v>9</v>
       </c>
@@ -2234,7 +2228,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
         <v>81</v>
       </c>
@@ -2265,7 +2259,7 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
         <v>44</v>
       </c>
@@ -2298,7 +2292,7 @@
       <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="60"/>
       <c r="B4" s="60"/>
       <c r="C4" s="60"/>
@@ -2354,7 +2348,7 @@
       <c r="X5" s="60"/>
       <c r="Y5" s="60"/>
     </row>
-    <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="102" t="s">
         <v>2</v>
       </c>
@@ -2383,7 +2377,7 @@
       <c r="X6" s="102"/>
       <c r="Y6" s="102"/>
     </row>
-    <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="19.95" x14ac:dyDescent="0.35">
       <c r="A7" s="102" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
@@ -2413,7 +2407,7 @@
       <c r="X7" s="102"/>
       <c r="Y7" s="102"/>
     </row>
-    <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="19.95" x14ac:dyDescent="0.35">
       <c r="A8" s="61"/>
       <c r="B8" s="61"/>
       <c r="C8" s="61"/>
@@ -2440,7 +2434,7 @@
       <c r="X8" s="61"/>
       <c r="Y8" s="61"/>
     </row>
-    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
@@ -2490,7 +2484,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="104"/>
       <c r="B10" s="105"/>
       <c r="C10" s="104"/>
@@ -2518,7 +2512,7 @@
       <c r="Y10" s="112"/>
       <c r="Z10" s="98"/>
     </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="113">
         <v>1</v>
       </c>
@@ -2596,7 +2590,7 @@
         <v>4770</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="113"/>
       <c r="B12" s="113"/>
       <c r="C12" s="114"/>
@@ -2656,7 +2650,7 @@
       <c r="Y12" s="121"/>
       <c r="Z12" s="162"/>
     </row>
-    <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="113"/>
       <c r="B13" s="113"/>
       <c r="C13" s="114"/>
@@ -2718,7 +2712,7 @@
       </c>
       <c r="Z13" s="162"/>
     </row>
-    <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="113"/>
       <c r="B14" s="113"/>
       <c r="C14" s="114"/>
@@ -2778,7 +2772,7 @@
       <c r="Y14" s="121"/>
       <c r="Z14" s="162"/>
     </row>
-    <row r="15" spans="1:26" s="59" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" s="59" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="123" t="s">
         <v>12</v>
       </c>
@@ -2791,7 +2785,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D17" s="51" t="s">
         <v>72</v>
       </c>
@@ -2799,7 +2793,7 @@
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
     </row>
-    <row r="18" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D18" s="51" t="s">
         <v>66</v>
       </c>
@@ -2807,7 +2801,7 @@
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
     </row>
-    <row r="19" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D19" s="51" t="s">
         <v>67</v>
       </c>
@@ -2815,7 +2809,7 @@
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
     </row>
-    <row r="20" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D20" s="51" t="s">
         <v>68</v>
       </c>
@@ -2823,7 +2817,7 @@
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
     </row>
-    <row r="21" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D21" s="51" t="s">
         <v>69</v>
       </c>
@@ -2831,7 +2825,7 @@
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
     </row>
-    <row r="22" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D22" s="51" t="s">
         <v>70</v>
       </c>
@@ -2886,16 +2880,16 @@
       <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4.26953125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.26953125" style="2" customWidth="1"/>
-    <col min="21" max="24" width="5.453125" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="2" width="4.21875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="17.5546875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.21875" style="2" customWidth="1"/>
+    <col min="21" max="24" width="5.44140625" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
@@ -2913,7 +2907,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>54</v>
       </c>
@@ -2944,7 +2938,7 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
     </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>44</v>
       </c>
@@ -2977,7 +2971,7 @@
       <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
     </row>
-    <row r="4" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -3057,7 +3051,7 @@
       <c r="W6" s="19"/>
       <c r="X6" s="19"/>
     </row>
-    <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
         <v>2</v>
       </c>
@@ -3085,7 +3079,7 @@
       <c r="W7" s="102"/>
       <c r="X7" s="102"/>
     </row>
-    <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="19.95" x14ac:dyDescent="0.35">
       <c r="A8" s="102" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
@@ -3114,7 +3108,7 @@
       <c r="W8" s="102"/>
       <c r="X8" s="102"/>
     </row>
-    <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
@@ -3161,7 +3155,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="104"/>
       <c r="B10" s="105"/>
       <c r="C10" s="104"/>
@@ -3188,7 +3182,7 @@
       <c r="X10" s="112"/>
       <c r="Y10" s="98"/>
     </row>
-    <row r="11" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="113">
         <v>1</v>
       </c>
@@ -3267,7 +3261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="113"/>
       <c r="B12" s="113"/>
       <c r="C12" s="114"/>
@@ -3326,7 +3320,7 @@
       <c r="X12" s="120"/>
       <c r="Y12" s="120"/>
     </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="113"/>
       <c r="B13" s="113"/>
       <c r="C13" s="114"/>
@@ -3391,7 +3385,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="113"/>
       <c r="B14" s="113"/>
       <c r="C14" s="114"/>
@@ -3506,7 +3500,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="2:12" s="36" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" s="36" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="139" t="s">
         <v>12</v>
       </c>
@@ -3519,7 +3513,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D19" s="51" t="s">
         <v>72</v>
       </c>
@@ -3527,7 +3521,7 @@
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
     </row>
-    <row r="20" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D20" s="51" t="s">
         <v>66</v>
       </c>
@@ -3535,7 +3529,7 @@
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
     </row>
-    <row r="21" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D21" s="51" t="s">
         <v>67</v>
       </c>
@@ -3543,7 +3537,7 @@
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
     </row>
-    <row r="22" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D22" s="51" t="s">
         <v>68</v>
       </c>
@@ -3551,7 +3545,7 @@
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
     </row>
-    <row r="23" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D23" s="51" t="s">
         <v>69</v>
       </c>
@@ -3559,7 +3553,7 @@
       <c r="F23" s="52"/>
       <c r="G23" s="52"/>
     </row>
-    <row r="24" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D24" s="51" t="s">
         <v>70</v>
       </c>
@@ -3612,16 +3606,16 @@
       <selection activeCell="X13" sqref="X13:X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4.26953125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.26953125" style="2" customWidth="1"/>
-    <col min="21" max="24" width="5.453125" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="2" width="4.21875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="17.5546875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.21875" style="2" customWidth="1"/>
+    <col min="21" max="24" width="5.44140625" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>9</v>
       </c>
@@ -3639,7 +3633,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>61</v>
       </c>
@@ -3670,7 +3664,7 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>44</v>
       </c>
@@ -3703,7 +3697,7 @@
       <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -3783,7 +3777,7 @@
       <c r="W6" s="19"/>
       <c r="X6" s="19"/>
     </row>
-    <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
         <v>2</v>
       </c>
@@ -3811,7 +3805,7 @@
       <c r="W7" s="102"/>
       <c r="X7" s="102"/>
     </row>
-    <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="19.95" x14ac:dyDescent="0.35">
       <c r="A8" s="102" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
@@ -3840,7 +3834,7 @@
       <c r="W8" s="102"/>
       <c r="X8" s="102"/>
     </row>
-    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
@@ -3887,7 +3881,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="104"/>
       <c r="B10" s="105"/>
       <c r="C10" s="104"/>
@@ -3914,7 +3908,7 @@
       <c r="X10" s="112"/>
       <c r="Y10" s="98"/>
     </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="113">
         <v>1</v>
       </c>
@@ -3993,7 +3987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="113"/>
       <c r="B12" s="113"/>
       <c r="C12" s="114"/>
@@ -4052,7 +4046,7 @@
       <c r="X12" s="121"/>
       <c r="Y12" s="137"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="113"/>
       <c r="B13" s="113"/>
       <c r="C13" s="114"/>
@@ -4114,7 +4108,7 @@
       </c>
       <c r="Y13" s="137"/>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="113"/>
       <c r="B14" s="113"/>
       <c r="C14" s="114"/>
@@ -4229,7 +4223,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="2:12" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="139" t="s">
         <v>12</v>
       </c>
@@ -4242,7 +4236,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D19" s="51" t="s">
         <v>72</v>
       </c>
@@ -4250,7 +4244,7 @@
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
     </row>
-    <row r="20" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D20" s="51" t="s">
         <v>66</v>
       </c>
@@ -4258,7 +4252,7 @@
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
     </row>
-    <row r="21" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D21" s="51" t="s">
         <v>67</v>
       </c>
@@ -4266,7 +4260,7 @@
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
     </row>
-    <row r="22" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D22" s="51" t="s">
         <v>68</v>
       </c>
@@ -4274,7 +4268,7 @@
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
     </row>
-    <row r="23" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D23" s="51" t="s">
         <v>69</v>
       </c>
@@ -4282,7 +4276,7 @@
       <c r="F23" s="52"/>
       <c r="G23" s="52"/>
     </row>
-    <row r="24" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D24" s="51" t="s">
         <v>70</v>
       </c>
@@ -4336,19 +4330,18 @@
       <selection activeCell="Y13" sqref="Y13:Y14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.26953125" style="2" customWidth="1"/>
-    <col min="21" max="24" width="5.453125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="6.1796875" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="2" width="3.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.21875" style="2" customWidth="1"/>
+    <col min="21" max="24" width="5.44140625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="6.21875" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
@@ -4359,7 +4352,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>34</v>
       </c>
@@ -4389,7 +4382,7 @@
       <c r="W2" s="19"/>
       <c r="X2" s="19"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4417,7 +4410,7 @@
       <c r="W3" s="19"/>
       <c r="X3" s="19"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4497,7 +4490,7 @@
       <c r="W6" s="19"/>
       <c r="X6" s="19"/>
     </row>
-    <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
         <v>2</v>
       </c>
@@ -4527,7 +4520,7 @@
       <c r="Y7" s="102"/>
       <c r="Z7" s="102"/>
     </row>
-    <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="19.95" x14ac:dyDescent="0.35">
       <c r="A8" s="103" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
@@ -4558,7 +4551,7 @@
       <c r="Y8" s="103"/>
       <c r="Z8" s="103"/>
     </row>
-    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
@@ -4608,7 +4601,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="104"/>
       <c r="B10" s="105"/>
       <c r="C10" s="104"/>
@@ -4636,7 +4629,7 @@
       <c r="Y10" s="112"/>
       <c r="Z10" s="98"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="113">
         <v>1</v>
       </c>
@@ -4714,7 +4707,7 @@
         <v>3232</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="113"/>
       <c r="B12" s="113"/>
       <c r="C12" s="125"/>
@@ -4774,7 +4767,7 @@
       <c r="Y12" s="121"/>
       <c r="Z12" s="122"/>
     </row>
-    <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="113"/>
       <c r="B13" s="113"/>
       <c r="C13" s="125"/>
@@ -4836,7 +4829,7 @@
       </c>
       <c r="Z13" s="122"/>
     </row>
-    <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="113"/>
       <c r="B14" s="113"/>
       <c r="C14" s="125"/>
@@ -4896,7 +4889,7 @@
       <c r="Y14" s="121"/>
       <c r="Z14" s="122"/>
     </row>
-    <row r="16" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="B16" s="123" t="s">
         <v>12</v>
       </c>
@@ -4927,7 +4920,7 @@
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
     </row>
-    <row r="18" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D18" s="51" t="s">
         <v>72</v>
       </c>
@@ -4935,7 +4928,7 @@
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
     </row>
-    <row r="19" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D19" s="51" t="s">
         <v>66</v>
       </c>
@@ -4943,7 +4936,7 @@
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
     </row>
-    <row r="20" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D20" s="51" t="s">
         <v>67</v>
       </c>
@@ -4951,7 +4944,7 @@
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
     </row>
-    <row r="21" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D21" s="51" t="s">
         <v>68</v>
       </c>
@@ -4959,7 +4952,7 @@
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
     </row>
-    <row r="22" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D22" s="51" t="s">
         <v>69</v>
       </c>
@@ -4967,7 +4960,7 @@
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
     </row>
-    <row r="23" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D23" s="51" t="s">
         <v>70</v>
       </c>
@@ -5023,22 +5016,22 @@
       <selection activeCell="T19" sqref="T19:T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="2" customWidth="1"/>
-    <col min="4" max="13" width="4.26953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="2" customWidth="1"/>
+    <col min="4" max="13" width="4.21875" style="2" customWidth="1"/>
     <col min="14" max="14" width="5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.26953125" style="2" customWidth="1"/>
-    <col min="20" max="23" width="5.453125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="11.1796875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="14.453125" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.1796875" style="2"/>
+    <col min="15" max="15" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.21875" style="2" customWidth="1"/>
+    <col min="20" max="23" width="5.44140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="11.21875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="14.44140625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="99" t="s">
         <v>9</v>
       </c>
@@ -5048,7 +5041,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -5077,7 +5070,7 @@
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
     </row>
-    <row r="4" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -5104,7 +5097,7 @@
       <c r="V4" s="18"/>
       <c r="W4" s="18"/>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -5156,7 +5149,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
     </row>
-    <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
         <v>2</v>
       </c>
@@ -5183,9 +5176,9 @@
       <c r="V7" s="102"/>
       <c r="W7" s="102"/>
     </row>
-    <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="102"/>
       <c r="C8" s="102"/>
@@ -5210,7 +5203,7 @@
       <c r="V8" s="102"/>
       <c r="W8" s="102"/>
     </row>
-    <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
@@ -5257,7 +5250,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="104"/>
       <c r="B10" s="104"/>
       <c r="C10" s="104"/>
@@ -5284,7 +5277,7 @@
       <c r="X10" s="112"/>
       <c r="Y10" s="98"/>
     </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="113">
         <v>1</v>
       </c>
@@ -5359,7 +5352,7 @@
         <v>6060</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="113"/>
       <c r="B12" s="114"/>
       <c r="C12" s="115"/>
@@ -5422,7 +5415,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="113"/>
       <c r="B13" s="114"/>
       <c r="C13" s="115"/>
@@ -5488,7 +5481,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="113"/>
       <c r="B14" s="114"/>
       <c r="C14" s="115"/>
@@ -5551,7 +5544,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="113">
         <v>2</v>
       </c>
@@ -5630,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="113"/>
       <c r="B16" s="114"/>
       <c r="C16" s="115"/>
@@ -5696,7 +5689,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="113"/>
       <c r="B17" s="114"/>
       <c r="C17" s="115"/>
@@ -5762,7 +5755,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="113"/>
       <c r="B18" s="114"/>
       <c r="C18" s="115"/>
@@ -5821,7 +5814,7 @@
       <c r="X18" s="121"/>
       <c r="Y18" s="122"/>
     </row>
-    <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="113">
         <v>3</v>
       </c>
@@ -5896,7 +5889,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="113"/>
       <c r="B20" s="114"/>
       <c r="C20" s="115"/>
@@ -5959,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="113"/>
       <c r="B21" s="114"/>
       <c r="C21" s="115"/>
@@ -6025,7 +6018,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="113"/>
       <c r="B22" s="114"/>
       <c r="C22" s="115"/>
@@ -6088,7 +6081,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="113">
         <v>4</v>
       </c>
@@ -6163,7 +6156,7 @@
         <v>6060</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="113"/>
       <c r="B24" s="114"/>
       <c r="C24" s="115"/>
@@ -6226,7 +6219,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="113"/>
       <c r="B25" s="114"/>
       <c r="C25" s="115"/>
@@ -6292,7 +6285,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="113"/>
       <c r="B26" s="114"/>
       <c r="C26" s="115"/>
@@ -6355,7 +6348,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="113">
         <v>5</v>
       </c>
@@ -6433,7 +6426,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="113"/>
       <c r="B28" s="125"/>
       <c r="C28" s="126"/>
@@ -6492,7 +6485,7 @@
       <c r="X28" s="121"/>
       <c r="Y28" s="122"/>
     </row>
-    <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="113"/>
       <c r="B29" s="125"/>
       <c r="C29" s="126"/>
@@ -6553,7 +6546,7 @@
       </c>
       <c r="Y29" s="122"/>
     </row>
-    <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="113"/>
       <c r="B30" s="125"/>
       <c r="C30" s="126"/>
@@ -6612,7 +6605,7 @@
       <c r="X30" s="121"/>
       <c r="Y30" s="122"/>
     </row>
-    <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="113">
         <v>6</v>
       </c>
@@ -6687,7 +6680,7 @@
         <v>6060</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="113"/>
       <c r="B32" s="114"/>
       <c r="C32" s="115"/>
@@ -6754,7 +6747,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="113"/>
       <c r="B33" s="114"/>
       <c r="C33" s="115"/>
@@ -6816,7 +6809,7 @@
       </c>
       <c r="Y33" s="122"/>
     </row>
-    <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="113"/>
       <c r="B34" s="114"/>
       <c r="C34" s="115"/>
@@ -6891,7 +6884,7 @@
         <v>36600</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="123" t="s">
         <v>12</v>
       </c>
@@ -6903,7 +6896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C38" s="51" t="s">
         <v>72</v>
       </c>
@@ -6911,7 +6904,7 @@
       <c r="E38" s="52"/>
       <c r="F38" s="52"/>
     </row>
-    <row r="39" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C39" s="51" t="s">
         <v>66</v>
       </c>
@@ -6919,7 +6912,7 @@
       <c r="E39" s="52"/>
       <c r="F39" s="52"/>
     </row>
-    <row r="40" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C40" s="51" t="s">
         <v>67</v>
       </c>
@@ -6927,7 +6920,7 @@
       <c r="E40" s="52"/>
       <c r="F40" s="52"/>
     </row>
-    <row r="41" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C41" s="51" t="s">
         <v>68</v>
       </c>
@@ -6935,7 +6928,7 @@
       <c r="E41" s="52"/>
       <c r="F41" s="52"/>
     </row>
-    <row r="42" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C42" s="51" t="s">
         <v>69</v>
       </c>
@@ -6943,7 +6936,7 @@
       <c r="E42" s="52"/>
       <c r="F42" s="52"/>
     </row>
-    <row r="43" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C43" s="51" t="s">
         <v>70</v>
       </c>
@@ -7043,21 +7036,21 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:T14"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.26953125" style="2" customWidth="1"/>
-    <col min="21" max="24" width="5.453125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="6.26953125" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="2" width="3.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.21875" style="2" customWidth="1"/>
+    <col min="21" max="24" width="5.44140625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="6.21875" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
         <v>9</v>
       </c>
@@ -7075,7 +7068,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
         <v>22</v>
       </c>
@@ -7106,7 +7099,7 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
         <v>44</v>
       </c>
@@ -7139,7 +7132,7 @@
       <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="77"/>
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
@@ -7195,7 +7188,7 @@
       <c r="X5" s="77"/>
       <c r="Y5" s="77"/>
     </row>
-    <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="102" t="s">
         <v>2</v>
       </c>
@@ -7224,7 +7217,7 @@
       <c r="X6" s="102"/>
       <c r="Y6" s="102"/>
     </row>
-    <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="19.95" x14ac:dyDescent="0.35">
       <c r="A7" s="102" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
@@ -7254,7 +7247,7 @@
       <c r="X7" s="102"/>
       <c r="Y7" s="102"/>
     </row>
-    <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="19.95" x14ac:dyDescent="0.35">
       <c r="A8" s="76"/>
       <c r="B8" s="76"/>
       <c r="C8" s="76"/>
@@ -7281,7 +7274,7 @@
       <c r="X8" s="76"/>
       <c r="Y8" s="76"/>
     </row>
-    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
@@ -7329,7 +7322,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="104"/>
       <c r="B10" s="118"/>
       <c r="C10" s="104"/>
@@ -7357,7 +7350,7 @@
       <c r="Y10" s="112"/>
       <c r="Z10" s="98"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="127">
         <v>1</v>
       </c>
@@ -7427,7 +7420,7 @@
         <v>6060</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="128"/>
       <c r="B12" s="117"/>
       <c r="C12" s="117"/>
@@ -7487,7 +7480,7 @@
       <c r="Y12" s="121"/>
       <c r="Z12" s="134"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="128"/>
       <c r="B13" s="117"/>
       <c r="C13" s="117"/>
@@ -7549,7 +7542,7 @@
       </c>
       <c r="Z13" s="134"/>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="129"/>
       <c r="B14" s="118"/>
       <c r="C14" s="118"/>
@@ -7609,7 +7602,7 @@
       <c r="Y14" s="121"/>
       <c r="Z14" s="135"/>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -7637,7 +7630,7 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="89"/>
     </row>
-    <row r="16" spans="1:26" s="75" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" s="75" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="B16" s="123" t="s">
         <v>12</v>
       </c>
@@ -7650,7 +7643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D18" s="51" t="s">
         <v>72</v>
       </c>
@@ -7658,7 +7651,7 @@
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
     </row>
-    <row r="19" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D19" s="51" t="s">
         <v>66</v>
       </c>
@@ -7666,7 +7659,7 @@
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
     </row>
-    <row r="20" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D20" s="51" t="s">
         <v>67</v>
       </c>
@@ -7674,7 +7667,7 @@
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
     </row>
-    <row r="21" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D21" s="51" t="s">
         <v>68</v>
       </c>
@@ -7682,7 +7675,7 @@
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
     </row>
-    <row r="22" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D22" s="51" t="s">
         <v>69</v>
       </c>
@@ -7690,7 +7683,7 @@
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
     </row>
-    <row r="23" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D23" s="51" t="s">
         <v>70</v>
       </c>
@@ -7746,18 +7739,18 @@
       <selection activeCell="X13" sqref="X13:X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4.26953125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="21" width="4.26953125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="4.7265625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="4.21875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="17.5546875" style="2" customWidth="1"/>
+    <col min="5" max="21" width="4.21875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.77734375" style="2" customWidth="1"/>
     <col min="23" max="23" width="4" style="2" customWidth="1"/>
     <col min="24" max="24" width="7" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9.1796875" style="2"/>
+    <col min="25" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
@@ -7769,7 +7762,7 @@
       </c>
       <c r="S1" s="16"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>19</v>
       </c>
@@ -7799,7 +7792,7 @@
       <c r="W2" s="17"/>
       <c r="X2" s="17"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -7827,7 +7820,7 @@
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -7907,7 +7900,7 @@
       <c r="W6" s="17"/>
       <c r="X6" s="17"/>
     </row>
-    <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
         <v>2</v>
       </c>
@@ -7935,7 +7928,7 @@
       <c r="W7" s="102"/>
       <c r="X7" s="102"/>
     </row>
-    <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="19.95" x14ac:dyDescent="0.35">
       <c r="A8" s="102" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
@@ -7964,7 +7957,7 @@
       <c r="W8" s="102"/>
       <c r="X8" s="102"/>
     </row>
-    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
@@ -8011,7 +8004,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="104"/>
       <c r="B10" s="105"/>
       <c r="C10" s="104"/>
@@ -8038,7 +8031,7 @@
       <c r="X10" s="112"/>
       <c r="Y10" s="98"/>
     </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="113">
         <v>1</v>
       </c>
@@ -8119,7 +8112,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="113"/>
       <c r="B12" s="128"/>
       <c r="C12" s="141"/>
@@ -8178,7 +8171,7 @@
       <c r="X12" s="121"/>
       <c r="Y12" s="137"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="113"/>
       <c r="B13" s="128"/>
       <c r="C13" s="141"/>
@@ -8240,7 +8233,7 @@
       </c>
       <c r="Y13" s="137"/>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="113"/>
       <c r="B14" s="129"/>
       <c r="C14" s="142"/>
@@ -8329,7 +8322,7 @@
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
     </row>
-    <row r="16" spans="1:26" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="139" t="s">
         <v>12</v>
@@ -8358,7 +8351,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="18" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D18" s="51" t="s">
         <v>72</v>
       </c>
@@ -8366,7 +8359,7 @@
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
     </row>
-    <row r="19" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D19" s="51" t="s">
         <v>66</v>
       </c>
@@ -8374,7 +8367,7 @@
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
     </row>
-    <row r="20" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D20" s="51" t="s">
         <v>67</v>
       </c>
@@ -8382,7 +8375,7 @@
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
     </row>
-    <row r="21" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D21" s="51" t="s">
         <v>68</v>
       </c>
@@ -8390,7 +8383,7 @@
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
     </row>
-    <row r="22" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D22" s="51" t="s">
         <v>69</v>
       </c>
@@ -8398,7 +8391,7 @@
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
     </row>
-    <row r="23" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D23" s="51" t="s">
         <v>70</v>
       </c>
@@ -8453,20 +8446,20 @@
       <selection activeCell="L22" sqref="L22:Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" style="2" customWidth="1"/>
-    <col min="4" max="19" width="4.36328125" style="2" customWidth="1"/>
-    <col min="20" max="22" width="5.453125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="3.81640625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="5.453125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="13.36328125" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.08984375" style="2"/>
+    <col min="3" max="3" width="12.88671875" style="2" customWidth="1"/>
+    <col min="4" max="19" width="4.33203125" style="2" customWidth="1"/>
+    <col min="20" max="22" width="5.44140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="3.77734375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="5.44140625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="13.33203125" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
@@ -8477,7 +8470,7 @@
       </c>
       <c r="O1" s="16"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
         <v>92</v>
       </c>
@@ -8506,7 +8499,7 @@
       <c r="W2" s="82"/>
       <c r="X2" s="82"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="82" t="s">
         <v>93</v>
       </c>
@@ -8535,7 +8528,7 @@
       <c r="W3" s="82"/>
       <c r="X3" s="82"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="82"/>
       <c r="B4" s="82"/>
       <c r="C4" s="82"/>
@@ -8614,7 +8607,7 @@
       <c r="W6" s="82"/>
       <c r="X6" s="82"/>
     </row>
-    <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
         <v>2</v>
       </c>
@@ -8642,7 +8635,7 @@
       <c r="W7" s="102"/>
       <c r="X7" s="80"/>
     </row>
-    <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="19.95" x14ac:dyDescent="0.35">
       <c r="A8" s="103" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
@@ -8672,7 +8665,7 @@
       <c r="X8" s="103"/>
       <c r="Y8" s="103"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
@@ -8719,7 +8712,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="104"/>
       <c r="B10" s="104"/>
       <c r="C10" s="104"/>
@@ -8746,7 +8739,7 @@
       <c r="X10" s="112"/>
       <c r="Y10" s="98"/>
     </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="113">
         <v>1</v>
       </c>
@@ -8821,7 +8814,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="113"/>
       <c r="B12" s="114"/>
       <c r="C12" s="115"/>
@@ -8884,7 +8877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="113"/>
       <c r="B13" s="114"/>
       <c r="C13" s="115"/>
@@ -8946,7 +8939,7 @@
       </c>
       <c r="Y13" s="122"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="113"/>
       <c r="B14" s="114"/>
       <c r="C14" s="115"/>
@@ -9009,7 +9002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="113">
         <v>2</v>
       </c>
@@ -9085,7 +9078,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="113"/>
       <c r="B16" s="114"/>
       <c r="C16" s="115"/>
@@ -9148,7 +9141,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="113"/>
       <c r="B17" s="114"/>
       <c r="C17" s="115"/>
@@ -9210,7 +9203,7 @@
       </c>
       <c r="Y17" s="122"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="113"/>
       <c r="B18" s="114"/>
       <c r="C18" s="115"/>
@@ -9273,7 +9266,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="113">
         <v>3</v>
       </c>
@@ -9349,7 +9342,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" s="3" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="113"/>
       <c r="B20" s="114"/>
       <c r="C20" s="115"/>
@@ -9412,7 +9405,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="113"/>
       <c r="B21" s="114"/>
       <c r="C21" s="115"/>
@@ -9474,7 +9467,7 @@
       </c>
       <c r="Y21" s="122"/>
     </row>
-    <row r="22" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="113"/>
       <c r="B22" s="114"/>
       <c r="C22" s="115"/>
@@ -9537,7 +9530,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B24" s="86" t="s">
         <v>12</v>
       </c>
@@ -9568,7 +9561,7 @@
       <c r="V24" s="79"/>
       <c r="W24" s="79"/>
     </row>
-    <row r="25" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="17.55" x14ac:dyDescent="0.35">
       <c r="B25" s="81"/>
       <c r="C25" s="83"/>
       <c r="D25" s="79"/>
@@ -9592,7 +9585,7 @@
       <c r="V25" s="79"/>
       <c r="W25" s="79"/>
     </row>
-    <row r="26" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C26" s="51" t="s">
         <v>66</v>
       </c>
@@ -9600,7 +9593,7 @@
       <c r="E26" s="52"/>
       <c r="F26" s="52"/>
     </row>
-    <row r="27" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C27" s="51" t="s">
         <v>67</v>
       </c>
@@ -9608,7 +9601,7 @@
       <c r="E27" s="52"/>
       <c r="F27" s="52"/>
     </row>
-    <row r="28" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C28" s="51" t="s">
         <v>68</v>
       </c>
@@ -9616,7 +9609,7 @@
       <c r="E28" s="52"/>
       <c r="F28" s="52"/>
     </row>
-    <row r="29" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C29" s="51" t="s">
         <v>69</v>
       </c>
@@ -9625,7 +9618,7 @@
       <c r="F29" s="52"/>
       <c r="P29" s="84"/>
     </row>
-    <row r="30" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C30" s="51" t="s">
         <v>70</v>
       </c>
@@ -9698,20 +9691,19 @@
       <selection activeCell="Y13" sqref="Y13:Y14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.26953125" style="2" customWidth="1"/>
-    <col min="21" max="24" width="5.453125" style="2" customWidth="1"/>
-    <col min="25" max="26" width="9.1796875" style="2"/>
-    <col min="27" max="27" width="6.1796875" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="2" width="3.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.21875" style="2" customWidth="1"/>
+    <col min="21" max="24" width="5.44140625" style="2" customWidth="1"/>
+    <col min="25" max="26" width="9.21875" style="2"/>
+    <col min="27" max="27" width="6.21875" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
@@ -9728,7 +9720,7 @@
       <c r="W1" s="100"/>
       <c r="X1" s="100"/>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="101" t="s">
         <v>58</v>
       </c>
@@ -9756,7 +9748,7 @@
       <c r="W2" s="101"/>
       <c r="X2" s="101"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -9779,7 +9771,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -9807,7 +9799,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -9835,7 +9827,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -9863,7 +9855,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
         <v>2</v>
       </c>
@@ -9891,7 +9883,7 @@
       <c r="W7" s="102"/>
       <c r="X7" s="102"/>
     </row>
-    <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="19.95" x14ac:dyDescent="0.35">
       <c r="A8" s="103" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
@@ -9920,7 +9912,7 @@
       <c r="W8" s="103"/>
       <c r="X8" s="103"/>
     </row>
-    <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
@@ -9968,7 +9960,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="104"/>
       <c r="B10" s="105"/>
       <c r="C10" s="104"/>
@@ -9996,7 +9988,7 @@
       <c r="Y10" s="112"/>
       <c r="Z10" s="98"/>
     </row>
-    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="113">
         <v>1</v>
       </c>
@@ -10076,7 +10068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="113"/>
       <c r="B12" s="113"/>
       <c r="C12" s="114"/>
@@ -10136,7 +10128,7 @@
       <c r="Y12" s="121"/>
       <c r="Z12" s="122"/>
     </row>
-    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="113"/>
       <c r="B13" s="113"/>
       <c r="C13" s="114"/>
@@ -10202,7 +10194,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="113"/>
       <c r="B14" s="113"/>
       <c r="C14" s="114"/>
@@ -10344,7 +10336,7 @@
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
     </row>
-    <row r="18" spans="1:24" s="39" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="B18" s="123" t="s">
         <v>12</v>
       </c>
@@ -10407,23 +10399,23 @@
       <selection activeCell="X19" sqref="X19:X20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="2" customWidth="1"/>
-    <col min="4" max="7" width="4.36328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.36328125" style="2" customWidth="1"/>
-    <col min="14" max="15" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.36328125" style="2" customWidth="1"/>
-    <col min="20" max="23" width="5.453125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="9.08984375" style="2"/>
-    <col min="25" max="25" width="10.90625" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.08984375" style="2"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="2" customWidth="1"/>
+    <col min="4" max="7" width="4.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.33203125" style="2" customWidth="1"/>
+    <col min="14" max="15" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.33203125" style="2" customWidth="1"/>
+    <col min="20" max="23" width="5.44140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="9.109375" style="2"/>
+    <col min="25" max="25" width="10.88671875" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
@@ -10434,7 +10426,7 @@
       </c>
       <c r="R1" s="16"/>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="96" t="s">
         <v>24</v>
       </c>
@@ -10463,7 +10455,7 @@
       <c r="V2" s="96"/>
       <c r="W2" s="96"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="96"/>
       <c r="B3" s="96"/>
       <c r="C3" s="96"/>
@@ -10490,7 +10482,7 @@
       <c r="V3" s="96"/>
       <c r="W3" s="96"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="96"/>
       <c r="B4" s="96"/>
       <c r="C4" s="96"/>
@@ -10517,7 +10509,7 @@
       <c r="V4" s="96"/>
       <c r="W4" s="96"/>
     </row>
-    <row r="5" spans="1:28" ht="20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="102" t="s">
         <v>2</v>
       </c>
@@ -10544,7 +10536,7 @@
       <c r="V5" s="102"/>
       <c r="W5" s="102"/>
     </row>
-    <row r="6" spans="1:28" ht="20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="19.95" x14ac:dyDescent="0.35">
       <c r="A6" s="102" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
@@ -10572,7 +10564,7 @@
       <c r="V6" s="102"/>
       <c r="W6" s="102"/>
     </row>
-    <row r="7" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="104" t="s">
         <v>3</v>
       </c>
@@ -10619,7 +10611,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="104"/>
       <c r="B8" s="104"/>
       <c r="C8" s="104"/>
@@ -10646,7 +10638,7 @@
       <c r="X8" s="112"/>
       <c r="Y8" s="98"/>
     </row>
-    <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="113">
         <v>1</v>
       </c>
@@ -10723,7 +10715,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="113"/>
       <c r="B10" s="114"/>
       <c r="C10" s="144"/>
@@ -10786,7 +10778,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="113"/>
       <c r="B11" s="114"/>
       <c r="C11" s="144"/>
@@ -10848,7 +10840,7 @@
       </c>
       <c r="Y11" s="122"/>
     </row>
-    <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="113"/>
       <c r="B12" s="114"/>
       <c r="C12" s="145"/>
@@ -10911,7 +10903,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="113">
         <v>2</v>
       </c>
@@ -10996,7 +10988,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="113"/>
       <c r="B14" s="114"/>
       <c r="C14" s="115"/>
@@ -11063,7 +11055,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="113"/>
       <c r="B15" s="114"/>
       <c r="C15" s="115"/>
@@ -11125,7 +11117,7 @@
       </c>
       <c r="Y15" s="122"/>
     </row>
-    <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="113"/>
       <c r="B16" s="114"/>
       <c r="C16" s="115"/>
@@ -11192,7 +11184,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="156">
         <v>3</v>
       </c>
@@ -11269,7 +11261,7 @@
         <v>6060</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="156"/>
       <c r="B18" s="157"/>
       <c r="C18" s="158"/>
@@ -11332,7 +11324,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="156"/>
       <c r="B19" s="157"/>
       <c r="C19" s="158"/>
@@ -11394,7 +11386,7 @@
       </c>
       <c r="Y19" s="122"/>
     </row>
-    <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="156"/>
       <c r="B20" s="157"/>
       <c r="C20" s="158"/>
@@ -11457,7 +11449,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="127">
         <v>4</v>
       </c>
@@ -11534,7 +11526,7 @@
         <v>6060</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="128"/>
       <c r="B22" s="160"/>
       <c r="C22" s="158"/>
@@ -11597,7 +11589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="128"/>
       <c r="B23" s="160"/>
       <c r="C23" s="158"/>
@@ -11659,7 +11651,7 @@
       </c>
       <c r="Y23" s="122"/>
     </row>
-    <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="129"/>
       <c r="B24" s="161"/>
       <c r="C24" s="158"/>
@@ -11755,7 +11747,7 @@
         <v>24720</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="123" t="s">
         <v>12</v>
       </c>
@@ -11796,7 +11788,7 @@
     <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="51" t="s">
         <v>76</v>
       </c>
@@ -11804,7 +11796,7 @@
       <c r="E28" s="52"/>
       <c r="F28" s="52"/>
     </row>
-    <row r="29" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="51" t="s">
         <v>66</v>
       </c>
@@ -11812,7 +11804,7 @@
       <c r="E29" s="52"/>
       <c r="F29" s="52"/>
     </row>
-    <row r="30" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="51" t="s">
         <v>67</v>
       </c>
@@ -11820,7 +11812,7 @@
       <c r="E30" s="52"/>
       <c r="F30" s="52"/>
     </row>
-    <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="51" t="s">
         <v>68</v>
       </c>
@@ -11828,7 +11820,7 @@
       <c r="E31" s="52"/>
       <c r="F31" s="52"/>
     </row>
-    <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="51" t="s">
         <v>69</v>
       </c>
@@ -11836,7 +11828,7 @@
       <c r="E32" s="52"/>
       <c r="F32" s="52"/>
     </row>
-    <row r="33" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C33" s="51" t="s">
         <v>70</v>
       </c>
@@ -11844,7 +11836,7 @@
       <c r="E33" s="52"/>
       <c r="F33" s="52"/>
     </row>
-    <row r="34" spans="1:30" s="95" customFormat="1" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" s="95" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="51" t="s">
@@ -11878,37 +11870,37 @@
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
     </row>
-    <row r="36" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C36" s="51"/>
       <c r="D36" s="51"/>
       <c r="E36" s="52"/>
       <c r="F36" s="52"/>
     </row>
-    <row r="37" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C37"/>
       <c r="D37" s="51"/>
       <c r="E37" s="52"/>
       <c r="F37" s="52"/>
     </row>
-    <row r="38" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C38"/>
       <c r="D38" s="51"/>
       <c r="E38" s="52"/>
       <c r="F38" s="52"/>
     </row>
-    <row r="39" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C39"/>
       <c r="D39" s="51"/>
       <c r="E39" s="52"/>
       <c r="F39" s="52"/>
     </row>
-    <row r="40" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C40"/>
       <c r="D40" s="52"/>
       <c r="E40" s="52"/>
       <c r="F40" s="52"/>
     </row>
-    <row r="41" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C41"/>
       <c r="D41" s="51"/>
       <c r="E41" s="52"/>
@@ -11988,24 +11980,24 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="2" customWidth="1"/>
-    <col min="4" max="7" width="4.26953125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.26953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="2" customWidth="1"/>
+    <col min="4" max="7" width="4.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.21875" style="2" customWidth="1"/>
     <col min="14" max="14" width="5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="4.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.26953125" style="2" customWidth="1"/>
-    <col min="20" max="23" width="5.453125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.1796875" style="2"/>
+    <col min="15" max="15" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.21875" style="2" customWidth="1"/>
+    <col min="20" max="23" width="5.44140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="7.5546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
@@ -12015,7 +12007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="70" t="s">
         <v>83</v>
       </c>
@@ -12044,7 +12036,7 @@
       <c r="V2" s="70"/>
       <c r="W2" s="70"/>
     </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="70"/>
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
@@ -12071,7 +12063,7 @@
       <c r="V3" s="70"/>
       <c r="W3" s="70"/>
     </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="70"/>
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
@@ -12123,7 +12115,7 @@
       <c r="V5" s="70"/>
       <c r="W5" s="70"/>
     </row>
-    <row r="6" spans="1:25" ht="20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="102" t="s">
         <v>2</v>
       </c>
@@ -12150,7 +12142,7 @@
       <c r="V6" s="102"/>
       <c r="W6" s="102"/>
     </row>
-    <row r="7" spans="1:25" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="102" t="s">
         <v>89</v>
       </c>
@@ -12177,7 +12169,7 @@
       <c r="V7" s="102"/>
       <c r="W7" s="102"/>
     </row>
-    <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="104" t="s">
         <v>3</v>
       </c>
@@ -12224,7 +12216,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="104"/>
       <c r="B9" s="104"/>
       <c r="C9" s="104"/>
@@ -12251,7 +12243,7 @@
       <c r="X9" s="112"/>
       <c r="Y9" s="98"/>
     </row>
-    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="113">
         <v>1</v>
       </c>
@@ -12328,7 +12320,7 @@
         <v>4770</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="113"/>
       <c r="B11" s="114"/>
       <c r="C11" s="115"/>
@@ -12387,7 +12379,7 @@
       <c r="X11" s="121"/>
       <c r="Y11" s="122"/>
     </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="113"/>
       <c r="B12" s="114"/>
       <c r="C12" s="115"/>
@@ -12448,7 +12440,7 @@
       </c>
       <c r="Y12" s="122"/>
     </row>
-    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="113"/>
       <c r="B13" s="114"/>
       <c r="C13" s="115"/>
@@ -12519,7 +12511,7 @@
         <v>4770</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="123" t="s">
         <v>12</v>
       </c>
@@ -12531,7 +12523,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C17" s="51" t="s">
         <v>72</v>
       </c>
@@ -12539,7 +12531,7 @@
       <c r="E17" s="52"/>
       <c r="F17" s="52"/>
     </row>
-    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C18" s="51" t="s">
         <v>66</v>
       </c>
@@ -12547,7 +12539,7 @@
       <c r="E18" s="52"/>
       <c r="F18" s="52"/>
     </row>
-    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C19" s="51" t="s">
         <v>67</v>
       </c>
@@ -12555,7 +12547,7 @@
       <c r="E19" s="52"/>
       <c r="F19" s="52"/>
     </row>
-    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C20" s="51" t="s">
         <v>68</v>
       </c>
@@ -12563,7 +12555,7 @@
       <c r="E20" s="52"/>
       <c r="F20" s="52"/>
     </row>
-    <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C21" s="51" t="s">
         <v>69</v>
       </c>
@@ -12571,7 +12563,7 @@
       <c r="E21" s="52"/>
       <c r="F21" s="52"/>
     </row>
-    <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C22" s="51" t="s">
         <v>70</v>
       </c>
@@ -12628,18 +12620,17 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="2" customWidth="1"/>
-    <col min="5" max="20" width="4.26953125" style="2" customWidth="1"/>
-    <col min="21" max="25" width="5.453125" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="2" width="3.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="2" customWidth="1"/>
+    <col min="5" max="20" width="4.21875" style="2" customWidth="1"/>
+    <col min="21" max="25" width="5.44140625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
         <v>9</v>
       </c>
@@ -12657,7 +12648,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>30</v>
       </c>
@@ -12688,7 +12679,7 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="s">
         <v>44</v>
       </c>
@@ -12721,7 +12712,7 @@
       <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
       <c r="B4" s="65"/>
       <c r="C4" s="65"/>
@@ -12777,7 +12768,7 @@
       <c r="X5" s="65"/>
       <c r="Y5" s="65"/>
     </row>
-    <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="102" t="s">
         <v>2</v>
       </c>
@@ -12806,7 +12797,7 @@
       <c r="X6" s="102"/>
       <c r="Y6" s="102"/>
     </row>
-    <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="19.95" x14ac:dyDescent="0.35">
       <c r="A7" s="102" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
@@ -12836,7 +12827,7 @@
       <c r="X7" s="102"/>
       <c r="Y7" s="102"/>
     </row>
-    <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="19.95" x14ac:dyDescent="0.35">
       <c r="A8" s="63"/>
       <c r="B8" s="63"/>
       <c r="C8" s="63"/>
@@ -12863,7 +12854,7 @@
       <c r="X8" s="63"/>
       <c r="Y8" s="63"/>
     </row>
-    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
@@ -12913,7 +12904,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="104"/>
       <c r="B10" s="105"/>
       <c r="C10" s="104"/>
@@ -12941,7 +12932,7 @@
       <c r="Y10" s="112"/>
       <c r="Z10" s="98"/>
     </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="113">
         <v>1</v>
       </c>
@@ -13019,7 +13010,7 @@
         <v>4770</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="113"/>
       <c r="B12" s="113"/>
       <c r="C12" s="114"/>
@@ -13079,7 +13070,7 @@
       <c r="Y12" s="121"/>
       <c r="Z12" s="162"/>
     </row>
-    <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="113"/>
       <c r="B13" s="113"/>
       <c r="C13" s="114"/>
@@ -13141,7 +13132,7 @@
       </c>
       <c r="Z13" s="162"/>
     </row>
-    <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="113"/>
       <c r="B14" s="113"/>
       <c r="C14" s="114"/>
@@ -13201,7 +13192,7 @@
       <c r="Y14" s="121"/>
       <c r="Z14" s="162"/>
     </row>
-    <row r="15" spans="1:26" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="123" t="s">
         <v>12</v>
       </c>
@@ -13214,7 +13205,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D17" s="51" t="s">
         <v>72</v>
       </c>
@@ -13222,7 +13213,7 @@
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
     </row>
-    <row r="18" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D18" s="51" t="s">
         <v>66</v>
       </c>
@@ -13230,7 +13221,7 @@
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
     </row>
-    <row r="19" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D19" s="51" t="s">
         <v>67</v>
       </c>
@@ -13238,7 +13229,7 @@
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
     </row>
-    <row r="20" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D20" s="51" t="s">
         <v>68</v>
       </c>
@@ -13246,7 +13237,7 @@
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
     </row>
-    <row r="21" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D21" s="51" t="s">
         <v>69</v>
       </c>
@@ -13254,7 +13245,7 @@
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
     </row>
-    <row r="22" spans="4:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D22" s="51" t="s">
         <v>70</v>
       </c>

--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 09 – 21.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 09 – 21.xlsx
@@ -954,6 +954,69 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -972,75 +1035,30 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1050,22 +1068,25 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1077,27 +1098,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1110,6 +1110,33 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1117,33 +1144,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1478,49 +1478,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="94"/>
@@ -1630,147 +1630,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
+      <c r="A7" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
     </row>
     <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="103" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="116" t="s">
+      <c r="B9" s="105"/>
+      <c r="C9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="118" t="s">
+      <c r="E9" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="98"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="108" t="s">
+      <c r="B11" s="113"/>
+      <c r="C11" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="115" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="25">
@@ -1821,28 +1821,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
+      <c r="U11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="119" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="90"/>
-      <c r="Y11" s="98">
+      <c r="Y11" s="119">
         <v>22</v>
       </c>
-      <c r="Z11" s="101">
+      <c r="Z11" s="122">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="26">
         <v>4</v>
       </c>
@@ -1891,22 +1891,22 @@
       <c r="T12" s="26">
         <v>4</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="120"/>
       <c r="X12" s="91"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="101"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="122"/>
       <c r="AA12" s="2">
         <f>SUM(E12:T12)</f>
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -1955,25 +1955,25 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="120"/>
       <c r="X13" s="91"/>
-      <c r="Y13" s="98">
+      <c r="Y13" s="119">
         <f>AB13</f>
         <v>88</v>
       </c>
-      <c r="Z13" s="101"/>
+      <c r="Z13" s="122"/>
       <c r="AB13" s="2">
         <f>AA12+AA14</f>
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="26">
         <v>4</v>
       </c>
@@ -2022,12 +2022,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="121"/>
       <c r="X14" s="92"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="101"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="122"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>40</v>
@@ -2112,18 +2112,18 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="93" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103">
+      <c r="C18" s="123"/>
+      <c r="D18" s="124">
         <f>Мельницький!C36</f>
         <v>44470</v>
       </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
       <c r="L18" s="93" t="s">
         <v>102</v>
       </c>
@@ -2165,6 +2165,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
@@ -2181,18 +2193,6 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -2357,63 +2357,63 @@
       <c r="Y5" s="60"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
+      <c r="A6" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="102"/>
+      <c r="Y6" s="102"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="str">
+      <c r="A7" s="102" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="61"/>
@@ -2443,94 +2443,94 @@
       <c r="Y8" s="61"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="98"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="107">
+      <c r="B11" s="113">
         <v>1</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="115" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="25">
@@ -2581,17 +2581,17 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
+      <c r="U11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="119" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="146"/>
-      <c r="Y11" s="98">
+      <c r="Y11" s="119">
         <v>20</v>
       </c>
       <c r="Z11" s="162">
@@ -2599,10 +2599,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -2651,18 +2651,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="120"/>
       <c r="X12" s="147"/>
-      <c r="Y12" s="100"/>
+      <c r="Y12" s="121"/>
       <c r="Z12" s="162"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -2711,20 +2711,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="120"/>
       <c r="X13" s="147"/>
-      <c r="Y13" s="98">
+      <c r="Y13" s="119">
         <v>160</v>
       </c>
       <c r="Z13" s="162"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -2773,18 +2773,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="121"/>
       <c r="X14" s="148"/>
-      <c r="Y14" s="100"/>
+      <c r="Y14" s="121"/>
       <c r="Z14" s="162"/>
     </row>
     <row r="15" spans="1:26" s="59" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="102"/>
+      <c r="C15" s="123"/>
       <c r="D15" s="58">
         <f>Мельницький!C36</f>
         <v>44470</v>
@@ -2848,18 +2848,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -2873,6 +2861,18 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3060,147 +3060,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
+      <c r="A7" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
     </row>
     <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="114" t="str">
+      <c r="A8" s="102" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="110" t="s">
+      <c r="Y9" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="110"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="98"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="107">
+      <c r="B11" s="113">
         <v>1</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="115" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3251,29 +3251,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="98">
+      <c r="U11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="119">
         <v>21</v>
       </c>
-      <c r="Y11" s="98"/>
+      <c r="Y11" s="119"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -3322,17 +3322,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="99"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="120"/>
+      <c r="X12" s="120"/>
+      <c r="Y12" s="120"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -3381,23 +3381,23 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="99">
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="120"/>
+      <c r="X13" s="120">
         <v>42</v>
       </c>
-      <c r="Y13" s="99"/>
+      <c r="Y13" s="120"/>
       <c r="AA13" s="2">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -3446,11 +3446,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="100"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="121"/>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="121"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -3509,10 +3509,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="36" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="142" t="s">
+      <c r="B17" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="142"/>
+      <c r="C17" s="139"/>
       <c r="D17" s="37">
         <f>Мельницький!C36</f>
         <v>44470</v>
@@ -3576,6 +3576,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A7:X7"/>
+    <mergeCell ref="A8:X8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
@@ -3585,20 +3599,6 @@
     <mergeCell ref="X11:X12"/>
     <mergeCell ref="X13:X14"/>
     <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="A7:X7"/>
-    <mergeCell ref="A8:X8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -3786,147 +3786,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
+      <c r="A7" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="114" t="str">
+      <c r="A8" s="102" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="110" t="s">
+      <c r="Y9" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="110"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="98"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="107">
+      <c r="B11" s="113">
         <v>1</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="115" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3977,29 +3977,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="98">
+      <c r="U11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="119">
         <v>21</v>
       </c>
-      <c r="Y11" s="139"/>
+      <c r="Y11" s="136"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -4048,17 +4048,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="140"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="120"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="137"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -4107,20 +4107,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="98">
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="120"/>
+      <c r="X13" s="119">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
-      <c r="Y13" s="140"/>
+      <c r="Y13" s="137"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -4169,11 +4169,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="141"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="121"/>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="138"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -4232,10 +4232,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="142" t="s">
+      <c r="B17" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="142"/>
+      <c r="C17" s="139"/>
       <c r="D17" s="40">
         <f>Мельницький!C36</f>
         <v>44470</v>
@@ -4299,6 +4299,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -4309,19 +4322,6 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -4350,12 +4350,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -4499,149 +4499,149 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="114"/>
+      <c r="A7" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="102"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="103" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="115"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
+      <c r="Y8" s="103"/>
+      <c r="Z8" s="103"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="98"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="107">
+      <c r="B11" s="113">
         <v>2</v>
       </c>
       <c r="C11" s="125" t="s">
@@ -4698,26 +4698,26 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
+      <c r="U11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="119" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="22"/>
-      <c r="Y11" s="98">
+      <c r="Y11" s="119">
         <v>21</v>
       </c>
-      <c r="Z11" s="101">
+      <c r="Z11" s="122">
         <v>3232</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="125"/>
       <c r="D12" s="126"/>
       <c r="E12" s="26" t="s">
@@ -4768,16 +4768,16 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="120"/>
       <c r="X12" s="23"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="101"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="122"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="125"/>
       <c r="D13" s="126"/>
       <c r="E13" s="27">
@@ -4828,18 +4828,18 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="120"/>
       <c r="X13" s="23"/>
-      <c r="Y13" s="98">
+      <c r="Y13" s="119">
         <v>42</v>
       </c>
-      <c r="Z13" s="101"/>
+      <c r="Z13" s="122"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
       <c r="C14" s="125"/>
       <c r="D14" s="126"/>
       <c r="E14" s="26">
@@ -4890,18 +4890,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="121"/>
       <c r="X14" s="24"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="101"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="122"/>
     </row>
     <row r="16" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="30">
         <v>42916</v>
       </c>
@@ -4983,15 +4983,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
@@ -5008,6 +4999,15 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5040,11 +5040,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
       <c r="Q2" s="15" t="s">
         <v>40</v>
       </c>
@@ -5158,141 +5158,141 @@
       <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
+      <c r="A7" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
     </row>
     <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="124" t="s">
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="124" t="s">
+      <c r="U9" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="110" t="s">
+      <c r="Y9" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="110"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="98"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="115" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="25">
@@ -5343,27 +5343,27 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="98" t="s">
+      <c r="T11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="119" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="22"/>
-      <c r="X11" s="98">
+      <c r="X11" s="119">
         <v>22</v>
       </c>
-      <c r="Y11" s="101">
+      <c r="Y11" s="122">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -5412,21 +5412,21 @@
       <c r="S12" s="26">
         <v>8</v>
       </c>
-      <c r="T12" s="105"/>
-      <c r="U12" s="105"/>
-      <c r="V12" s="99"/>
+      <c r="T12" s="117"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="120"/>
       <c r="W12" s="23"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="101"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="122"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -5475,24 +5475,24 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="105"/>
-      <c r="U13" s="105"/>
-      <c r="V13" s="99"/>
+      <c r="T13" s="117"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="120"/>
       <c r="W13" s="23"/>
-      <c r="X13" s="98">
+      <c r="X13" s="119">
         <f>Z12+Z14</f>
         <v>176</v>
       </c>
-      <c r="Y13" s="101"/>
+      <c r="Y13" s="122"/>
       <c r="AA13" s="2">
         <f>Z14+Z12</f>
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -5541,25 +5541,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="100"/>
+      <c r="T14" s="118"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="121"/>
       <c r="W14" s="24"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="101"/>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="122"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="107">
-        <v>2</v>
-      </c>
-      <c r="B15" s="108" t="s">
+      <c r="A15" s="113">
+        <v>2</v>
+      </c>
+      <c r="B15" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="115" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="25">
@@ -5610,20 +5610,20 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="104">
+      <c r="T15" s="116">
         <v>24</v>
       </c>
-      <c r="U15" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="98" t="s">
+      <c r="U15" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="119" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="42"/>
-      <c r="X15" s="98">
+      <c r="X15" s="119">
         <v>4</v>
       </c>
-      <c r="Y15" s="101">
+      <c r="Y15" s="122">
         <v>6060</v>
       </c>
       <c r="Z15" s="2">
@@ -5632,9 +5632,9 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="107"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="26" t="s">
         <v>91</v>
       </c>
@@ -5683,12 +5683,12 @@
       <c r="S16" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="T16" s="105"/>
-      <c r="U16" s="105"/>
-      <c r="V16" s="99"/>
+      <c r="T16" s="117"/>
+      <c r="U16" s="117"/>
+      <c r="V16" s="120"/>
       <c r="W16" s="44"/>
-      <c r="X16" s="100"/>
-      <c r="Y16" s="101"/>
+      <c r="X16" s="121"/>
+      <c r="Y16" s="122"/>
       <c r="Z16" s="2" t="s">
         <v>52</v>
       </c>
@@ -5698,9 +5698,9 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="107"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -5749,24 +5749,24 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="105"/>
-      <c r="U17" s="105"/>
-      <c r="V17" s="99"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="120"/>
       <c r="W17" s="44"/>
-      <c r="X17" s="98">
+      <c r="X17" s="119">
         <f>Z15+Z17</f>
         <v>32</v>
       </c>
-      <c r="Y17" s="101"/>
+      <c r="Y17" s="122"/>
       <c r="Z17" s="2">
         <f>SUM(D18:S18)</f>
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="107"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="109"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="26" t="s">
         <v>91</v>
       </c>
@@ -5815,21 +5815,21 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="100"/>
+      <c r="T18" s="118"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="121"/>
       <c r="W18" s="43"/>
-      <c r="X18" s="100"/>
-      <c r="Y18" s="101"/>
+      <c r="X18" s="121"/>
+      <c r="Y18" s="122"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="107">
+      <c r="A19" s="113">
         <v>3</v>
       </c>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="115" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="25">
@@ -5880,27 +5880,27 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="104">
+      <c r="T19" s="116">
         <v>24</v>
       </c>
-      <c r="U19" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="98" t="s">
+      <c r="U19" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="119" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="53"/>
-      <c r="X19" s="98">
+      <c r="X19" s="119">
         <v>22</v>
       </c>
-      <c r="Y19" s="101">
+      <c r="Y19" s="122">
         <v>6300</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="107"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="109"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="26" t="s">
         <v>91</v>
       </c>
@@ -5949,21 +5949,21 @@
       <c r="S20" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="T20" s="105"/>
-      <c r="U20" s="105"/>
-      <c r="V20" s="99"/>
+      <c r="T20" s="117"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="120"/>
       <c r="W20" s="55"/>
-      <c r="X20" s="100"/>
-      <c r="Y20" s="101"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="122"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="107"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="109"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -6012,24 +6012,24 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="105"/>
-      <c r="U21" s="105"/>
-      <c r="V21" s="99"/>
+      <c r="T21" s="117"/>
+      <c r="U21" s="117"/>
+      <c r="V21" s="120"/>
       <c r="W21" s="55"/>
-      <c r="X21" s="98">
+      <c r="X21" s="119">
         <f>Z20+Z22</f>
         <v>32</v>
       </c>
-      <c r="Y21" s="101"/>
+      <c r="Y21" s="122"/>
       <c r="AA21" s="2">
         <f>Z22+Z20</f>
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="107"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="109"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="26" t="s">
         <v>91</v>
       </c>
@@ -6078,25 +6078,25 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="100"/>
+      <c r="T22" s="118"/>
+      <c r="U22" s="118"/>
+      <c r="V22" s="121"/>
       <c r="W22" s="54"/>
-      <c r="X22" s="100"/>
-      <c r="Y22" s="101"/>
+      <c r="X22" s="121"/>
+      <c r="Y22" s="122"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="107">
+      <c r="A23" s="113">
         <v>4</v>
       </c>
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="115" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="25">
@@ -6147,27 +6147,27 @@
       <c r="S23" s="25">
         <v>16</v>
       </c>
-      <c r="T23" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23" s="98" t="s">
+      <c r="T23" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="119" t="s">
         <v>8</v>
       </c>
       <c r="W23" s="53"/>
-      <c r="X23" s="98">
+      <c r="X23" s="119">
         <v>22</v>
       </c>
-      <c r="Y23" s="101">
+      <c r="Y23" s="122">
         <v>6060</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="107"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="109"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="26">
         <v>8</v>
       </c>
@@ -6216,21 +6216,21 @@
       <c r="S24" s="26">
         <v>8</v>
       </c>
-      <c r="T24" s="105"/>
-      <c r="U24" s="105"/>
-      <c r="V24" s="99"/>
+      <c r="T24" s="117"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="120"/>
       <c r="W24" s="55"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="101"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="122"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="107"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="109"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="27">
         <v>17</v>
       </c>
@@ -6279,24 +6279,24 @@
       <c r="S25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T25" s="105"/>
-      <c r="U25" s="105"/>
-      <c r="V25" s="99"/>
+      <c r="T25" s="117"/>
+      <c r="U25" s="117"/>
+      <c r="V25" s="120"/>
       <c r="W25" s="55"/>
-      <c r="X25" s="98">
+      <c r="X25" s="119">
         <f>Z24+Z26</f>
         <v>176</v>
       </c>
-      <c r="Y25" s="101"/>
+      <c r="Y25" s="122"/>
       <c r="AA25" s="2">
         <f>Z26+Z24</f>
         <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="107"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="109"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -6345,19 +6345,19 @@
       <c r="S26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="100"/>
+      <c r="T26" s="118"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="121"/>
       <c r="W26" s="54"/>
-      <c r="X26" s="100"/>
-      <c r="Y26" s="101"/>
+      <c r="X26" s="121"/>
+      <c r="Y26" s="122"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="107">
+      <c r="A27" s="113">
         <v>5</v>
       </c>
       <c r="B27" s="125" t="s">
@@ -6414,20 +6414,20 @@
       <c r="S27" s="25">
         <v>16</v>
       </c>
-      <c r="T27" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V27" s="98" t="s">
+      <c r="T27" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="119" t="s">
         <v>8</v>
       </c>
       <c r="W27" s="53"/>
-      <c r="X27" s="98">
+      <c r="X27" s="119">
         <v>22</v>
       </c>
-      <c r="Y27" s="101">
+      <c r="Y27" s="122">
         <v>6060</v>
       </c>
       <c r="Z27" s="2" t="s">
@@ -6435,7 +6435,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="107"/>
+      <c r="A28" s="113"/>
       <c r="B28" s="125"/>
       <c r="C28" s="126"/>
       <c r="D28" s="26">
@@ -6486,15 +6486,15 @@
       <c r="S28" s="26">
         <v>8</v>
       </c>
-      <c r="T28" s="105"/>
-      <c r="U28" s="105"/>
-      <c r="V28" s="99"/>
+      <c r="T28" s="117"/>
+      <c r="U28" s="117"/>
+      <c r="V28" s="120"/>
       <c r="W28" s="55"/>
-      <c r="X28" s="100"/>
-      <c r="Y28" s="101"/>
+      <c r="X28" s="121"/>
+      <c r="Y28" s="122"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="107"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="125"/>
       <c r="C29" s="126"/>
       <c r="D29" s="27">
@@ -6545,17 +6545,17 @@
       <c r="S29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="105"/>
-      <c r="U29" s="105"/>
-      <c r="V29" s="99"/>
+      <c r="T29" s="117"/>
+      <c r="U29" s="117"/>
+      <c r="V29" s="120"/>
       <c r="W29" s="55"/>
-      <c r="X29" s="98">
+      <c r="X29" s="119">
         <v>32</v>
       </c>
-      <c r="Y29" s="101"/>
+      <c r="Y29" s="122"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="107"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="125"/>
       <c r="C30" s="126"/>
       <c r="D30" s="26">
@@ -6606,21 +6606,21 @@
       <c r="S30" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T30" s="106"/>
-      <c r="U30" s="106"/>
-      <c r="V30" s="100"/>
+      <c r="T30" s="118"/>
+      <c r="U30" s="118"/>
+      <c r="V30" s="121"/>
       <c r="W30" s="54"/>
-      <c r="X30" s="100"/>
-      <c r="Y30" s="101"/>
+      <c r="X30" s="121"/>
+      <c r="Y30" s="122"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="107">
+      <c r="A31" s="113">
         <v>6</v>
       </c>
-      <c r="B31" s="108" t="s">
+      <c r="B31" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="109" t="s">
+      <c r="C31" s="115" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="25">
@@ -6671,27 +6671,27 @@
       <c r="S31" s="25">
         <v>16</v>
       </c>
-      <c r="T31" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U31" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V31" s="98" t="s">
+      <c r="T31" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U31" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V31" s="119" t="s">
         <v>8</v>
       </c>
       <c r="W31" s="45"/>
-      <c r="X31" s="98">
+      <c r="X31" s="119">
         <v>4</v>
       </c>
-      <c r="Y31" s="101">
+      <c r="Y31" s="122">
         <v>6060</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="107"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="109"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="26">
         <v>8</v>
       </c>
@@ -6740,12 +6740,12 @@
       <c r="S32" s="26">
         <v>8</v>
       </c>
-      <c r="T32" s="105"/>
-      <c r="U32" s="105"/>
-      <c r="V32" s="99"/>
+      <c r="T32" s="117"/>
+      <c r="U32" s="117"/>
+      <c r="V32" s="120"/>
       <c r="W32" s="47"/>
-      <c r="X32" s="100"/>
-      <c r="Y32" s="101"/>
+      <c r="X32" s="121"/>
+      <c r="Y32" s="122"/>
       <c r="Z32" s="2">
         <f>SUM(D32:S32)</f>
         <v>96</v>
@@ -6756,9 +6756,9 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="107"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="109"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="115"/>
       <c r="D33" s="27">
         <v>17</v>
       </c>
@@ -6807,20 +6807,20 @@
       <c r="S33" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T33" s="105"/>
-      <c r="U33" s="105"/>
-      <c r="V33" s="99"/>
+      <c r="T33" s="117"/>
+      <c r="U33" s="117"/>
+      <c r="V33" s="120"/>
       <c r="W33" s="47"/>
-      <c r="X33" s="98">
+      <c r="X33" s="119">
         <f>Z32+Z34</f>
         <v>176</v>
       </c>
-      <c r="Y33" s="101"/>
+      <c r="Y33" s="122"/>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="107"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="109"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="115"/>
       <c r="D34" s="26">
         <v>8</v>
       </c>
@@ -6869,12 +6869,12 @@
       <c r="S34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T34" s="106"/>
-      <c r="U34" s="106"/>
-      <c r="V34" s="100"/>
+      <c r="T34" s="118"/>
+      <c r="U34" s="118"/>
+      <c r="V34" s="121"/>
       <c r="W34" s="46"/>
-      <c r="X34" s="100"/>
-      <c r="Y34" s="101"/>
+      <c r="X34" s="121"/>
+      <c r="Y34" s="122"/>
       <c r="Z34" s="2">
         <f>SUM(D34:S34)</f>
         <v>80</v>
@@ -6893,10 +6893,10 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="102" t="s">
+      <c r="A36" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="102"/>
+      <c r="B36" s="123"/>
       <c r="C36" s="33">
         <v>44470</v>
       </c>
@@ -6962,33 +6962,31 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="U31:U34"/>
-    <mergeCell ref="V31:V34"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="Y31:Y34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="T31:T34"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y27:Y30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="V19:V22"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="A8:W8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:S10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="U15:U18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="V27:V30"/>
     <mergeCell ref="A27:A30"/>
@@ -7005,31 +7003,33 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="T19:T22"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="A8:W8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:S10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="U15:U18"/>
-    <mergeCell ref="U19:U22"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="V19:V22"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y27:Y30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="T31:T34"/>
+    <mergeCell ref="U31:U34"/>
+    <mergeCell ref="V31:V34"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="Y31:Y34"/>
+    <mergeCell ref="X33:X34"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7197,63 +7197,63 @@
       <c r="Y5" s="77"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
+      <c r="A6" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="102"/>
+      <c r="Y6" s="102"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="str">
+      <c r="A7" s="102" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="76"/>
@@ -7283,90 +7283,90 @@
       <c r="Y8" s="76"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="116" t="s">
+      <c r="B9" s="116"/>
+      <c r="C9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="98"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="133">
+      <c r="A11" s="127">
         <v>1</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104" t="s">
+      <c r="B11" s="116"/>
+      <c r="C11" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="115" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="25">
@@ -7421,18 +7421,18 @@
       <c r="V11" s="130"/>
       <c r="W11" s="130"/>
       <c r="X11" s="130"/>
-      <c r="Y11" s="98">
+      <c r="Y11" s="119">
         <v>22</v>
       </c>
-      <c r="Z11" s="127">
+      <c r="Z11" s="133">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="134"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="128"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -7485,14 +7485,14 @@
       <c r="V12" s="131"/>
       <c r="W12" s="131"/>
       <c r="X12" s="131"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="128"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="134"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="134"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="128"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -7545,16 +7545,16 @@
       <c r="V13" s="131"/>
       <c r="W13" s="131"/>
       <c r="X13" s="131"/>
-      <c r="Y13" s="98">
+      <c r="Y13" s="119">
         <v>176</v>
       </c>
-      <c r="Z13" s="128"/>
+      <c r="Z13" s="134"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="135"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="129"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="26">
         <v>8</v>
       </c>
@@ -7607,8 +7607,8 @@
       <c r="V14" s="132"/>
       <c r="W14" s="132"/>
       <c r="X14" s="132"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="129"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="135"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
@@ -7639,10 +7639,10 @@
       <c r="Z15" s="89"/>
     </row>
     <row r="16" spans="1:26" s="75" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="78">
         <f>Мельницький!C36</f>
         <v>44470</v>
@@ -7706,6 +7706,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="X11:X14"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="D11:D14"/>
@@ -7719,18 +7731,6 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="X11:X14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -7759,12 +7759,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="R1" s="15" t="s">
         <v>40</v>
       </c>
@@ -7909,147 +7909,147 @@
       <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
+      <c r="A7" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="114" t="str">
+      <c r="A8" s="102" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="110" t="s">
+      <c r="Y9" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="110"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="98"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="133">
+      <c r="B11" s="127">
         <v>1</v>
       </c>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="136" t="s">
+      <c r="D11" s="143" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -8100,19 +8100,19 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="98">
+      <c r="U11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="119">
         <v>22</v>
       </c>
-      <c r="Y11" s="139">
+      <c r="Y11" s="136">
         <v>6060</v>
       </c>
       <c r="Z11" s="3">
@@ -8121,10 +8121,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="137"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="144"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -8173,17 +8173,17 @@
       <c r="T12" s="26">
         <v>8</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="140"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="120"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="137"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="137"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="144"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -8232,20 +8232,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="98">
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="120"/>
+      <c r="X13" s="119">
         <f>Z11+Z14</f>
         <v>176</v>
       </c>
-      <c r="Y13" s="140"/>
+      <c r="Y13" s="137"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="138"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="145"/>
       <c r="E14" s="26">
         <v>8</v>
       </c>
@@ -8294,11 +8294,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="141"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="121"/>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="138"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>80</v>
@@ -8332,10 +8332,10 @@
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="142"/>
+      <c r="C16" s="139"/>
       <c r="D16" s="5">
         <f>Мельницький!C36</f>
         <v>44470</v>
@@ -8414,14 +8414,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
@@ -8432,12 +8430,14 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8468,11 +8468,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
@@ -8616,145 +8616,145 @@
       <c r="X6" s="82"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
+      <c r="A7" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
       <c r="X7" s="80"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="103" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
+      <c r="Y8" s="103"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="124" t="s">
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="124" t="s">
+      <c r="U9" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="110" t="s">
+      <c r="Y9" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="110"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="98"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="115" t="s">
         <v>95</v>
       </c>
       <c r="D11" s="25">
@@ -8805,27 +8805,27 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="98" t="s">
+      <c r="T11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="119" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="146"/>
-      <c r="X11" s="98">
+      <c r="X11" s="119">
         <v>22</v>
       </c>
-      <c r="Y11" s="101">
+      <c r="Y11" s="122">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="26">
         <v>2</v>
       </c>
@@ -8874,21 +8874,21 @@
       <c r="S12" s="26">
         <v>2</v>
       </c>
-      <c r="T12" s="105"/>
-      <c r="U12" s="105"/>
-      <c r="V12" s="99"/>
+      <c r="T12" s="117"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="120"/>
       <c r="W12" s="147"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="101"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="122"/>
       <c r="Z12" s="3">
         <f>SUM(D12:S12)</f>
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -8937,20 +8937,20 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="105"/>
-      <c r="U13" s="105"/>
-      <c r="V13" s="99"/>
+      <c r="T13" s="117"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="120"/>
       <c r="W13" s="147"/>
-      <c r="X13" s="98">
+      <c r="X13" s="119">
         <f>Z12+Z14</f>
         <v>44</v>
       </c>
-      <c r="Y13" s="101"/>
+      <c r="Y13" s="122"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="26">
         <v>2</v>
       </c>
@@ -8999,25 +8999,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="100"/>
+      <c r="T14" s="118"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="121"/>
       <c r="W14" s="148"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="101"/>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="122"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="107">
-        <v>2</v>
-      </c>
-      <c r="B15" s="108" t="s">
+      <c r="A15" s="113">
+        <v>2</v>
+      </c>
+      <c r="B15" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="115" t="s">
         <v>97</v>
       </c>
       <c r="D15" s="25">
@@ -9068,28 +9068,28 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="98" t="s">
+      <c r="T15" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="119" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="146"/>
-      <c r="X15" s="98">
+      <c r="X15" s="119">
         <f>X17/8</f>
         <v>22</v>
       </c>
-      <c r="Y15" s="101">
+      <c r="Y15" s="122">
         <v>6000</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="107"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -9138,21 +9138,21 @@
       <c r="S16" s="26">
         <v>8</v>
       </c>
-      <c r="T16" s="105"/>
-      <c r="U16" s="105"/>
-      <c r="V16" s="99"/>
+      <c r="T16" s="117"/>
+      <c r="U16" s="117"/>
+      <c r="V16" s="120"/>
       <c r="W16" s="147"/>
-      <c r="X16" s="100"/>
-      <c r="Y16" s="101"/>
+      <c r="X16" s="121"/>
+      <c r="Y16" s="122"/>
       <c r="Z16" s="3">
         <f>SUM(D16:S16)</f>
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="107"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -9201,20 +9201,20 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="105"/>
-      <c r="U17" s="105"/>
-      <c r="V17" s="99"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="120"/>
       <c r="W17" s="147"/>
-      <c r="X17" s="98">
+      <c r="X17" s="119">
         <f>Z16+Z18</f>
         <v>176</v>
       </c>
-      <c r="Y17" s="101"/>
+      <c r="Y17" s="122"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="107"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="109"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -9263,25 +9263,25 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="100"/>
+      <c r="T18" s="118"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="121"/>
       <c r="W18" s="148"/>
-      <c r="X18" s="100"/>
-      <c r="Y18" s="101"/>
+      <c r="X18" s="121"/>
+      <c r="Y18" s="122"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="107">
+      <c r="A19" s="113">
         <v>3</v>
       </c>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="115" t="s">
         <v>99</v>
       </c>
       <c r="D19" s="25">
@@ -9332,28 +9332,28 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="98" t="s">
+      <c r="T19" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="119" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="146"/>
-      <c r="X19" s="98">
+      <c r="X19" s="119">
         <f>X21/4</f>
         <v>22</v>
       </c>
-      <c r="Y19" s="101">
+      <c r="Y19" s="122">
         <v>6000</v>
       </c>
     </row>
     <row r="20" spans="1:26" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="107"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="109"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="26">
         <v>4</v>
       </c>
@@ -9402,21 +9402,21 @@
       <c r="S20" s="26">
         <v>4</v>
       </c>
-      <c r="T20" s="105"/>
-      <c r="U20" s="105"/>
-      <c r="V20" s="99"/>
+      <c r="T20" s="117"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="120"/>
       <c r="W20" s="147"/>
-      <c r="X20" s="100"/>
-      <c r="Y20" s="101"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="122"/>
       <c r="Z20" s="3">
         <f>SUM(D20:S20)</f>
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="107"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="109"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -9465,20 +9465,20 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="105"/>
-      <c r="U21" s="105"/>
-      <c r="V21" s="99"/>
+      <c r="T21" s="117"/>
+      <c r="U21" s="117"/>
+      <c r="V21" s="120"/>
       <c r="W21" s="147"/>
-      <c r="X21" s="98">
+      <c r="X21" s="119">
         <f>Z20+Z22</f>
         <v>88</v>
       </c>
-      <c r="Y21" s="101"/>
+      <c r="Y21" s="122"/>
     </row>
     <row r="22" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="107"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="109"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="26">
         <v>4</v>
       </c>
@@ -9527,12 +9527,12 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="100"/>
+      <c r="T22" s="118"/>
+      <c r="U22" s="118"/>
+      <c r="V22" s="121"/>
       <c r="W22" s="148"/>
-      <c r="X22" s="100"/>
-      <c r="Y22" s="101"/>
+      <c r="X22" s="121"/>
+      <c r="Y22" s="122"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>40</v>
@@ -9642,24 +9642,16 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="A8:Y8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="T19:T22"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="U15:U18"/>
     <mergeCell ref="V11:V14"/>
     <mergeCell ref="W11:W14"/>
     <mergeCell ref="V19:V22"/>
@@ -9675,16 +9667,24 @@
     <mergeCell ref="X15:X16"/>
     <mergeCell ref="Y15:Y18"/>
     <mergeCell ref="X17:X18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="U15:U18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="T19:T22"/>
-    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="A8:Y8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9712,49 +9712,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
@@ -9864,147 +9864,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
+      <c r="A7" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
     </row>
     <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="103" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="116" t="s">
+      <c r="B9" s="105"/>
+      <c r="C9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="118" t="s">
+      <c r="E9" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="98"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="108" t="s">
+      <c r="B11" s="113"/>
+      <c r="C11" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="115" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -10055,20 +10055,20 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
+      <c r="U11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="119" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="48"/>
-      <c r="Y11" s="98">
+      <c r="Y11" s="119">
         <v>22</v>
       </c>
-      <c r="Z11" s="101">
+      <c r="Z11" s="122">
         <v>6060</v>
       </c>
       <c r="AA11" s="2">
@@ -10077,10 +10077,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="26">
         <v>2</v>
       </c>
@@ -10129,18 +10129,18 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="120"/>
       <c r="X12" s="50"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="101"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="122"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -10189,24 +10189,24 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="120"/>
       <c r="X13" s="50"/>
-      <c r="Y13" s="98">
+      <c r="Y13" s="119">
         <v>44</v>
       </c>
-      <c r="Z13" s="101"/>
+      <c r="Z13" s="122"/>
       <c r="AB13" s="2">
         <f>AA11+AA14</f>
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -10255,12 +10255,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="121"/>
       <c r="X14" s="49"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="101"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="122"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>20</v>
@@ -10345,10 +10345,10 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="39" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="102"/>
+      <c r="C18" s="123"/>
       <c r="D18" s="149">
         <f>Мельницький!C36</f>
         <v>44470</v>
@@ -10363,11 +10363,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
     <mergeCell ref="A2:X2"/>
@@ -10383,14 +10386,11 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -10424,11 +10424,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -10518,142 +10518,142 @@
       <c r="W4" s="96"/>
     </row>
     <row r="5" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A5" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
+      <c r="A5" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="102"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
     </row>
     <row r="6" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="str">
+      <c r="A6" s="102" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
     </row>
     <row r="7" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="120"/>
-      <c r="T7" s="124" t="s">
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="124" t="s">
+      <c r="U7" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="124" t="s">
+      <c r="V7" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="124" t="s">
+      <c r="W7" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="124" t="s">
+      <c r="X7" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" s="110" t="s">
+      <c r="Y7" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="116"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="122"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="122"/>
-      <c r="P8" s="122"/>
-      <c r="Q8" s="122"/>
-      <c r="R8" s="122"/>
-      <c r="S8" s="123"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
-      <c r="V8" s="124"/>
-      <c r="W8" s="124"/>
-      <c r="X8" s="124"/>
-      <c r="Y8" s="110"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="112"/>
+      <c r="X8" s="112"/>
+      <c r="Y8" s="98"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="107">
+      <c r="A9" s="113">
         <v>1</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="143" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="25">
@@ -10704,29 +10704,29 @@
       <c r="S9" s="25">
         <v>16</v>
       </c>
-      <c r="T9" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X9" s="98">
+      <c r="T9" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="119">
         <v>22</v>
       </c>
-      <c r="Y9" s="101">
+      <c r="Y9" s="122">
         <v>6300</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="107"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="137"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="144"/>
       <c r="D10" s="26">
         <v>8</v>
       </c>
@@ -10775,21 +10775,21 @@
       <c r="S10" s="26">
         <v>8</v>
       </c>
-      <c r="T10" s="105"/>
-      <c r="U10" s="105"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="99"/>
-      <c r="X10" s="100"/>
-      <c r="Y10" s="101"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="120"/>
+      <c r="W10" s="120"/>
+      <c r="X10" s="121"/>
+      <c r="Y10" s="122"/>
       <c r="Z10" s="3">
         <f>SUM(D10:S10)</f>
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="137"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="144"/>
       <c r="D11" s="27">
         <v>17</v>
       </c>
@@ -10838,20 +10838,20 @@
       <c r="S11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="105"/>
-      <c r="U11" s="105"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="98">
+      <c r="T11" s="117"/>
+      <c r="U11" s="117"/>
+      <c r="V11" s="120"/>
+      <c r="W11" s="120"/>
+      <c r="X11" s="119">
         <f>Z10+Z12</f>
         <v>176</v>
       </c>
-      <c r="Y11" s="101"/>
+      <c r="Y11" s="122"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="138"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="145"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -10900,25 +10900,25 @@
       <c r="S12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="101"/>
+      <c r="T12" s="118"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="122"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107">
-        <v>2</v>
-      </c>
-      <c r="B13" s="108" t="s">
+      <c r="A13" s="113">
+        <v>2</v>
+      </c>
+      <c r="B13" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="109" t="str">
+      <c r="C13" s="115" t="str">
         <f>C9</f>
         <v>лікар-стоматолог</v>
       </c>
@@ -10970,22 +10970,22 @@
       <c r="S13" s="25">
         <v>16</v>
       </c>
-      <c r="T13" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U13" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" s="98">
+      <c r="T13" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="119">
         <v>22</v>
       </c>
-      <c r="Y13" s="101">
+      <c r="Y13" s="122">
         <v>6300</v>
       </c>
       <c r="Z13" s="2" t="s">
@@ -10997,9 +10997,9 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -11048,12 +11048,12 @@
       <c r="S14" s="26">
         <v>8</v>
       </c>
-      <c r="T14" s="105"/>
-      <c r="U14" s="105"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="101"/>
+      <c r="T14" s="117"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="120"/>
+      <c r="W14" s="120"/>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="122"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>96</v>
@@ -11064,9 +11064,9 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="107"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="109"/>
+      <c r="A15" s="113"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="115"/>
       <c r="D15" s="27">
         <v>17</v>
       </c>
@@ -11115,20 +11115,20 @@
       <c r="S15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="105"/>
-      <c r="U15" s="105"/>
-      <c r="V15" s="99"/>
-      <c r="W15" s="99"/>
-      <c r="X15" s="98">
+      <c r="T15" s="117"/>
+      <c r="U15" s="117"/>
+      <c r="V15" s="120"/>
+      <c r="W15" s="120"/>
+      <c r="X15" s="119">
         <f>Z14+Z16</f>
         <v>176</v>
       </c>
-      <c r="Y15" s="101"/>
+      <c r="Y15" s="122"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="107"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -11177,12 +11177,12 @@
       <c r="S16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="100"/>
-      <c r="X16" s="100"/>
-      <c r="Y16" s="101"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="121"/>
+      <c r="W16" s="121"/>
+      <c r="X16" s="121"/>
+      <c r="Y16" s="122"/>
       <c r="Z16" s="2">
         <f>SUM(D16:S16)</f>
         <v>80</v>
@@ -11193,13 +11193,13 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="160">
+      <c r="A17" s="156">
         <v>3</v>
       </c>
-      <c r="B17" s="161" t="s">
+      <c r="B17" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="153" t="s">
+      <c r="C17" s="158" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="25">
@@ -11250,29 +11250,29 @@
       <c r="S17" s="25">
         <v>16</v>
       </c>
-      <c r="T17" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="157" t="s">
-        <v>8</v>
-      </c>
-      <c r="V17" s="154" t="s">
-        <v>8</v>
-      </c>
-      <c r="W17" s="154" t="s">
-        <v>8</v>
-      </c>
-      <c r="X17" s="154">
+      <c r="T17" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="153" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="150" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="150" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="150">
         <v>22</v>
       </c>
-      <c r="Y17" s="101">
+      <c r="Y17" s="122">
         <v>6060</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="160"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="153"/>
+      <c r="A18" s="156"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="158"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -11321,21 +11321,21 @@
       <c r="S18" s="26">
         <v>8</v>
       </c>
-      <c r="T18" s="105"/>
-      <c r="U18" s="158"/>
-      <c r="V18" s="156"/>
-      <c r="W18" s="156"/>
-      <c r="X18" s="155"/>
-      <c r="Y18" s="101"/>
+      <c r="T18" s="117"/>
+      <c r="U18" s="154"/>
+      <c r="V18" s="151"/>
+      <c r="W18" s="151"/>
+      <c r="X18" s="152"/>
+      <c r="Y18" s="122"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="160"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="153"/>
+      <c r="A19" s="156"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="158"/>
       <c r="D19" s="27">
         <v>17</v>
       </c>
@@ -11384,20 +11384,20 @@
       <c r="S19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T19" s="105"/>
-      <c r="U19" s="158"/>
-      <c r="V19" s="156"/>
-      <c r="W19" s="156"/>
-      <c r="X19" s="154">
+      <c r="T19" s="117"/>
+      <c r="U19" s="154"/>
+      <c r="V19" s="151"/>
+      <c r="W19" s="151"/>
+      <c r="X19" s="150">
         <f>Z18+Z20</f>
         <v>176</v>
       </c>
-      <c r="Y19" s="101"/>
+      <c r="Y19" s="122"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="160"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="153"/>
+      <c r="A20" s="156"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="158"/>
       <c r="D20" s="26">
         <v>8</v>
       </c>
@@ -11446,25 +11446,25 @@
       <c r="S20" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="106"/>
-      <c r="U20" s="159"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
-      <c r="Y20" s="101"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="155"/>
+      <c r="V20" s="152"/>
+      <c r="W20" s="152"/>
+      <c r="X20" s="152"/>
+      <c r="Y20" s="122"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="133">
+      <c r="A21" s="127">
         <v>4</v>
       </c>
-      <c r="B21" s="150" t="s">
+      <c r="B21" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="153" t="s">
+      <c r="C21" s="158" t="s">
         <v>105</v>
       </c>
       <c r="D21" s="25">
@@ -11515,29 +11515,29 @@
       <c r="S21" s="25">
         <v>16</v>
       </c>
-      <c r="T21" s="104">
+      <c r="T21" s="116">
         <v>24</v>
       </c>
-      <c r="U21" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="98">
+      <c r="U21" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="119">
         <v>4</v>
       </c>
-      <c r="Y21" s="101">
+      <c r="Y21" s="122">
         <v>6060</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="134"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="153"/>
+      <c r="A22" s="128"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="158"/>
       <c r="D22" s="26" t="s">
         <v>91</v>
       </c>
@@ -11586,21 +11586,21 @@
       <c r="S22" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="T22" s="105"/>
-      <c r="U22" s="105"/>
-      <c r="V22" s="99"/>
-      <c r="W22" s="99"/>
-      <c r="X22" s="99"/>
-      <c r="Y22" s="101"/>
+      <c r="T22" s="117"/>
+      <c r="U22" s="117"/>
+      <c r="V22" s="120"/>
+      <c r="W22" s="120"/>
+      <c r="X22" s="120"/>
+      <c r="Y22" s="122"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="134"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="153"/>
+      <c r="A23" s="128"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="158"/>
       <c r="D23" s="27">
         <v>17</v>
       </c>
@@ -11649,20 +11649,20 @@
       <c r="S23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="105"/>
-      <c r="U23" s="105"/>
-      <c r="V23" s="99"/>
-      <c r="W23" s="99"/>
-      <c r="X23" s="98">
+      <c r="T23" s="117"/>
+      <c r="U23" s="117"/>
+      <c r="V23" s="120"/>
+      <c r="W23" s="120"/>
+      <c r="X23" s="119">
         <f>Z22+Z24</f>
         <v>16</v>
       </c>
-      <c r="Y23" s="101"/>
+      <c r="Y23" s="122"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="135"/>
-      <c r="B24" s="152"/>
-      <c r="C24" s="153"/>
+      <c r="A24" s="129"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="158"/>
       <c r="D24" s="26" t="s">
         <v>91</v>
       </c>
@@ -11711,12 +11711,12 @@
       <c r="S24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="101"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="121"/>
+      <c r="W24" s="121"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="122"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>16</v>
@@ -11756,10 +11756,10 @@
       </c>
     </row>
     <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="102"/>
+      <c r="B26" s="123"/>
       <c r="C26" s="97">
         <v>44440</v>
       </c>
@@ -11919,6 +11919,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y24"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y20"/>
+    <mergeCell ref="X19:X20"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="W9:W12"/>
     <mergeCell ref="W17:W20"/>
@@ -11935,44 +11973,6 @@
     <mergeCell ref="V13:V16"/>
     <mergeCell ref="V17:V20"/>
     <mergeCell ref="A9:A12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y24"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="T13:T16"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -12006,11 +12006,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -12124,141 +12124,141 @@
       <c r="W5" s="70"/>
     </row>
     <row r="6" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
+      <c r="A6" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
     </row>
     <row r="7" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
     </row>
     <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="116" t="s">
+      <c r="D8" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="124" t="s">
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="124" t="s">
+      <c r="U8" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="124" t="s">
+      <c r="V8" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="124" t="s">
+      <c r="W8" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="X8" s="124" t="s">
+      <c r="X8" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="110" t="s">
+      <c r="Y8" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="124"/>
-      <c r="U9" s="124"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="124"/>
-      <c r="X9" s="124"/>
-      <c r="Y9" s="110"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="112"/>
+      <c r="V9" s="112"/>
+      <c r="W9" s="112"/>
+      <c r="X9" s="112"/>
+      <c r="Y9" s="98"/>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="107">
+      <c r="A10" s="113">
         <v>1</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="115" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="25">
@@ -12309,29 +12309,29 @@
       <c r="S10" s="25">
         <v>16</v>
       </c>
-      <c r="T10" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="101">
+      <c r="T10" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="122">
         <v>4770</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="109"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="26" t="s">
         <v>88</v>
       </c>
@@ -12380,17 +12380,17 @@
       <c r="S11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="T11" s="105"/>
-      <c r="U11" s="105"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="100"/>
-      <c r="Y11" s="101"/>
+      <c r="T11" s="117"/>
+      <c r="U11" s="117"/>
+      <c r="V11" s="120"/>
+      <c r="W11" s="120"/>
+      <c r="X11" s="121"/>
+      <c r="Y11" s="122"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="27">
         <v>17</v>
       </c>
@@ -12439,19 +12439,19 @@
       <c r="S12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="105"/>
-      <c r="U12" s="105"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="101"/>
+      <c r="T12" s="117"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="120"/>
+      <c r="W12" s="120"/>
+      <c r="X12" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="122"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
       <c r="D13" s="26" t="s">
         <v>88</v>
       </c>
@@ -12500,12 +12500,12 @@
       <c r="S13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="100"/>
-      <c r="Y13" s="101"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="121"/>
+      <c r="Y13" s="122"/>
     </row>
     <row r="14" spans="1:25" s="69" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="68"/>
@@ -12520,10 +12520,10 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="102"/>
+      <c r="B15" s="123"/>
       <c r="C15" s="71">
         <v>44013</v>
       </c>
@@ -12589,16 +12589,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="W10:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="T10:T13"/>
-    <mergeCell ref="U10:U13"/>
-    <mergeCell ref="V10:V13"/>
-    <mergeCell ref="X10:X11"/>
     <mergeCell ref="Y10:Y13"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="Y8:Y9"/>
@@ -12613,6 +12603,16 @@
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="W8:W9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="W10:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="X10:X11"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -12777,63 +12777,63 @@
       <c r="Y5" s="65"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
+      <c r="A6" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="102"/>
+      <c r="Y6" s="102"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="str">
+      <c r="A7" s="102" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="63"/>
@@ -12863,94 +12863,94 @@
       <c r="Y8" s="63"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="98" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="98"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="113">
         <v>1</v>
       </c>
-      <c r="B11" s="107">
+      <c r="B11" s="113">
         <v>1</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="115" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -13001,17 +13001,17 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
+      <c r="U11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="119" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="146"/>
-      <c r="Y11" s="98" t="s">
+      <c r="Y11" s="119" t="s">
         <v>8</v>
       </c>
       <c r="Z11" s="162">
@@ -13019,10 +13019,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -13071,18 +13071,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="120"/>
       <c r="X12" s="147"/>
-      <c r="Y12" s="100"/>
+      <c r="Y12" s="121"/>
       <c r="Z12" s="162"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -13131,20 +13131,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="120"/>
       <c r="X13" s="147"/>
-      <c r="Y13" s="98" t="s">
+      <c r="Y13" s="119" t="s">
         <v>8</v>
       </c>
       <c r="Z13" s="162"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -13193,18 +13193,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="121"/>
       <c r="X14" s="148"/>
-      <c r="Y14" s="100"/>
+      <c r="Y14" s="121"/>
       <c r="Z14" s="162"/>
     </row>
     <row r="15" spans="1:26" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="102"/>
+      <c r="C15" s="123"/>
       <c r="D15" s="66">
         <f>Мельницький!C36</f>
         <v>44470</v>
@@ -13268,6 +13268,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -13281,18 +13293,6 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>

--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 09 – 21.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 09 – 21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="80" windowWidth="15120" windowHeight="7760" tabRatio="867" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="80" windowWidth="15120" windowHeight="7760" tabRatio="867" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Угринчук" sheetId="25" r:id="rId1"/>
@@ -954,6 +954,42 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -999,48 +1035,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1050,22 +1068,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1089,15 +1098,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1110,15 +1110,27 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1132,18 +1144,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1478,49 +1478,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="94"/>
@@ -1630,147 +1630,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
+      <c r="A7" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
     </row>
     <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="103" t="str">
+      <c r="A8" s="115" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="104" t="s">
+      <c r="B9" s="117"/>
+      <c r="C9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="112" t="s">
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="120"/>
+      <c r="U9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="112" t="s">
+      <c r="V9" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="112" t="s">
+      <c r="X9" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="112" t="s">
+      <c r="Y9" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="98" t="s">
+      <c r="Z9" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="98"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="110"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113">
+      <c r="A11" s="107">
         <v>1</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="114" t="s">
+      <c r="B11" s="107"/>
+      <c r="C11" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="109" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="25">
@@ -1821,28 +1821,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="119" t="s">
+      <c r="U11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="98" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="90"/>
-      <c r="Y11" s="119">
+      <c r="Y11" s="98">
         <v>22</v>
       </c>
-      <c r="Z11" s="122">
+      <c r="Z11" s="101">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="115"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="26">
         <v>4</v>
       </c>
@@ -1891,22 +1891,22 @@
       <c r="T12" s="26">
         <v>4</v>
       </c>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="120"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="99"/>
       <c r="X12" s="91"/>
-      <c r="Y12" s="121"/>
-      <c r="Z12" s="122"/>
+      <c r="Y12" s="100"/>
+      <c r="Z12" s="101"/>
       <c r="AA12" s="2">
         <f>SUM(E12:T12)</f>
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -1955,25 +1955,25 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="120"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="99"/>
       <c r="X13" s="91"/>
-      <c r="Y13" s="119">
+      <c r="Y13" s="98">
         <f>AB13</f>
         <v>88</v>
       </c>
-      <c r="Z13" s="122"/>
+      <c r="Z13" s="101"/>
       <c r="AB13" s="2">
         <f>AA12+AA14</f>
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="115"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="26">
         <v>4</v>
       </c>
@@ -2022,12 +2022,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="121"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="100"/>
       <c r="X14" s="92"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="122"/>
+      <c r="Y14" s="100"/>
+      <c r="Z14" s="101"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>40</v>
@@ -2112,18 +2112,18 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="93" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="123" t="s">
+      <c r="B18" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="123"/>
-      <c r="D18" s="124">
+      <c r="C18" s="102"/>
+      <c r="D18" s="103">
         <f>Мельницький!C36</f>
         <v>44470</v>
       </c>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
       <c r="L18" s="93" t="s">
         <v>102</v>
       </c>
@@ -2165,18 +2165,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
@@ -2193,6 +2181,18 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -2357,63 +2357,63 @@
       <c r="Y5" s="60"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="102"/>
-      <c r="W6" s="102"/>
-      <c r="X6" s="102"/>
-      <c r="Y6" s="102"/>
+      <c r="A6" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="str">
+      <c r="A7" s="114" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
-      <c r="Y7" s="102"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="61"/>
@@ -2443,94 +2443,94 @@
       <c r="Y8" s="61"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="112" t="s">
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="112" t="s">
+      <c r="V9" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="112" t="s">
+      <c r="X9" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="112" t="s">
+      <c r="Y9" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="98" t="s">
+      <c r="Z9" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="98"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="110"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113">
+      <c r="A11" s="107">
         <v>1</v>
       </c>
-      <c r="B11" s="113">
+      <c r="B11" s="107">
         <v>1</v>
       </c>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="109" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="25">
@@ -2581,17 +2581,17 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="119" t="s">
+      <c r="U11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="98" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="146"/>
-      <c r="Y11" s="119">
+      <c r="Y11" s="98">
         <v>20</v>
       </c>
       <c r="Z11" s="162">
@@ -2599,10 +2599,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="115"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -2651,18 +2651,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="120"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="99"/>
       <c r="X12" s="147"/>
-      <c r="Y12" s="121"/>
+      <c r="Y12" s="100"/>
       <c r="Z12" s="162"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -2711,20 +2711,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="120"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="99"/>
       <c r="X13" s="147"/>
-      <c r="Y13" s="119">
+      <c r="Y13" s="98">
         <v>160</v>
       </c>
       <c r="Z13" s="162"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="115"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -2773,18 +2773,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="121"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="100"/>
       <c r="X14" s="148"/>
-      <c r="Y14" s="121"/>
+      <c r="Y14" s="100"/>
       <c r="Z14" s="162"/>
     </row>
     <row r="15" spans="1:26" s="59" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="123"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="58">
         <f>Мельницький!C36</f>
         <v>44470</v>
@@ -2848,6 +2848,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -2861,18 +2873,6 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -3060,147 +3060,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
+      <c r="A7" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
     </row>
     <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="102" t="str">
+      <c r="A8" s="114" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="102"/>
-      <c r="W8" s="102"/>
-      <c r="X8" s="102"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="114"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="112" t="s">
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="112" t="s">
+      <c r="V9" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="112" t="s">
+      <c r="X9" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="98" t="s">
+      <c r="Y9" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="98"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="110"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113">
+      <c r="A11" s="107">
         <v>1</v>
       </c>
-      <c r="B11" s="113">
+      <c r="B11" s="107">
         <v>1</v>
       </c>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="109" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3251,29 +3251,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="119">
+      <c r="U11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="98">
         <v>21</v>
       </c>
-      <c r="Y11" s="119"/>
+      <c r="Y11" s="98"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="115"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -3322,17 +3322,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="120"/>
-      <c r="X12" s="120"/>
-      <c r="Y12" s="120"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="99"/>
+      <c r="Y12" s="99"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -3381,23 +3381,23 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="120"/>
-      <c r="X13" s="120">
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="99">
         <v>42</v>
       </c>
-      <c r="Y13" s="120"/>
+      <c r="Y13" s="99"/>
       <c r="AA13" s="2">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="115"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -3446,11 +3446,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="121"/>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="121"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="100"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -3509,10 +3509,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="36" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="139" t="s">
+      <c r="B17" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="139"/>
+      <c r="C17" s="142"/>
       <c r="D17" s="37">
         <f>Мельницький!C36</f>
         <v>44470</v>
@@ -3576,6 +3576,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -3585,20 +3599,6 @@
     <mergeCell ref="E9:T10"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y11:Y14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -3786,147 +3786,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
+      <c r="A7" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="102" t="str">
+      <c r="A8" s="114" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="102"/>
-      <c r="W8" s="102"/>
-      <c r="X8" s="102"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="114"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="112" t="s">
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="112" t="s">
+      <c r="V9" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="112" t="s">
+      <c r="X9" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="98" t="s">
+      <c r="Y9" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="98"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="110"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113">
+      <c r="A11" s="107">
         <v>1</v>
       </c>
-      <c r="B11" s="113">
+      <c r="B11" s="107">
         <v>1</v>
       </c>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="109" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3977,29 +3977,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="119">
+      <c r="U11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="98">
         <v>21</v>
       </c>
-      <c r="Y11" s="136"/>
+      <c r="Y11" s="139"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="115"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -4048,17 +4048,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="120"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="137"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="140"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -4107,20 +4107,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="120"/>
-      <c r="X13" s="119">
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="98">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
-      <c r="Y13" s="137"/>
+      <c r="Y13" s="140"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="115"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -4169,11 +4169,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="121"/>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="138"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="141"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -4232,10 +4232,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="139" t="s">
+      <c r="B17" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="139"/>
+      <c r="C17" s="142"/>
       <c r="D17" s="40">
         <f>Мельницький!C36</f>
         <v>44470</v>
@@ -4299,19 +4299,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
     <mergeCell ref="A9:A10"/>
@@ -4322,6 +4309,19 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X12"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -4350,12 +4350,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -4499,149 +4499,149 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
-      <c r="Y7" s="102"/>
-      <c r="Z7" s="102"/>
+      <c r="A7" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="103" t="str">
+      <c r="A8" s="115" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="103"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="115"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="112" t="s">
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="112" t="s">
+      <c r="V9" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="112" t="s">
+      <c r="X9" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="112" t="s">
+      <c r="Y9" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="98" t="s">
+      <c r="Z9" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="98"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="110"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113">
+      <c r="A11" s="107">
         <v>1</v>
       </c>
-      <c r="B11" s="113">
+      <c r="B11" s="107">
         <v>2</v>
       </c>
       <c r="C11" s="125" t="s">
@@ -4698,26 +4698,26 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="119" t="s">
+      <c r="U11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="98" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="22"/>
-      <c r="Y11" s="119">
+      <c r="Y11" s="98">
         <v>21</v>
       </c>
-      <c r="Z11" s="122">
+      <c r="Z11" s="101">
         <v>3232</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="125"/>
       <c r="D12" s="126"/>
       <c r="E12" s="26" t="s">
@@ -4768,16 +4768,16 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="120"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="99"/>
       <c r="X12" s="23"/>
-      <c r="Y12" s="121"/>
-      <c r="Z12" s="122"/>
+      <c r="Y12" s="100"/>
+      <c r="Z12" s="101"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="125"/>
       <c r="D13" s="126"/>
       <c r="E13" s="27">
@@ -4828,18 +4828,18 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="120"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="99"/>
       <c r="X13" s="23"/>
-      <c r="Y13" s="119">
+      <c r="Y13" s="98">
         <v>42</v>
       </c>
-      <c r="Z13" s="122"/>
+      <c r="Z13" s="101"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
       <c r="C14" s="125"/>
       <c r="D14" s="126"/>
       <c r="E14" s="26">
@@ -4890,18 +4890,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="121"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="100"/>
       <c r="X14" s="24"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="122"/>
+      <c r="Y14" s="100"/>
+      <c r="Z14" s="101"/>
     </row>
     <row r="16" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="123"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="30">
         <v>42916</v>
       </c>
@@ -4983,6 +4983,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
@@ -4999,15 +5008,6 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5040,11 +5040,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
       <c r="Q2" s="15" t="s">
         <v>40</v>
       </c>
@@ -5158,141 +5158,141 @@
       <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
+      <c r="A7" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
     </row>
     <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="102"/>
-      <c r="W8" s="102"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="114"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="112" t="s">
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="112" t="s">
+      <c r="U9" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="112" t="s">
+      <c r="V9" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="112" t="s">
+      <c r="X9" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="98" t="s">
+      <c r="Y9" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="98"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="110"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113">
+      <c r="A11" s="107">
         <v>1</v>
       </c>
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="109" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="25">
@@ -5343,27 +5343,27 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="119" t="s">
+      <c r="T11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="98" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="22"/>
-      <c r="X11" s="119">
+      <c r="X11" s="98">
         <v>22</v>
       </c>
-      <c r="Y11" s="122">
+      <c r="Y11" s="101">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -5412,21 +5412,21 @@
       <c r="S12" s="26">
         <v>8</v>
       </c>
-      <c r="T12" s="117"/>
-      <c r="U12" s="117"/>
-      <c r="V12" s="120"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="99"/>
       <c r="W12" s="23"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="122"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="101"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -5475,24 +5475,24 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="120"/>
+      <c r="T13" s="105"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="99"/>
       <c r="W13" s="23"/>
-      <c r="X13" s="119">
+      <c r="X13" s="98">
         <f>Z12+Z14</f>
         <v>176</v>
       </c>
-      <c r="Y13" s="122"/>
+      <c r="Y13" s="101"/>
       <c r="AA13" s="2">
         <f>Z14+Z12</f>
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -5541,25 +5541,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="121"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="24"/>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="122"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="101"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="113">
-        <v>2</v>
-      </c>
-      <c r="B15" s="114" t="s">
+      <c r="A15" s="107">
+        <v>2</v>
+      </c>
+      <c r="B15" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="109" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="25">
@@ -5610,20 +5610,20 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="116">
+      <c r="T15" s="104">
         <v>24</v>
       </c>
-      <c r="U15" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="119" t="s">
+      <c r="U15" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="98" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="42"/>
-      <c r="X15" s="119">
+      <c r="X15" s="98">
         <v>4</v>
       </c>
-      <c r="Y15" s="122">
+      <c r="Y15" s="101">
         <v>6060</v>
       </c>
       <c r="Z15" s="2">
@@ -5632,9 +5632,9 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="113"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="115"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="26" t="s">
         <v>91</v>
       </c>
@@ -5683,12 +5683,12 @@
       <c r="S16" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="T16" s="117"/>
-      <c r="U16" s="117"/>
-      <c r="V16" s="120"/>
+      <c r="T16" s="105"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="44"/>
-      <c r="X16" s="121"/>
-      <c r="Y16" s="122"/>
+      <c r="X16" s="100"/>
+      <c r="Y16" s="101"/>
       <c r="Z16" s="2" t="s">
         <v>52</v>
       </c>
@@ -5698,9 +5698,9 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="113"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="115"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="109"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -5749,24 +5749,24 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="117"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="120"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="105"/>
+      <c r="V17" s="99"/>
       <c r="W17" s="44"/>
-      <c r="X17" s="119">
+      <c r="X17" s="98">
         <f>Z15+Z17</f>
         <v>32</v>
       </c>
-      <c r="Y17" s="122"/>
+      <c r="Y17" s="101"/>
       <c r="Z17" s="2">
         <f>SUM(D18:S18)</f>
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="113"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="115"/>
+      <c r="A18" s="107"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="26" t="s">
         <v>91</v>
       </c>
@@ -5815,21 +5815,21 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="118"/>
-      <c r="U18" s="118"/>
-      <c r="V18" s="121"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="100"/>
       <c r="W18" s="43"/>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="122"/>
+      <c r="X18" s="100"/>
+      <c r="Y18" s="101"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="113">
+      <c r="A19" s="107">
         <v>3</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="109" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="25">
@@ -5880,27 +5880,27 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="116">
+      <c r="T19" s="104">
         <v>24</v>
       </c>
-      <c r="U19" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="119" t="s">
+      <c r="U19" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="98" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="53"/>
-      <c r="X19" s="119">
+      <c r="X19" s="98">
         <v>22</v>
       </c>
-      <c r="Y19" s="122">
+      <c r="Y19" s="101">
         <v>6300</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="113"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="109"/>
       <c r="D20" s="26" t="s">
         <v>91</v>
       </c>
@@ -5949,21 +5949,21 @@
       <c r="S20" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="120"/>
+      <c r="T20" s="105"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="99"/>
       <c r="W20" s="55"/>
-      <c r="X20" s="121"/>
-      <c r="Y20" s="122"/>
+      <c r="X20" s="100"/>
+      <c r="Y20" s="101"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="113"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="115"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="109"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -6012,24 +6012,24 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="117"/>
-      <c r="U21" s="117"/>
-      <c r="V21" s="120"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="99"/>
       <c r="W21" s="55"/>
-      <c r="X21" s="119">
+      <c r="X21" s="98">
         <f>Z20+Z22</f>
         <v>32</v>
       </c>
-      <c r="Y21" s="122"/>
+      <c r="Y21" s="101"/>
       <c r="AA21" s="2">
         <f>Z22+Z20</f>
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="113"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
+      <c r="A22" s="107"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="26" t="s">
         <v>91</v>
       </c>
@@ -6078,25 +6078,25 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="121"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="100"/>
       <c r="W22" s="54"/>
-      <c r="X22" s="121"/>
-      <c r="Y22" s="122"/>
+      <c r="X22" s="100"/>
+      <c r="Y22" s="101"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="113">
+      <c r="A23" s="107">
         <v>4</v>
       </c>
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="115" t="s">
+      <c r="C23" s="109" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="25">
@@ -6147,27 +6147,27 @@
       <c r="S23" s="25">
         <v>16</v>
       </c>
-      <c r="T23" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23" s="119" t="s">
+      <c r="T23" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="98" t="s">
         <v>8</v>
       </c>
       <c r="W23" s="53"/>
-      <c r="X23" s="119">
+      <c r="X23" s="98">
         <v>22</v>
       </c>
-      <c r="Y23" s="122">
+      <c r="Y23" s="101">
         <v>6060</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="113"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="115"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="109"/>
       <c r="D24" s="26">
         <v>8</v>
       </c>
@@ -6216,21 +6216,21 @@
       <c r="S24" s="26">
         <v>8</v>
       </c>
-      <c r="T24" s="117"/>
-      <c r="U24" s="117"/>
-      <c r="V24" s="120"/>
+      <c r="T24" s="105"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="99"/>
       <c r="W24" s="55"/>
-      <c r="X24" s="121"/>
-      <c r="Y24" s="122"/>
+      <c r="X24" s="100"/>
+      <c r="Y24" s="101"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="113"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="115"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="109"/>
       <c r="D25" s="27">
         <v>17</v>
       </c>
@@ -6279,24 +6279,24 @@
       <c r="S25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T25" s="117"/>
-      <c r="U25" s="117"/>
-      <c r="V25" s="120"/>
+      <c r="T25" s="105"/>
+      <c r="U25" s="105"/>
+      <c r="V25" s="99"/>
       <c r="W25" s="55"/>
-      <c r="X25" s="119">
+      <c r="X25" s="98">
         <f>Z24+Z26</f>
         <v>176</v>
       </c>
-      <c r="Y25" s="122"/>
+      <c r="Y25" s="101"/>
       <c r="AA25" s="2">
         <f>Z26+Z24</f>
         <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="113"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="115"/>
+      <c r="A26" s="107"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="109"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -6345,19 +6345,19 @@
       <c r="S26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="121"/>
+      <c r="T26" s="106"/>
+      <c r="U26" s="106"/>
+      <c r="V26" s="100"/>
       <c r="W26" s="54"/>
-      <c r="X26" s="121"/>
-      <c r="Y26" s="122"/>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="101"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="113">
+      <c r="A27" s="107">
         <v>5</v>
       </c>
       <c r="B27" s="125" t="s">
@@ -6414,20 +6414,20 @@
       <c r="S27" s="25">
         <v>16</v>
       </c>
-      <c r="T27" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V27" s="119" t="s">
+      <c r="T27" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="98" t="s">
         <v>8</v>
       </c>
       <c r="W27" s="53"/>
-      <c r="X27" s="119">
+      <c r="X27" s="98">
         <v>22</v>
       </c>
-      <c r="Y27" s="122">
+      <c r="Y27" s="101">
         <v>6060</v>
       </c>
       <c r="Z27" s="2" t="s">
@@ -6435,7 +6435,7 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="113"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="125"/>
       <c r="C28" s="126"/>
       <c r="D28" s="26">
@@ -6486,15 +6486,15 @@
       <c r="S28" s="26">
         <v>8</v>
       </c>
-      <c r="T28" s="117"/>
-      <c r="U28" s="117"/>
-      <c r="V28" s="120"/>
+      <c r="T28" s="105"/>
+      <c r="U28" s="105"/>
+      <c r="V28" s="99"/>
       <c r="W28" s="55"/>
-      <c r="X28" s="121"/>
-      <c r="Y28" s="122"/>
+      <c r="X28" s="100"/>
+      <c r="Y28" s="101"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="113"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="125"/>
       <c r="C29" s="126"/>
       <c r="D29" s="27">
@@ -6545,17 +6545,17 @@
       <c r="S29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="117"/>
-      <c r="U29" s="117"/>
-      <c r="V29" s="120"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="99"/>
       <c r="W29" s="55"/>
-      <c r="X29" s="119">
+      <c r="X29" s="98">
         <v>32</v>
       </c>
-      <c r="Y29" s="122"/>
+      <c r="Y29" s="101"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="113"/>
+      <c r="A30" s="107"/>
       <c r="B30" s="125"/>
       <c r="C30" s="126"/>
       <c r="D30" s="26">
@@ -6606,21 +6606,21 @@
       <c r="S30" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T30" s="118"/>
-      <c r="U30" s="118"/>
-      <c r="V30" s="121"/>
+      <c r="T30" s="106"/>
+      <c r="U30" s="106"/>
+      <c r="V30" s="100"/>
       <c r="W30" s="54"/>
-      <c r="X30" s="121"/>
-      <c r="Y30" s="122"/>
+      <c r="X30" s="100"/>
+      <c r="Y30" s="101"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="113">
+      <c r="A31" s="107">
         <v>6</v>
       </c>
-      <c r="B31" s="114" t="s">
+      <c r="B31" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="115" t="s">
+      <c r="C31" s="109" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="25">
@@ -6671,27 +6671,27 @@
       <c r="S31" s="25">
         <v>16</v>
       </c>
-      <c r="T31" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U31" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V31" s="119" t="s">
+      <c r="T31" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U31" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V31" s="98" t="s">
         <v>8</v>
       </c>
       <c r="W31" s="45"/>
-      <c r="X31" s="119">
+      <c r="X31" s="98">
         <v>4</v>
       </c>
-      <c r="Y31" s="122">
+      <c r="Y31" s="101">
         <v>6060</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="113"/>
-      <c r="B32" s="114"/>
-      <c r="C32" s="115"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="109"/>
       <c r="D32" s="26">
         <v>8</v>
       </c>
@@ -6740,12 +6740,12 @@
       <c r="S32" s="26">
         <v>8</v>
       </c>
-      <c r="T32" s="117"/>
-      <c r="U32" s="117"/>
-      <c r="V32" s="120"/>
+      <c r="T32" s="105"/>
+      <c r="U32" s="105"/>
+      <c r="V32" s="99"/>
       <c r="W32" s="47"/>
-      <c r="X32" s="121"/>
-      <c r="Y32" s="122"/>
+      <c r="X32" s="100"/>
+      <c r="Y32" s="101"/>
       <c r="Z32" s="2">
         <f>SUM(D32:S32)</f>
         <v>96</v>
@@ -6756,9 +6756,9 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="113"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="115"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="109"/>
       <c r="D33" s="27">
         <v>17</v>
       </c>
@@ -6807,20 +6807,20 @@
       <c r="S33" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T33" s="117"/>
-      <c r="U33" s="117"/>
-      <c r="V33" s="120"/>
+      <c r="T33" s="105"/>
+      <c r="U33" s="105"/>
+      <c r="V33" s="99"/>
       <c r="W33" s="47"/>
-      <c r="X33" s="119">
+      <c r="X33" s="98">
         <f>Z32+Z34</f>
         <v>176</v>
       </c>
-      <c r="Y33" s="122"/>
+      <c r="Y33" s="101"/>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="113"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="115"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="109"/>
       <c r="D34" s="26">
         <v>8</v>
       </c>
@@ -6869,12 +6869,12 @@
       <c r="S34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T34" s="118"/>
-      <c r="U34" s="118"/>
-      <c r="V34" s="121"/>
+      <c r="T34" s="106"/>
+      <c r="U34" s="106"/>
+      <c r="V34" s="100"/>
       <c r="W34" s="46"/>
-      <c r="X34" s="121"/>
-      <c r="Y34" s="122"/>
+      <c r="X34" s="100"/>
+      <c r="Y34" s="101"/>
       <c r="Z34" s="2">
         <f>SUM(D34:S34)</f>
         <v>80</v>
@@ -6893,10 +6893,10 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="123" t="s">
+      <c r="A36" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="123"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="33">
         <v>44470</v>
       </c>
@@ -6962,15 +6962,49 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="U19:U22"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="V15:V18"/>
-    <mergeCell ref="V19:V22"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U31:U34"/>
+    <mergeCell ref="V31:V34"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="Y31:Y34"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="T31:T34"/>
+    <mergeCell ref="Y23:Y26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="Y27:Y30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y15:Y18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="V27:V30"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="T27:T30"/>
+    <mergeCell ref="U27:U30"/>
+    <mergeCell ref="V23:V26"/>
+    <mergeCell ref="U23:U26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="T23:T26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="T19:T22"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A7:W7"/>
@@ -6987,49 +7021,15 @@
     <mergeCell ref="V11:V14"/>
     <mergeCell ref="U11:U14"/>
     <mergeCell ref="U15:U18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="V27:V30"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="T27:T30"/>
-    <mergeCell ref="U27:U30"/>
-    <mergeCell ref="V23:V26"/>
-    <mergeCell ref="U23:U26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="T23:T26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="T19:T22"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y15:Y18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y23:Y26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="Y27:Y30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="T31:T34"/>
-    <mergeCell ref="U31:U34"/>
-    <mergeCell ref="V31:V34"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="Y31:Y34"/>
-    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="U19:U22"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="V15:V18"/>
+    <mergeCell ref="V19:V22"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7197,63 +7197,63 @@
       <c r="Y5" s="77"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="102"/>
-      <c r="W6" s="102"/>
-      <c r="X6" s="102"/>
-      <c r="Y6" s="102"/>
+      <c r="A6" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="str">
+      <c r="A7" s="114" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
-      <c r="Y7" s="102"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="76"/>
@@ -7283,90 +7283,90 @@
       <c r="Y8" s="76"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="104" t="s">
+      <c r="B9" s="104"/>
+      <c r="C9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="112" t="s">
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="112" t="s">
+      <c r="V9" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="112" t="s">
+      <c r="X9" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="112" t="s">
+      <c r="Y9" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="98" t="s">
+      <c r="Z9" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="98"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="110"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="127">
+      <c r="A11" s="133">
         <v>1</v>
       </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116" t="s">
+      <c r="B11" s="104"/>
+      <c r="C11" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="109" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="25">
@@ -7421,18 +7421,18 @@
       <c r="V11" s="130"/>
       <c r="W11" s="130"/>
       <c r="X11" s="130"/>
-      <c r="Y11" s="119">
+      <c r="Y11" s="98">
         <v>22</v>
       </c>
-      <c r="Z11" s="133">
+      <c r="Z11" s="127">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="128"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="115"/>
+      <c r="A12" s="134"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -7485,14 +7485,14 @@
       <c r="V12" s="131"/>
       <c r="W12" s="131"/>
       <c r="X12" s="131"/>
-      <c r="Y12" s="121"/>
-      <c r="Z12" s="134"/>
+      <c r="Y12" s="100"/>
+      <c r="Z12" s="128"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="128"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="115"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -7545,16 +7545,16 @@
       <c r="V13" s="131"/>
       <c r="W13" s="131"/>
       <c r="X13" s="131"/>
-      <c r="Y13" s="119">
+      <c r="Y13" s="98">
         <v>176</v>
       </c>
-      <c r="Z13" s="134"/>
+      <c r="Z13" s="128"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="129"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="115"/>
+      <c r="A14" s="135"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="26">
         <v>8</v>
       </c>
@@ -7607,8 +7607,8 @@
       <c r="V14" s="132"/>
       <c r="W14" s="132"/>
       <c r="X14" s="132"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="135"/>
+      <c r="Y14" s="100"/>
+      <c r="Z14" s="129"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
@@ -7639,10 +7639,10 @@
       <c r="Z15" s="89"/>
     </row>
     <row r="16" spans="1:26" s="75" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="123"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="78">
         <f>Мельницький!C36</f>
         <v>44470</v>
@@ -7706,18 +7706,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="X11:X14"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="D11:D14"/>
@@ -7731,6 +7719,18 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="X11:X14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -7759,12 +7759,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
       <c r="R1" s="15" t="s">
         <v>40</v>
       </c>
@@ -7909,147 +7909,147 @@
       <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
+      <c r="A7" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="102" t="str">
+      <c r="A8" s="114" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="102"/>
-      <c r="W8" s="102"/>
-      <c r="X8" s="102"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="114"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="112" t="s">
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="112" t="s">
+      <c r="V9" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="112" t="s">
+      <c r="X9" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="98" t="s">
+      <c r="Y9" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="98"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="110"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113">
+      <c r="A11" s="107">
         <v>1</v>
       </c>
-      <c r="B11" s="127">
+      <c r="B11" s="133">
         <v>1</v>
       </c>
-      <c r="C11" s="140" t="s">
+      <c r="C11" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="143" t="s">
+      <c r="D11" s="136" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -8100,19 +8100,19 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="119">
+      <c r="U11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="98">
         <v>22</v>
       </c>
-      <c r="Y11" s="136">
+      <c r="Y11" s="139">
         <v>6060</v>
       </c>
       <c r="Z11" s="3">
@@ -8121,10 +8121,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="144"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="137"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -8173,17 +8173,17 @@
       <c r="T12" s="26">
         <v>8</v>
       </c>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="120"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="137"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="140"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="128"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="144"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="137"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -8232,20 +8232,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="120"/>
-      <c r="X13" s="119">
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="98">
         <f>Z11+Z14</f>
         <v>176</v>
       </c>
-      <c r="Y13" s="137"/>
+      <c r="Y13" s="140"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="145"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="138"/>
       <c r="E14" s="26">
         <v>8</v>
       </c>
@@ -8294,11 +8294,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="121"/>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="138"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="141"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>80</v>
@@ -8332,10 +8332,10 @@
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="139"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="5">
         <f>Мельницький!C36</f>
         <v>44470</v>
@@ -8414,12 +8414,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X13:X14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:X7"/>
     <mergeCell ref="A8:X8"/>
@@ -8430,14 +8432,12 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="U11:U14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8450,8 +8450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22:Q22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -8468,11 +8468,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
@@ -8616,145 +8616,145 @@
       <c r="X6" s="82"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
+      <c r="A7" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
       <c r="X7" s="80"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="103" t="str">
+      <c r="A8" s="115" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="103"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="115"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="112" t="s">
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="112" t="s">
+      <c r="U9" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="112" t="s">
+      <c r="V9" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="112" t="s">
+      <c r="X9" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="98" t="s">
+      <c r="Y9" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="98"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="110"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113">
+      <c r="A11" s="107">
         <v>1</v>
       </c>
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="109" t="s">
         <v>95</v>
       </c>
       <c r="D11" s="25">
@@ -8805,27 +8805,27 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="119" t="s">
+      <c r="T11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="98" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="146"/>
-      <c r="X11" s="119">
+      <c r="X11" s="98">
         <v>22</v>
       </c>
-      <c r="Y11" s="122">
+      <c r="Y11" s="101">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="26">
         <v>2</v>
       </c>
@@ -8874,21 +8874,21 @@
       <c r="S12" s="26">
         <v>2</v>
       </c>
-      <c r="T12" s="117"/>
-      <c r="U12" s="117"/>
-      <c r="V12" s="120"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="99"/>
       <c r="W12" s="147"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="122"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="101"/>
       <c r="Z12" s="3">
         <f>SUM(D12:S12)</f>
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -8937,20 +8937,20 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="120"/>
+      <c r="T13" s="105"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="99"/>
       <c r="W13" s="147"/>
-      <c r="X13" s="119">
+      <c r="X13" s="98">
         <f>Z12+Z14</f>
         <v>44</v>
       </c>
-      <c r="Y13" s="122"/>
+      <c r="Y13" s="101"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="26">
         <v>2</v>
       </c>
@@ -8999,25 +8999,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="121"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="148"/>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="122"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="101"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="113">
-        <v>2</v>
-      </c>
-      <c r="B15" s="114" t="s">
+      <c r="A15" s="107">
+        <v>2</v>
+      </c>
+      <c r="B15" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="109" t="s">
         <v>97</v>
       </c>
       <c r="D15" s="25">
@@ -9068,28 +9068,28 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="119" t="s">
+      <c r="T15" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="98" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="146"/>
-      <c r="X15" s="119">
+      <c r="X15" s="98">
         <f>X17/8</f>
         <v>22</v>
       </c>
-      <c r="Y15" s="122">
+      <c r="Y15" s="101">
         <v>6000</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="113"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="115"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -9138,21 +9138,21 @@
       <c r="S16" s="26">
         <v>8</v>
       </c>
-      <c r="T16" s="117"/>
-      <c r="U16" s="117"/>
-      <c r="V16" s="120"/>
+      <c r="T16" s="105"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="147"/>
-      <c r="X16" s="121"/>
-      <c r="Y16" s="122"/>
+      <c r="X16" s="100"/>
+      <c r="Y16" s="101"/>
       <c r="Z16" s="3">
         <f>SUM(D16:S16)</f>
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="113"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="115"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="109"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -9201,20 +9201,20 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="117"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="120"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="105"/>
+      <c r="V17" s="99"/>
       <c r="W17" s="147"/>
-      <c r="X17" s="119">
+      <c r="X17" s="98">
         <f>Z16+Z18</f>
         <v>176</v>
       </c>
-      <c r="Y17" s="122"/>
+      <c r="Y17" s="101"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="113"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="115"/>
+      <c r="A18" s="107"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -9263,25 +9263,25 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="118"/>
-      <c r="U18" s="118"/>
-      <c r="V18" s="121"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="100"/>
       <c r="W18" s="148"/>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="122"/>
+      <c r="X18" s="100"/>
+      <c r="Y18" s="101"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="113">
+      <c r="A19" s="107">
         <v>3</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="109" t="s">
         <v>99</v>
       </c>
       <c r="D19" s="25">
@@ -9332,28 +9332,28 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="119" t="s">
+      <c r="T19" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="98" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="146"/>
-      <c r="X19" s="119">
+      <c r="X19" s="98">
         <f>X21/4</f>
         <v>22</v>
       </c>
-      <c r="Y19" s="122">
+      <c r="Y19" s="101">
         <v>6000</v>
       </c>
     </row>
     <row r="20" spans="1:26" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="113"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="109"/>
       <c r="D20" s="26">
         <v>4</v>
       </c>
@@ -9402,21 +9402,21 @@
       <c r="S20" s="26">
         <v>4</v>
       </c>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="120"/>
+      <c r="T20" s="105"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="99"/>
       <c r="W20" s="147"/>
-      <c r="X20" s="121"/>
-      <c r="Y20" s="122"/>
+      <c r="X20" s="100"/>
+      <c r="Y20" s="101"/>
       <c r="Z20" s="3">
         <f>SUM(D20:S20)</f>
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="113"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="115"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="109"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -9465,20 +9465,20 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="117"/>
-      <c r="U21" s="117"/>
-      <c r="V21" s="120"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="99"/>
       <c r="W21" s="147"/>
-      <c r="X21" s="119">
+      <c r="X21" s="98">
         <f>Z20+Z22</f>
         <v>88</v>
       </c>
-      <c r="Y21" s="122"/>
+      <c r="Y21" s="101"/>
     </row>
     <row r="22" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="113"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
+      <c r="A22" s="107"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="26">
         <v>4</v>
       </c>
@@ -9527,12 +9527,12 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="121"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="100"/>
       <c r="W22" s="148"/>
-      <c r="X22" s="121"/>
-      <c r="Y22" s="122"/>
+      <c r="X22" s="100"/>
+      <c r="Y22" s="101"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>40</v>
@@ -9642,16 +9642,24 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="T19:T22"/>
-    <mergeCell ref="U19:U22"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="A8:Y8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:S10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="V11:V14"/>
     <mergeCell ref="W11:W14"/>
     <mergeCell ref="V19:V22"/>
@@ -9667,24 +9675,16 @@
     <mergeCell ref="X15:X16"/>
     <mergeCell ref="Y15:Y18"/>
     <mergeCell ref="X17:X18"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="A8:Y8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:S10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="U15:U18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="T19:T22"/>
+    <mergeCell ref="U19:U22"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9712,49 +9712,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
@@ -9864,147 +9864,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
+      <c r="A7" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
     </row>
     <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="103" t="str">
+      <c r="A8" s="115" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="104" t="s">
+      <c r="B9" s="117"/>
+      <c r="C9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="112" t="s">
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="120"/>
+      <c r="U9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="112" t="s">
+      <c r="V9" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="112" t="s">
+      <c r="X9" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="112" t="s">
+      <c r="Y9" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="98" t="s">
+      <c r="Z9" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="98"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="110"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113">
+      <c r="A11" s="107">
         <v>1</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="114" t="s">
+      <c r="B11" s="107"/>
+      <c r="C11" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="109" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -10055,20 +10055,20 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="119" t="s">
+      <c r="U11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="98" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="48"/>
-      <c r="Y11" s="119">
+      <c r="Y11" s="98">
         <v>22</v>
       </c>
-      <c r="Z11" s="122">
+      <c r="Z11" s="101">
         <v>6060</v>
       </c>
       <c r="AA11" s="2">
@@ -10077,10 +10077,10 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="115"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="26">
         <v>2</v>
       </c>
@@ -10129,18 +10129,18 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="120"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="99"/>
       <c r="X12" s="50"/>
-      <c r="Y12" s="121"/>
-      <c r="Z12" s="122"/>
+      <c r="Y12" s="100"/>
+      <c r="Z12" s="101"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -10189,24 +10189,24 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="120"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="99"/>
       <c r="X13" s="50"/>
-      <c r="Y13" s="119">
+      <c r="Y13" s="98">
         <v>44</v>
       </c>
-      <c r="Z13" s="122"/>
+      <c r="Z13" s="101"/>
       <c r="AB13" s="2">
         <f>AA11+AA14</f>
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="115"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -10255,12 +10255,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="121"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="100"/>
       <c r="X14" s="49"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="122"/>
+      <c r="Y14" s="100"/>
+      <c r="Z14" s="101"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>20</v>
@@ -10345,10 +10345,10 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="39" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="123" t="s">
+      <c r="B18" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="123"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="149">
         <f>Мельницький!C36</f>
         <v>44470</v>
@@ -10363,14 +10363,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="Y11:Y12"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="U11:U14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="P1:X1"/>
     <mergeCell ref="A2:X2"/>
@@ -10386,11 +10383,14 @@
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="Y11:Y12"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
@@ -10403,7 +10403,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:AD42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -10424,11 +10424,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -10518,142 +10518,142 @@
       <c r="W4" s="96"/>
     </row>
     <row r="5" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A5" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="102"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="102"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
+      <c r="A5" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="114"/>
+      <c r="S5" s="114"/>
+      <c r="T5" s="114"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="114"/>
+      <c r="W5" s="114"/>
     </row>
     <row r="6" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="102" t="str">
+      <c r="A6" s="114" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="102"/>
-      <c r="W6" s="102"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
     </row>
     <row r="7" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="106" t="s">
+      <c r="D7" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="112" t="s">
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="112" t="s">
+      <c r="U7" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="112" t="s">
+      <c r="V7" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="112" t="s">
+      <c r="W7" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="112" t="s">
+      <c r="X7" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" s="98" t="s">
+      <c r="Y7" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="98"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="123"/>
+      <c r="T8" s="124"/>
+      <c r="U8" s="124"/>
+      <c r="V8" s="124"/>
+      <c r="W8" s="124"/>
+      <c r="X8" s="124"/>
+      <c r="Y8" s="110"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="113">
+      <c r="A9" s="107">
         <v>1</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="136" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="25">
@@ -10704,29 +10704,29 @@
       <c r="S9" s="25">
         <v>16</v>
       </c>
-      <c r="T9" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="X9" s="119">
+      <c r="T9" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="98">
         <v>22</v>
       </c>
-      <c r="Y9" s="122">
+      <c r="Y9" s="101">
         <v>6300</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="113"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="144"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="137"/>
       <c r="D10" s="26">
         <v>8</v>
       </c>
@@ -10775,21 +10775,21 @@
       <c r="S10" s="26">
         <v>8</v>
       </c>
-      <c r="T10" s="117"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="120"/>
-      <c r="X10" s="121"/>
-      <c r="Y10" s="122"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="105"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="99"/>
+      <c r="X10" s="100"/>
+      <c r="Y10" s="101"/>
       <c r="Z10" s="3">
         <f>SUM(D10:S10)</f>
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="144"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="137"/>
       <c r="D11" s="27">
         <v>17</v>
       </c>
@@ -10838,20 +10838,20 @@
       <c r="S11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="117"/>
-      <c r="U11" s="117"/>
-      <c r="V11" s="120"/>
-      <c r="W11" s="120"/>
-      <c r="X11" s="119">
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="98">
         <f>Z10+Z12</f>
         <v>176</v>
       </c>
-      <c r="Y11" s="122"/>
+      <c r="Y11" s="101"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="145"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -10900,25 +10900,25 @@
       <c r="S12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
-      <c r="V12" s="121"/>
-      <c r="W12" s="121"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="122"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="100"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="101"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113">
-        <v>2</v>
-      </c>
-      <c r="B13" s="114" t="s">
+      <c r="A13" s="107">
+        <v>2</v>
+      </c>
+      <c r="B13" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="115" t="str">
+      <c r="C13" s="109" t="str">
         <f>C9</f>
         <v>лікар-стоматолог</v>
       </c>
@@ -10970,22 +10970,22 @@
       <c r="S13" s="25">
         <v>16</v>
       </c>
-      <c r="T13" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U13" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" s="119">
+      <c r="T13" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="98">
         <v>22</v>
       </c>
-      <c r="Y13" s="122">
+      <c r="Y13" s="101">
         <v>6300</v>
       </c>
       <c r="Z13" s="2" t="s">
@@ -10997,9 +10997,9 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -11048,12 +11048,12 @@
       <c r="S14" s="26">
         <v>8</v>
       </c>
-      <c r="T14" s="117"/>
-      <c r="U14" s="117"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="120"/>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="122"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="99"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="101"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>96</v>
@@ -11064,9 +11064,9 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="113"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="115"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="109"/>
       <c r="D15" s="27">
         <v>17</v>
       </c>
@@ -11115,20 +11115,20 @@
       <c r="S15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="117"/>
-      <c r="U15" s="117"/>
-      <c r="V15" s="120"/>
-      <c r="W15" s="120"/>
-      <c r="X15" s="119">
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="99"/>
+      <c r="W15" s="99"/>
+      <c r="X15" s="98">
         <f>Z14+Z16</f>
         <v>176</v>
       </c>
-      <c r="Y15" s="122"/>
+      <c r="Y15" s="101"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="113"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="115"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -11177,12 +11177,12 @@
       <c r="S16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="121"/>
-      <c r="W16" s="121"/>
-      <c r="X16" s="121"/>
-      <c r="Y16" s="122"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="100"/>
+      <c r="W16" s="100"/>
+      <c r="X16" s="100"/>
+      <c r="Y16" s="101"/>
       <c r="Z16" s="2">
         <f>SUM(D16:S16)</f>
         <v>80</v>
@@ -11193,13 +11193,13 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="156">
+      <c r="A17" s="160">
         <v>3</v>
       </c>
-      <c r="B17" s="157" t="s">
+      <c r="B17" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="158" t="s">
+      <c r="C17" s="153" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="25">
@@ -11250,29 +11250,29 @@
       <c r="S17" s="25">
         <v>16</v>
       </c>
-      <c r="T17" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="153" t="s">
-        <v>8</v>
-      </c>
-      <c r="V17" s="150" t="s">
-        <v>8</v>
-      </c>
-      <c r="W17" s="150" t="s">
-        <v>8</v>
-      </c>
-      <c r="X17" s="150">
+      <c r="T17" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="157" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="154">
         <v>22</v>
       </c>
-      <c r="Y17" s="122">
+      <c r="Y17" s="101">
         <v>6060</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="156"/>
-      <c r="B18" s="157"/>
-      <c r="C18" s="158"/>
+      <c r="A18" s="160"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="153"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -11321,21 +11321,21 @@
       <c r="S18" s="26">
         <v>8</v>
       </c>
-      <c r="T18" s="117"/>
-      <c r="U18" s="154"/>
-      <c r="V18" s="151"/>
-      <c r="W18" s="151"/>
-      <c r="X18" s="152"/>
-      <c r="Y18" s="122"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="158"/>
+      <c r="V18" s="156"/>
+      <c r="W18" s="156"/>
+      <c r="X18" s="155"/>
+      <c r="Y18" s="101"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="156"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="158"/>
+      <c r="A19" s="160"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="153"/>
       <c r="D19" s="27">
         <v>17</v>
       </c>
@@ -11384,20 +11384,20 @@
       <c r="S19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T19" s="117"/>
-      <c r="U19" s="154"/>
-      <c r="V19" s="151"/>
-      <c r="W19" s="151"/>
-      <c r="X19" s="150">
+      <c r="T19" s="105"/>
+      <c r="U19" s="158"/>
+      <c r="V19" s="156"/>
+      <c r="W19" s="156"/>
+      <c r="X19" s="154">
         <f>Z18+Z20</f>
         <v>176</v>
       </c>
-      <c r="Y19" s="122"/>
+      <c r="Y19" s="101"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="156"/>
-      <c r="B20" s="157"/>
-      <c r="C20" s="158"/>
+      <c r="A20" s="160"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="153"/>
       <c r="D20" s="26">
         <v>8</v>
       </c>
@@ -11446,25 +11446,25 @@
       <c r="S20" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="118"/>
-      <c r="U20" s="155"/>
-      <c r="V20" s="152"/>
-      <c r="W20" s="152"/>
-      <c r="X20" s="152"/>
-      <c r="Y20" s="122"/>
+      <c r="T20" s="106"/>
+      <c r="U20" s="159"/>
+      <c r="V20" s="155"/>
+      <c r="W20" s="155"/>
+      <c r="X20" s="155"/>
+      <c r="Y20" s="101"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="127">
+      <c r="A21" s="133">
         <v>4</v>
       </c>
-      <c r="B21" s="159" t="s">
+      <c r="B21" s="150" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="158" t="s">
+      <c r="C21" s="153" t="s">
         <v>105</v>
       </c>
       <c r="D21" s="25">
@@ -11515,29 +11515,29 @@
       <c r="S21" s="25">
         <v>16</v>
       </c>
-      <c r="T21" s="116">
+      <c r="T21" s="104">
         <v>24</v>
       </c>
-      <c r="U21" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="119">
+      <c r="U21" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="98">
         <v>4</v>
       </c>
-      <c r="Y21" s="122">
+      <c r="Y21" s="101">
         <v>6060</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="128"/>
-      <c r="B22" s="160"/>
-      <c r="C22" s="158"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="153"/>
       <c r="D22" s="26" t="s">
         <v>91</v>
       </c>
@@ -11586,21 +11586,21 @@
       <c r="S22" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="T22" s="117"/>
-      <c r="U22" s="117"/>
-      <c r="V22" s="120"/>
-      <c r="W22" s="120"/>
-      <c r="X22" s="120"/>
-      <c r="Y22" s="122"/>
+      <c r="T22" s="105"/>
+      <c r="U22" s="105"/>
+      <c r="V22" s="99"/>
+      <c r="W22" s="99"/>
+      <c r="X22" s="99"/>
+      <c r="Y22" s="101"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="128"/>
-      <c r="B23" s="160"/>
-      <c r="C23" s="158"/>
+      <c r="A23" s="134"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="153"/>
       <c r="D23" s="27">
         <v>17</v>
       </c>
@@ -11649,20 +11649,20 @@
       <c r="S23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="117"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="120"/>
-      <c r="W23" s="120"/>
-      <c r="X23" s="119">
+      <c r="T23" s="105"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="99"/>
+      <c r="W23" s="99"/>
+      <c r="X23" s="98">
         <f>Z22+Z24</f>
         <v>16</v>
       </c>
-      <c r="Y23" s="122"/>
+      <c r="Y23" s="101"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="129"/>
-      <c r="B24" s="161"/>
-      <c r="C24" s="158"/>
+      <c r="A24" s="135"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="153"/>
       <c r="D24" s="26" t="s">
         <v>91</v>
       </c>
@@ -11711,12 +11711,12 @@
       <c r="S24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="118"/>
-      <c r="U24" s="118"/>
-      <c r="V24" s="121"/>
-      <c r="W24" s="121"/>
-      <c r="X24" s="121"/>
-      <c r="Y24" s="122"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="100"/>
+      <c r="W24" s="100"/>
+      <c r="X24" s="100"/>
+      <c r="Y24" s="101"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>16</v>
@@ -11756,10 +11756,10 @@
       </c>
     </row>
     <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="123" t="s">
+      <c r="A26" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="123"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="97">
         <v>44440</v>
       </c>
@@ -11919,44 +11919,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="Y21:Y24"/>
-    <mergeCell ref="V21:V24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Y17:Y20"/>
-    <mergeCell ref="X19:X20"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="W9:W12"/>
     <mergeCell ref="W17:W20"/>
@@ -11973,6 +11935,44 @@
     <mergeCell ref="V13:V16"/>
     <mergeCell ref="V17:V20"/>
     <mergeCell ref="A9:A12"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="Y17:Y20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="Y21:Y24"/>
+    <mergeCell ref="V21:V24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="T13:T16"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -12006,11 +12006,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -12124,141 +12124,141 @@
       <c r="W5" s="70"/>
     </row>
     <row r="6" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="102"/>
-      <c r="W6" s="102"/>
+      <c r="A6" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
     </row>
     <row r="7" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
     </row>
     <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="112" t="s">
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="112" t="s">
+      <c r="U8" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="112" t="s">
+      <c r="V8" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="112" t="s">
+      <c r="W8" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="X8" s="112" t="s">
+      <c r="X8" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="98" t="s">
+      <c r="Y8" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="112"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="112"/>
-      <c r="W9" s="112"/>
-      <c r="X9" s="112"/>
-      <c r="Y9" s="98"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="124"/>
+      <c r="U9" s="124"/>
+      <c r="V9" s="124"/>
+      <c r="W9" s="124"/>
+      <c r="X9" s="124"/>
+      <c r="Y9" s="110"/>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="113">
+      <c r="A10" s="107">
         <v>1</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="109" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="25">
@@ -12309,29 +12309,29 @@
       <c r="S10" s="25">
         <v>16</v>
       </c>
-      <c r="T10" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="122">
+      <c r="T10" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="101">
         <v>4770</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="115"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="109"/>
       <c r="D11" s="26" t="s">
         <v>88</v>
       </c>
@@ -12380,17 +12380,17 @@
       <c r="S11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="T11" s="117"/>
-      <c r="U11" s="117"/>
-      <c r="V11" s="120"/>
-      <c r="W11" s="120"/>
-      <c r="X11" s="121"/>
-      <c r="Y11" s="122"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="100"/>
+      <c r="Y11" s="101"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="27">
         <v>17</v>
       </c>
@@ -12439,19 +12439,19 @@
       <c r="S12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="117"/>
-      <c r="U12" s="117"/>
-      <c r="V12" s="120"/>
-      <c r="W12" s="120"/>
-      <c r="X12" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="122"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="99"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="101"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="26" t="s">
         <v>88</v>
       </c>
@@ -12500,12 +12500,12 @@
       <c r="S13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="121"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="121"/>
-      <c r="Y13" s="122"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="100"/>
+      <c r="W13" s="100"/>
+      <c r="X13" s="100"/>
+      <c r="Y13" s="101"/>
     </row>
     <row r="14" spans="1:25" s="69" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="68"/>
@@ -12520,10 +12520,10 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="123"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="71">
         <v>44013</v>
       </c>
@@ -12589,6 +12589,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="W10:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="V10:V13"/>
+    <mergeCell ref="X10:X11"/>
     <mergeCell ref="Y10:Y13"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="Y8:Y9"/>
@@ -12603,16 +12613,6 @@
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="W8:W9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="W10:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="T10:T13"/>
-    <mergeCell ref="U10:U13"/>
-    <mergeCell ref="V10:V13"/>
-    <mergeCell ref="X10:X11"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -12777,63 +12777,63 @@
       <c r="Y5" s="65"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="102"/>
-      <c r="W6" s="102"/>
-      <c r="X6" s="102"/>
-      <c r="Y6" s="102"/>
+      <c r="A6" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="114"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+      <c r="X6" s="114"/>
+      <c r="Y6" s="114"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="102" t="str">
+      <c r="A7" s="114" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
-      <c r="Y7" s="102"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="63"/>
@@ -12863,94 +12863,94 @@
       <c r="Y8" s="63"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="112" t="s">
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="112" t="s">
+      <c r="V9" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="112" t="s">
+      <c r="W9" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="112" t="s">
+      <c r="X9" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="112" t="s">
+      <c r="Y9" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="98" t="s">
+      <c r="Z9" s="110" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="98"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="110"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113">
+      <c r="A11" s="107">
         <v>1</v>
       </c>
-      <c r="B11" s="113">
+      <c r="B11" s="107">
         <v>1</v>
       </c>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="109" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -13001,17 +13001,17 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="119" t="s">
+      <c r="U11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="98" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="146"/>
-      <c r="Y11" s="119" t="s">
+      <c r="Y11" s="98" t="s">
         <v>8</v>
       </c>
       <c r="Z11" s="162">
@@ -13019,10 +13019,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="115"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -13071,18 +13071,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="120"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="99"/>
       <c r="X12" s="147"/>
-      <c r="Y12" s="121"/>
+      <c r="Y12" s="100"/>
       <c r="Z12" s="162"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -13131,20 +13131,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="120"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="99"/>
       <c r="X13" s="147"/>
-      <c r="Y13" s="119" t="s">
+      <c r="Y13" s="98" t="s">
         <v>8</v>
       </c>
       <c r="Z13" s="162"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="115"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -13193,18 +13193,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="121"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="100"/>
       <c r="X14" s="148"/>
-      <c r="Y14" s="121"/>
+      <c r="Y14" s="100"/>
       <c r="Z14" s="162"/>
     </row>
     <row r="15" spans="1:26" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="123"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="66">
         <f>Мельницький!C36</f>
         <v>44470</v>
@@ -13268,18 +13268,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A6:Y6"/>
-    <mergeCell ref="A7:Y7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="Y9:Y10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="Z9:Z10"/>
     <mergeCell ref="A11:A14"/>
@@ -13293,6 +13281,18 @@
     <mergeCell ref="Y11:Y12"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="A6:Y6"/>
+    <mergeCell ref="A7:Y7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>

--- a/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 09 – 21.xlsx
+++ b/Фопи/Зарплата ФОП 2021/Табель ФОП 2020/Табель 09 – 21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="80" windowWidth="15120" windowHeight="7760" tabRatio="867" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="80" windowWidth="15120" windowHeight="7760" tabRatio="867" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Угринчук" sheetId="25" r:id="rId1"/>
@@ -333,9 +333,6 @@
     <t>Головний інженер проекту</t>
   </si>
   <si>
-    <t>Петрів Наталія Ярославівна (СУМ. 06.08.21)</t>
-  </si>
-  <si>
     <t>ФОП____________Угринчук В. Г.</t>
   </si>
   <si>
@@ -350,12 +347,15 @@
   <si>
     <t>ліка-стоматолог</t>
   </si>
+  <si>
+    <t>Петрів Наталія Ярославівна (СУМ. 06.08.21б ЗВ 1.10)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +524,28 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -665,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -954,6 +976,15 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1148,6 +1179,9 @@
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1478,49 +1512,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="113" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
+      <c r="A2" s="116" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="94"/>
@@ -1630,147 +1664,147 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
+      <c r="A7" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
     </row>
     <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="118" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="118"/>
+      <c r="U8" s="118"/>
+      <c r="V8" s="118"/>
+      <c r="W8" s="118"/>
+      <c r="X8" s="118"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="116" t="s">
+      <c r="B9" s="120"/>
+      <c r="C9" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="118" t="s">
+      <c r="E9" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="113" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="126"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="113"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="110">
         <v>1</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="109" t="s">
+      <c r="B11" s="110"/>
+      <c r="C11" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="112" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="25">
@@ -1821,28 +1855,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
+      <c r="U11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="101" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="90"/>
-      <c r="Y11" s="98">
+      <c r="Y11" s="101">
         <v>22</v>
       </c>
-      <c r="Z11" s="101">
+      <c r="Z11" s="104">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="26">
         <v>4</v>
       </c>
@@ -1891,22 +1925,22 @@
       <c r="T12" s="26">
         <v>4</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="102"/>
       <c r="X12" s="91"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="101"/>
+      <c r="Y12" s="103"/>
+      <c r="Z12" s="104"/>
       <c r="AA12" s="2">
         <f>SUM(E12:T12)</f>
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -1955,25 +1989,25 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="108"/>
+      <c r="W13" s="102"/>
       <c r="X13" s="91"/>
-      <c r="Y13" s="98">
+      <c r="Y13" s="101">
         <f>AB13</f>
         <v>88</v>
       </c>
-      <c r="Z13" s="101"/>
+      <c r="Z13" s="104"/>
       <c r="AB13" s="2">
         <f>AA12+AA14</f>
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="26">
         <v>4</v>
       </c>
@@ -2022,12 +2056,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="103"/>
       <c r="X14" s="92"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="101"/>
+      <c r="Y14" s="103"/>
+      <c r="Z14" s="104"/>
       <c r="AA14" s="2">
         <f>SUM(E14:T14)</f>
         <v>40</v>
@@ -2112,20 +2146,20 @@
       <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" s="93" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103">
+      <c r="C18" s="105"/>
+      <c r="D18" s="106">
         <f>Мельницький!C36</f>
         <v>44470</v>
       </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
       <c r="L18" s="93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -2357,63 +2391,63 @@
       <c r="Y5" s="60"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
+      <c r="A6" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="117"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="117"/>
+      <c r="X6" s="117"/>
+      <c r="Y6" s="117"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="str">
+      <c r="A7" s="117" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
+      <c r="Y7" s="117"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="61"/>
@@ -2443,94 +2477,94 @@
       <c r="Y8" s="61"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="119"/>
+      <c r="U9" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="113" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="113"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="110">
         <v>1</v>
       </c>
-      <c r="B11" s="107">
+      <c r="B11" s="110">
         <v>1</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="112" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="25">
@@ -2581,28 +2615,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="146"/>
-      <c r="Y11" s="98">
+      <c r="U11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="149"/>
+      <c r="Y11" s="101">
         <v>20</v>
       </c>
-      <c r="Z11" s="162">
+      <c r="Z11" s="165">
         <v>4770</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -2651,18 +2685,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="162"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="150"/>
+      <c r="Y12" s="103"/>
+      <c r="Z12" s="165"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -2711,20 +2745,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="98">
+      <c r="U13" s="108"/>
+      <c r="V13" s="108"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="150"/>
+      <c r="Y13" s="101">
         <v>160</v>
       </c>
-      <c r="Z13" s="162"/>
+      <c r="Z13" s="165"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -2773,18 +2807,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="148"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="162"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="103"/>
+      <c r="X14" s="151"/>
+      <c r="Y14" s="103"/>
+      <c r="Z14" s="165"/>
     </row>
     <row r="15" spans="1:26" s="59" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="102"/>
+      <c r="C15" s="105"/>
       <c r="D15" s="58">
         <f>Мельницький!C36</f>
         <v>44470</v>
@@ -3060,147 +3094,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
+      <c r="A7" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
     </row>
     <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="114" t="str">
+      <c r="A8" s="117" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="119"/>
+      <c r="U9" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="110" t="s">
+      <c r="Y9" s="113" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="110"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="113"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="110">
         <v>1</v>
       </c>
-      <c r="B11" s="107">
+      <c r="B11" s="110">
         <v>1</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="112" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3251,29 +3285,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="98">
+      <c r="U11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="101">
         <v>21</v>
       </c>
-      <c r="Y11" s="98"/>
+      <c r="Y11" s="101"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -3322,17 +3356,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="99"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="102"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -3381,23 +3415,23 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="99">
+      <c r="U13" s="108"/>
+      <c r="V13" s="108"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102">
         <v>42</v>
       </c>
-      <c r="Y13" s="99"/>
+      <c r="Y13" s="102"/>
       <c r="AA13" s="2">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -3446,11 +3480,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="100"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="103"/>
+      <c r="X14" s="103"/>
+      <c r="Y14" s="103"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -3509,10 +3543,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="36" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="142" t="s">
+      <c r="B17" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="142"/>
+      <c r="C17" s="145"/>
       <c r="D17" s="37">
         <f>Мельницький!C36</f>
         <v>44470</v>
@@ -3786,147 +3820,147 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
+      <c r="A7" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="114" t="str">
+      <c r="A8" s="117" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="119"/>
+      <c r="U9" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="110" t="s">
+      <c r="Y9" s="113" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="110"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="113"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="110">
         <v>1</v>
       </c>
-      <c r="B11" s="107">
+      <c r="B11" s="110">
         <v>1</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="112" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -3977,29 +4011,29 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="98">
+      <c r="U11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="101">
         <v>21</v>
       </c>
-      <c r="Y11" s="139"/>
+      <c r="Y11" s="142"/>
       <c r="Z11" s="3">
         <f>SUM(E12:T12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -4048,17 +4082,17 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="140"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="103"/>
+      <c r="Y12" s="143"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -4107,20 +4141,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="98">
+      <c r="U13" s="108"/>
+      <c r="V13" s="108"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="101">
         <f>Z11+Z14</f>
         <v>42</v>
       </c>
-      <c r="Y13" s="140"/>
+      <c r="Y13" s="143"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -4169,11 +4203,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="141"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="103"/>
+      <c r="X14" s="103"/>
+      <c r="Y14" s="144"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>22</v>
@@ -4232,10 +4266,10 @@
       <c r="X16" s="9"/>
     </row>
     <row r="17" spans="2:12" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="142" t="s">
+      <c r="B17" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="142"/>
+      <c r="C17" s="145"/>
       <c r="D17" s="40">
         <f>Мельницький!C36</f>
         <v>44470</v>
@@ -4350,12 +4384,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -4499,155 +4533,155 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="114"/>
+      <c r="A7" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
+      <c r="Y7" s="117"/>
+      <c r="Z7" s="117"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="118" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="115"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="118"/>
+      <c r="U8" s="118"/>
+      <c r="V8" s="118"/>
+      <c r="W8" s="118"/>
+      <c r="X8" s="118"/>
+      <c r="Y8" s="118"/>
+      <c r="Z8" s="118"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="119"/>
+      <c r="U9" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="113" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="113"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="110">
         <v>1</v>
       </c>
-      <c r="B11" s="107">
-        <v>2</v>
-      </c>
-      <c r="C11" s="125" t="s">
+      <c r="B11" s="110">
+        <v>2</v>
+      </c>
+      <c r="C11" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="129" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="25">
@@ -4698,28 +4732,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
+      <c r="U11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="101" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="22"/>
-      <c r="Y11" s="98">
+      <c r="Y11" s="101">
         <v>21</v>
       </c>
-      <c r="Z11" s="101">
+      <c r="Z11" s="104">
         <v>3232</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="126"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="129"/>
       <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
@@ -4768,18 +4802,18 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="102"/>
       <c r="X12" s="23"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="101"/>
+      <c r="Y12" s="103"/>
+      <c r="Z12" s="104"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="126"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="129"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -4828,20 +4862,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="108"/>
+      <c r="W13" s="102"/>
       <c r="X13" s="23"/>
-      <c r="Y13" s="98">
+      <c r="Y13" s="101">
         <v>42</v>
       </c>
-      <c r="Z13" s="101"/>
+      <c r="Z13" s="104"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="126"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="129"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -4890,18 +4924,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="103"/>
       <c r="X14" s="24"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="101"/>
+      <c r="Y14" s="103"/>
+      <c r="Z14" s="104"/>
     </row>
     <row r="16" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="105"/>
       <c r="D16" s="30">
         <v>42916</v>
       </c>
@@ -5040,11 +5074,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
       <c r="Q2" s="15" t="s">
         <v>40</v>
       </c>
@@ -5158,141 +5192,141 @@
       <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
+      <c r="A7" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
     </row>
     <row r="8" spans="1:27" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="114" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
+      <c r="A8" s="117" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
     </row>
     <row r="9" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="124" t="s">
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="124" t="s">
+      <c r="U9" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="110" t="s">
+      <c r="Y9" s="113" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="110"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="127"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="113"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="110">
         <v>1</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="112" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="25">
@@ -5343,27 +5377,27 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="98" t="s">
+      <c r="T11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="101" t="s">
         <v>8</v>
       </c>
       <c r="W11" s="22"/>
-      <c r="X11" s="98">
+      <c r="X11" s="101">
         <v>22</v>
       </c>
-      <c r="Y11" s="101">
+      <c r="Y11" s="104">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="112"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -5412,21 +5446,21 @@
       <c r="S12" s="26">
         <v>8</v>
       </c>
-      <c r="T12" s="105"/>
-      <c r="U12" s="105"/>
-      <c r="V12" s="99"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="102"/>
       <c r="W12" s="23"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="101"/>
+      <c r="X12" s="103"/>
+      <c r="Y12" s="104"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="112"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -5475,24 +5509,24 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="105"/>
-      <c r="U13" s="105"/>
-      <c r="V13" s="99"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="102"/>
       <c r="W13" s="23"/>
-      <c r="X13" s="98">
+      <c r="X13" s="101">
         <f>Z12+Z14</f>
         <v>176</v>
       </c>
-      <c r="Y13" s="101"/>
+      <c r="Y13" s="104"/>
       <c r="AA13" s="2">
         <f>Z14+Z12</f>
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -5541,25 +5575,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="100"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="103"/>
       <c r="W14" s="24"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="101"/>
+      <c r="X14" s="103"/>
+      <c r="Y14" s="104"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="107">
-        <v>2</v>
-      </c>
-      <c r="B15" s="108" t="s">
+      <c r="A15" s="110">
+        <v>2</v>
+      </c>
+      <c r="B15" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="112" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="25">
@@ -5610,20 +5644,20 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="104">
+      <c r="T15" s="107">
         <v>24</v>
       </c>
-      <c r="U15" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="98" t="s">
+      <c r="U15" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="101" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="42"/>
-      <c r="X15" s="98">
+      <c r="X15" s="101">
         <v>4</v>
       </c>
-      <c r="Y15" s="101">
+      <c r="Y15" s="104">
         <v>6060</v>
       </c>
       <c r="Z15" s="2">
@@ -5632,9 +5666,9 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="107"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="112"/>
       <c r="D16" s="26" t="s">
         <v>91</v>
       </c>
@@ -5683,12 +5717,12 @@
       <c r="S16" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="T16" s="105"/>
-      <c r="U16" s="105"/>
-      <c r="V16" s="99"/>
+      <c r="T16" s="108"/>
+      <c r="U16" s="108"/>
+      <c r="V16" s="102"/>
       <c r="W16" s="44"/>
-      <c r="X16" s="100"/>
-      <c r="Y16" s="101"/>
+      <c r="X16" s="103"/>
+      <c r="Y16" s="104"/>
       <c r="Z16" s="2" t="s">
         <v>52</v>
       </c>
@@ -5698,9 +5732,9 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="107"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="112"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -5749,24 +5783,24 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="105"/>
-      <c r="U17" s="105"/>
-      <c r="V17" s="99"/>
+      <c r="T17" s="108"/>
+      <c r="U17" s="108"/>
+      <c r="V17" s="102"/>
       <c r="W17" s="44"/>
-      <c r="X17" s="98">
+      <c r="X17" s="101">
         <f>Z15+Z17</f>
         <v>32</v>
       </c>
-      <c r="Y17" s="101"/>
+      <c r="Y17" s="104"/>
       <c r="Z17" s="2">
         <f>SUM(D18:S18)</f>
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="107"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="109"/>
+      <c r="A18" s="110"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="112"/>
       <c r="D18" s="26" t="s">
         <v>91</v>
       </c>
@@ -5815,21 +5849,21 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="100"/>
+      <c r="T18" s="109"/>
+      <c r="U18" s="109"/>
+      <c r="V18" s="103"/>
       <c r="W18" s="43"/>
-      <c r="X18" s="100"/>
-      <c r="Y18" s="101"/>
+      <c r="X18" s="103"/>
+      <c r="Y18" s="104"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="107">
+      <c r="A19" s="110">
         <v>3</v>
       </c>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="112" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="25">
@@ -5880,27 +5914,27 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="104">
+      <c r="T19" s="107">
         <v>24</v>
       </c>
-      <c r="U19" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="98" t="s">
+      <c r="U19" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="101" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="53"/>
-      <c r="X19" s="98">
+      <c r="X19" s="101">
         <v>22</v>
       </c>
-      <c r="Y19" s="101">
+      <c r="Y19" s="104">
         <v>6300</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="107"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="109"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="112"/>
       <c r="D20" s="26" t="s">
         <v>91</v>
       </c>
@@ -5949,21 +5983,21 @@
       <c r="S20" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="T20" s="105"/>
-      <c r="U20" s="105"/>
-      <c r="V20" s="99"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="108"/>
+      <c r="V20" s="102"/>
       <c r="W20" s="55"/>
-      <c r="X20" s="100"/>
-      <c r="Y20" s="101"/>
+      <c r="X20" s="103"/>
+      <c r="Y20" s="104"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="107"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="109"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="112"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -6012,24 +6046,24 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="105"/>
-      <c r="U21" s="105"/>
-      <c r="V21" s="99"/>
+      <c r="T21" s="108"/>
+      <c r="U21" s="108"/>
+      <c r="V21" s="102"/>
       <c r="W21" s="55"/>
-      <c r="X21" s="98">
+      <c r="X21" s="101">
         <f>Z20+Z22</f>
         <v>32</v>
       </c>
-      <c r="Y21" s="101"/>
+      <c r="Y21" s="104"/>
       <c r="AA21" s="2">
         <f>Z22+Z20</f>
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="107"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="109"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="26" t="s">
         <v>91</v>
       </c>
@@ -6078,25 +6112,25 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="100"/>
+      <c r="T22" s="109"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="103"/>
       <c r="W22" s="54"/>
-      <c r="X22" s="100"/>
-      <c r="Y22" s="101"/>
+      <c r="X22" s="103"/>
+      <c r="Y22" s="104"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="107">
+      <c r="A23" s="110">
         <v>4</v>
       </c>
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="112" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="25">
@@ -6147,27 +6181,27 @@
       <c r="S23" s="25">
         <v>16</v>
       </c>
-      <c r="T23" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U23" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23" s="98" t="s">
+      <c r="T23" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="101" t="s">
         <v>8</v>
       </c>
       <c r="W23" s="53"/>
-      <c r="X23" s="98">
+      <c r="X23" s="101">
         <v>22</v>
       </c>
-      <c r="Y23" s="101">
+      <c r="Y23" s="104">
         <v>6060</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="107"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="109"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="112"/>
       <c r="D24" s="26">
         <v>8</v>
       </c>
@@ -6216,21 +6250,21 @@
       <c r="S24" s="26">
         <v>8</v>
       </c>
-      <c r="T24" s="105"/>
-      <c r="U24" s="105"/>
-      <c r="V24" s="99"/>
+      <c r="T24" s="108"/>
+      <c r="U24" s="108"/>
+      <c r="V24" s="102"/>
       <c r="W24" s="55"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="101"/>
+      <c r="X24" s="103"/>
+      <c r="Y24" s="104"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="107"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="109"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="112"/>
       <c r="D25" s="27">
         <v>17</v>
       </c>
@@ -6279,24 +6313,24 @@
       <c r="S25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T25" s="105"/>
-      <c r="U25" s="105"/>
-      <c r="V25" s="99"/>
+      <c r="T25" s="108"/>
+      <c r="U25" s="108"/>
+      <c r="V25" s="102"/>
       <c r="W25" s="55"/>
-      <c r="X25" s="98">
+      <c r="X25" s="101">
         <f>Z24+Z26</f>
         <v>176</v>
       </c>
-      <c r="Y25" s="101"/>
+      <c r="Y25" s="104"/>
       <c r="AA25" s="2">
         <f>Z26+Z24</f>
         <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="107"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="109"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="112"/>
       <c r="D26" s="26">
         <v>8</v>
       </c>
@@ -6345,25 +6379,25 @@
       <c r="S26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="100"/>
+      <c r="T26" s="109"/>
+      <c r="U26" s="109"/>
+      <c r="V26" s="103"/>
       <c r="W26" s="54"/>
-      <c r="X26" s="100"/>
-      <c r="Y26" s="101"/>
+      <c r="X26" s="103"/>
+      <c r="Y26" s="104"/>
       <c r="Z26" s="2">
         <f>SUM(D26:S26)</f>
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="107">
+      <c r="A27" s="110">
         <v>5</v>
       </c>
-      <c r="B27" s="125" t="s">
+      <c r="B27" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="126" t="s">
+      <c r="C27" s="129" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="25">
@@ -6414,20 +6448,20 @@
       <c r="S27" s="25">
         <v>16</v>
       </c>
-      <c r="T27" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U27" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V27" s="98" t="s">
+      <c r="T27" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="101" t="s">
         <v>8</v>
       </c>
       <c r="W27" s="53"/>
-      <c r="X27" s="98">
+      <c r="X27" s="101">
         <v>22</v>
       </c>
-      <c r="Y27" s="101">
+      <c r="Y27" s="104">
         <v>6060</v>
       </c>
       <c r="Z27" s="2" t="s">
@@ -6435,9 +6469,9 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="107"/>
-      <c r="B28" s="125"/>
-      <c r="C28" s="126"/>
+      <c r="A28" s="110"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="129"/>
       <c r="D28" s="26">
         <v>8</v>
       </c>
@@ -6486,17 +6520,17 @@
       <c r="S28" s="26">
         <v>8</v>
       </c>
-      <c r="T28" s="105"/>
-      <c r="U28" s="105"/>
-      <c r="V28" s="99"/>
+      <c r="T28" s="108"/>
+      <c r="U28" s="108"/>
+      <c r="V28" s="102"/>
       <c r="W28" s="55"/>
-      <c r="X28" s="100"/>
-      <c r="Y28" s="101"/>
+      <c r="X28" s="103"/>
+      <c r="Y28" s="104"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="107"/>
-      <c r="B29" s="125"/>
-      <c r="C29" s="126"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="129"/>
       <c r="D29" s="27">
         <v>17</v>
       </c>
@@ -6545,19 +6579,19 @@
       <c r="S29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="105"/>
-      <c r="U29" s="105"/>
-      <c r="V29" s="99"/>
+      <c r="T29" s="108"/>
+      <c r="U29" s="108"/>
+      <c r="V29" s="102"/>
       <c r="W29" s="55"/>
-      <c r="X29" s="98">
+      <c r="X29" s="101">
         <v>32</v>
       </c>
-      <c r="Y29" s="101"/>
+      <c r="Y29" s="104"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="107"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="126"/>
+      <c r="A30" s="110"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="129"/>
       <c r="D30" s="26">
         <v>8</v>
       </c>
@@ -6606,21 +6640,21 @@
       <c r="S30" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T30" s="106"/>
-      <c r="U30" s="106"/>
-      <c r="V30" s="100"/>
+      <c r="T30" s="109"/>
+      <c r="U30" s="109"/>
+      <c r="V30" s="103"/>
       <c r="W30" s="54"/>
-      <c r="X30" s="100"/>
-      <c r="Y30" s="101"/>
+      <c r="X30" s="103"/>
+      <c r="Y30" s="104"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="107">
+      <c r="A31" s="110">
         <v>6</v>
       </c>
-      <c r="B31" s="108" t="s">
+      <c r="B31" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="109" t="s">
+      <c r="C31" s="112" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="25">
@@ -6671,27 +6705,27 @@
       <c r="S31" s="25">
         <v>16</v>
       </c>
-      <c r="T31" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U31" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V31" s="98" t="s">
+      <c r="T31" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="U31" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="V31" s="101" t="s">
         <v>8</v>
       </c>
       <c r="W31" s="45"/>
-      <c r="X31" s="98">
+      <c r="X31" s="101">
         <v>4</v>
       </c>
-      <c r="Y31" s="101">
+      <c r="Y31" s="104">
         <v>6060</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="107"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="109"/>
+      <c r="A32" s="110"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="112"/>
       <c r="D32" s="26">
         <v>8</v>
       </c>
@@ -6740,12 +6774,12 @@
       <c r="S32" s="26">
         <v>8</v>
       </c>
-      <c r="T32" s="105"/>
-      <c r="U32" s="105"/>
-      <c r="V32" s="99"/>
+      <c r="T32" s="108"/>
+      <c r="U32" s="108"/>
+      <c r="V32" s="102"/>
       <c r="W32" s="47"/>
-      <c r="X32" s="100"/>
-      <c r="Y32" s="101"/>
+      <c r="X32" s="103"/>
+      <c r="Y32" s="104"/>
       <c r="Z32" s="2">
         <f>SUM(D32:S32)</f>
         <v>96</v>
@@ -6756,9 +6790,9 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="107"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="109"/>
+      <c r="A33" s="110"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="112"/>
       <c r="D33" s="27">
         <v>17</v>
       </c>
@@ -6807,20 +6841,20 @@
       <c r="S33" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T33" s="105"/>
-      <c r="U33" s="105"/>
-      <c r="V33" s="99"/>
+      <c r="T33" s="108"/>
+      <c r="U33" s="108"/>
+      <c r="V33" s="102"/>
       <c r="W33" s="47"/>
-      <c r="X33" s="98">
+      <c r="X33" s="101">
         <f>Z32+Z34</f>
         <v>176</v>
       </c>
-      <c r="Y33" s="101"/>
+      <c r="Y33" s="104"/>
     </row>
     <row r="34" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="107"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="109"/>
+      <c r="A34" s="110"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="112"/>
       <c r="D34" s="26">
         <v>8</v>
       </c>
@@ -6869,12 +6903,12 @@
       <c r="S34" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T34" s="106"/>
-      <c r="U34" s="106"/>
-      <c r="V34" s="100"/>
+      <c r="T34" s="109"/>
+      <c r="U34" s="109"/>
+      <c r="V34" s="103"/>
       <c r="W34" s="46"/>
-      <c r="X34" s="100"/>
-      <c r="Y34" s="101"/>
+      <c r="X34" s="103"/>
+      <c r="Y34" s="104"/>
       <c r="Z34" s="2">
         <f>SUM(D34:S34)</f>
         <v>80</v>
@@ -6893,10 +6927,10 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="102" t="s">
+      <c r="A36" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="102"/>
+      <c r="B36" s="105"/>
       <c r="C36" s="33">
         <v>44470</v>
       </c>
@@ -7197,63 +7231,63 @@
       <c r="Y5" s="77"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
+      <c r="A6" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="117"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="117"/>
+      <c r="X6" s="117"/>
+      <c r="Y6" s="117"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="str">
+      <c r="A7" s="117" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
+      <c r="Y7" s="117"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="76"/>
@@ -7283,90 +7317,90 @@
       <c r="Y8" s="76"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="116" t="s">
+      <c r="B9" s="107"/>
+      <c r="C9" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="119"/>
+      <c r="U9" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="113" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="113"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="133">
+      <c r="A11" s="136">
         <v>1</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104" t="s">
+      <c r="B11" s="107"/>
+      <c r="C11" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="112" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="25">
@@ -7417,22 +7451,22 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="130"/>
-      <c r="V11" s="130"/>
-      <c r="W11" s="130"/>
-      <c r="X11" s="130"/>
-      <c r="Y11" s="98">
+      <c r="U11" s="133"/>
+      <c r="V11" s="133"/>
+      <c r="W11" s="133"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="101">
         <v>22</v>
       </c>
-      <c r="Z11" s="127">
+      <c r="Z11" s="130">
         <v>6060</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="134"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -7481,18 +7515,18 @@
       <c r="T12" s="26">
         <v>8</v>
       </c>
-      <c r="U12" s="131"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="131"/>
-      <c r="X12" s="131"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="128"/>
+      <c r="U12" s="134"/>
+      <c r="V12" s="134"/>
+      <c r="W12" s="134"/>
+      <c r="X12" s="134"/>
+      <c r="Y12" s="103"/>
+      <c r="Z12" s="131"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="134"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -7541,20 +7575,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="131"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
-      <c r="Y13" s="98">
+      <c r="U13" s="134"/>
+      <c r="V13" s="134"/>
+      <c r="W13" s="134"/>
+      <c r="X13" s="134"/>
+      <c r="Y13" s="101">
         <v>176</v>
       </c>
-      <c r="Z13" s="128"/>
+      <c r="Z13" s="131"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="135"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="138"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="26">
         <v>8</v>
       </c>
@@ -7603,12 +7637,12 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="132"/>
-      <c r="V14" s="132"/>
-      <c r="W14" s="132"/>
-      <c r="X14" s="132"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="129"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="103"/>
+      <c r="Z14" s="132"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
@@ -7639,10 +7673,10 @@
       <c r="Z15" s="89"/>
     </row>
     <row r="16" spans="1:26" s="75" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="105"/>
       <c r="D16" s="78">
         <f>Мельницький!C36</f>
         <v>44470</v>
@@ -7759,12 +7793,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
       <c r="R1" s="15" t="s">
         <v>40</v>
       </c>
@@ -7909,147 +7943,147 @@
       <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
+      <c r="A7" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="114" t="str">
+      <c r="A8" s="117" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="119"/>
+      <c r="U9" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="110" t="s">
+      <c r="Y9" s="113" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="110"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="113"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="110">
         <v>1</v>
       </c>
-      <c r="B11" s="133">
+      <c r="B11" s="136">
         <v>1</v>
       </c>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="136" t="s">
+      <c r="D11" s="139" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -8100,19 +8134,19 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="98">
+      <c r="U11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="101">
         <v>22</v>
       </c>
-      <c r="Y11" s="139">
+      <c r="Y11" s="142">
         <v>6060</v>
       </c>
       <c r="Z11" s="3">
@@ -8121,10 +8155,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="137"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="140"/>
       <c r="E12" s="26">
         <v>8</v>
       </c>
@@ -8173,17 +8207,17 @@
       <c r="T12" s="26">
         <v>8</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="140"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="103"/>
+      <c r="Y12" s="143"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="137"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="140"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -8232,20 +8266,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="98">
+      <c r="U13" s="108"/>
+      <c r="V13" s="108"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="101">
         <f>Z11+Z14</f>
         <v>176</v>
       </c>
-      <c r="Y13" s="140"/>
+      <c r="Y13" s="143"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="138"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="141"/>
       <c r="E14" s="26">
         <v>8</v>
       </c>
@@ -8294,11 +8328,11 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="141"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="103"/>
+      <c r="X14" s="103"/>
+      <c r="Y14" s="144"/>
       <c r="Z14" s="3">
         <f>SUM(E14:T14)</f>
         <v>80</v>
@@ -8332,10 +8366,10 @@
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="142"/>
+      <c r="C16" s="145"/>
       <c r="D16" s="5">
         <f>Мельницький!C36</f>
         <v>44470</v>
@@ -8450,8 +8484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -8464,19 +8498,21 @@
     <col min="23" max="23" width="3.81640625" style="2" customWidth="1"/>
     <col min="24" max="24" width="5.453125" style="2" customWidth="1"/>
     <col min="25" max="25" width="13.36328125" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.08984375" style="2"/>
+    <col min="26" max="26" width="9.08984375" style="99"/>
+    <col min="27" max="16384" width="9.08984375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
       <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="16"/>
+      <c r="Z1" s="98"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="82" t="s">
@@ -8506,6 +8542,7 @@
       <c r="V2" s="82"/>
       <c r="W2" s="82"/>
       <c r="X2" s="82"/>
+      <c r="Z2" s="98"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="82" t="s">
@@ -8535,6 +8572,7 @@
       <c r="V3" s="82"/>
       <c r="W3" s="82"/>
       <c r="X3" s="82"/>
+      <c r="Z3" s="98"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="82"/>
@@ -8562,6 +8600,7 @@
       <c r="V4" s="82"/>
       <c r="W4" s="82"/>
       <c r="X4" s="82"/>
+      <c r="Z4" s="98"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="82"/>
@@ -8588,6 +8627,7 @@
       <c r="V5" s="82"/>
       <c r="W5" s="82"/>
       <c r="X5" s="82"/>
+      <c r="Z5" s="98"/>
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="82"/>
@@ -8614,147 +8654,148 @@
       <c r="V6" s="82"/>
       <c r="W6" s="82"/>
       <c r="X6" s="82"/>
+      <c r="Z6" s="98"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
+      <c r="A7" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
       <c r="X7" s="80"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="118" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="118"/>
+      <c r="U8" s="118"/>
+      <c r="V8" s="118"/>
+      <c r="W8" s="118"/>
+      <c r="X8" s="118"/>
+      <c r="Y8" s="118"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="124" t="s">
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="124" t="s">
+      <c r="U9" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="110" t="s">
+      <c r="Y9" s="113" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="110"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="127"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="113"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="110">
         <v>1</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="111" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="112" t="s">
         <v>95</v>
       </c>
       <c r="D11" s="25">
@@ -8805,27 +8846,28 @@
       <c r="S11" s="25">
         <v>16</v>
       </c>
-      <c r="T11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="146"/>
-      <c r="X11" s="98">
+      <c r="T11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="149"/>
+      <c r="X11" s="101">
         <v>22</v>
       </c>
-      <c r="Y11" s="101">
+      <c r="Y11" s="104">
         <v>6000</v>
       </c>
+      <c r="Z11" s="100"/>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="112"/>
       <c r="D12" s="26">
         <v>2</v>
       </c>
@@ -8874,21 +8916,21 @@
       <c r="S12" s="26">
         <v>2</v>
       </c>
-      <c r="T12" s="105"/>
-      <c r="U12" s="105"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="3">
+      <c r="T12" s="108"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="150"/>
+      <c r="X12" s="103"/>
+      <c r="Y12" s="104"/>
+      <c r="Z12" s="100">
         <f>SUM(D12:S12)</f>
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="112"/>
       <c r="D13" s="27">
         <v>17</v>
       </c>
@@ -8937,20 +8979,20 @@
       <c r="S13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="105"/>
-      <c r="U13" s="105"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="147"/>
-      <c r="X13" s="98">
+      <c r="T13" s="108"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="150"/>
+      <c r="X13" s="101">
         <f>Z12+Z14</f>
         <v>44</v>
       </c>
-      <c r="Y13" s="101"/>
+      <c r="Y13" s="104"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="26">
         <v>2</v>
       </c>
@@ -8999,25 +9041,25 @@
       <c r="S14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="148"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="2">
+      <c r="T14" s="109"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="103"/>
+      <c r="W14" s="151"/>
+      <c r="X14" s="103"/>
+      <c r="Y14" s="104"/>
+      <c r="Z14" s="99">
         <f>SUM(D14:S14)</f>
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="107">
-        <v>2</v>
-      </c>
-      <c r="B15" s="108" t="s">
+      <c r="A15" s="110">
+        <v>2</v>
+      </c>
+      <c r="B15" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="112" t="s">
         <v>97</v>
       </c>
       <c r="D15" s="25">
@@ -9068,28 +9110,29 @@
       <c r="S15" s="25">
         <v>16</v>
       </c>
-      <c r="T15" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W15" s="146"/>
-      <c r="X15" s="98">
+      <c r="T15" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="149"/>
+      <c r="X15" s="101">
         <f>X17/8</f>
         <v>22</v>
       </c>
-      <c r="Y15" s="101">
+      <c r="Y15" s="104">
         <v>6000</v>
       </c>
+      <c r="Z15" s="100"/>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="107"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="112"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -9138,21 +9181,21 @@
       <c r="S16" s="26">
         <v>8</v>
       </c>
-      <c r="T16" s="105"/>
-      <c r="U16" s="105"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="147"/>
-      <c r="X16" s="100"/>
-      <c r="Y16" s="101"/>
-      <c r="Z16" s="3">
+      <c r="T16" s="108"/>
+      <c r="U16" s="108"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="150"/>
+      <c r="X16" s="103"/>
+      <c r="Y16" s="104"/>
+      <c r="Z16" s="100">
         <f>SUM(D16:S16)</f>
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="107"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="112"/>
       <c r="D17" s="27">
         <v>17</v>
       </c>
@@ -9201,20 +9244,20 @@
       <c r="S17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T17" s="105"/>
-      <c r="U17" s="105"/>
-      <c r="V17" s="99"/>
-      <c r="W17" s="147"/>
-      <c r="X17" s="98">
+      <c r="T17" s="108"/>
+      <c r="U17" s="108"/>
+      <c r="V17" s="102"/>
+      <c r="W17" s="150"/>
+      <c r="X17" s="101">
         <f>Z16+Z18</f>
         <v>176</v>
       </c>
-      <c r="Y17" s="101"/>
+      <c r="Y17" s="104"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="107"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="109"/>
+      <c r="A18" s="110"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="112"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -9263,25 +9306,25 @@
       <c r="S18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="100"/>
-      <c r="W18" s="148"/>
-      <c r="X18" s="100"/>
-      <c r="Y18" s="101"/>
-      <c r="Z18" s="2">
+      <c r="T18" s="109"/>
+      <c r="U18" s="109"/>
+      <c r="V18" s="103"/>
+      <c r="W18" s="151"/>
+      <c r="X18" s="103"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="99">
         <f>SUM(D18:S18)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="107">
+    <row r="19" spans="1:26" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="110">
         <v>3</v>
       </c>
-      <c r="B19" s="108" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="109" t="s">
+      <c r="B19" s="146" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="112" t="s">
         <v>99</v>
       </c>
       <c r="D19" s="25">
@@ -9332,28 +9375,29 @@
       <c r="S19" s="25">
         <v>16</v>
       </c>
-      <c r="T19" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U19" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V19" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W19" s="146"/>
-      <c r="X19" s="98">
+      <c r="T19" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="W19" s="149"/>
+      <c r="X19" s="101">
         <f>X21/4</f>
         <v>22</v>
       </c>
-      <c r="Y19" s="101">
+      <c r="Y19" s="104">
         <v>6000</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" s="3" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="107"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="109"/>
+      <c r="Z19" s="100"/>
+    </row>
+    <row r="20" spans="1:26" s="3" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="110"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="112"/>
       <c r="D20" s="26">
         <v>4</v>
       </c>
@@ -9402,21 +9446,21 @@
       <c r="S20" s="26">
         <v>4</v>
       </c>
-      <c r="T20" s="105"/>
-      <c r="U20" s="105"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="147"/>
-      <c r="X20" s="100"/>
-      <c r="Y20" s="101"/>
-      <c r="Z20" s="3">
+      <c r="T20" s="108"/>
+      <c r="U20" s="108"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="150"/>
+      <c r="X20" s="103"/>
+      <c r="Y20" s="104"/>
+      <c r="Z20" s="100">
         <f>SUM(D20:S20)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="107"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="109"/>
+    <row r="21" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="110"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="112"/>
       <c r="D21" s="27">
         <v>17</v>
       </c>
@@ -9465,20 +9509,20 @@
       <c r="S21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="105"/>
-      <c r="U21" s="105"/>
-      <c r="V21" s="99"/>
-      <c r="W21" s="147"/>
-      <c r="X21" s="98">
+      <c r="T21" s="108"/>
+      <c r="U21" s="108"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="150"/>
+      <c r="X21" s="101">
         <f>Z20+Z22</f>
         <v>88</v>
       </c>
-      <c r="Y21" s="101"/>
-    </row>
-    <row r="22" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="107"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="109"/>
+      <c r="Y21" s="104"/>
+    </row>
+    <row r="22" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="110"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="26">
         <v>4</v>
       </c>
@@ -9527,13 +9571,13 @@
       <c r="S22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="100"/>
-      <c r="W22" s="148"/>
-      <c r="X22" s="100"/>
-      <c r="Y22" s="101"/>
-      <c r="Z22" s="2">
+      <c r="T22" s="109"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="103"/>
+      <c r="W22" s="151"/>
+      <c r="X22" s="103"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="99">
         <f>SUM(D22:S22)</f>
         <v>40</v>
       </c>
@@ -9695,8 +9739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13:Y14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -9707,54 +9751,59 @@
     <col min="5" max="20" width="4.1796875" style="2" customWidth="1"/>
     <col min="21" max="24" width="5.453125" style="2" customWidth="1"/>
     <col min="25" max="26" width="9.1796875" style="2"/>
-    <col min="27" max="27" width="6.1796875" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="9.1796875" style="2"/>
+    <col min="27" max="27" width="6.1796875" style="99" customWidth="1"/>
+    <col min="28" max="28" width="9.1796875" style="99"/>
+    <col min="29" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
     </row>
     <row r="2" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
@@ -9778,6 +9827,8 @@
       <c r="Q3" s="16"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
@@ -9806,6 +9857,8 @@
       <c r="V4" s="19"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
@@ -9834,6 +9887,8 @@
       <c r="V5" s="19"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
+      <c r="AA5" s="98"/>
+      <c r="AB5" s="98"/>
     </row>
     <row r="6" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
@@ -9862,149 +9917,151 @@
       <c r="V6" s="19"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98"/>
     </row>
     <row r="7" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
+      <c r="A7" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
     </row>
     <row r="8" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="118" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="118"/>
+      <c r="U8" s="118"/>
+      <c r="V8" s="118"/>
+      <c r="W8" s="118"/>
+      <c r="X8" s="118"/>
     </row>
     <row r="9" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="116" t="s">
+      <c r="B9" s="120"/>
+      <c r="C9" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="118" t="s">
+      <c r="E9" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="119"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="113" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="126"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="113"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="110">
         <v>1</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="108" t="s">
+      <c r="B11" s="110"/>
+      <c r="C11" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="112" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="25">
@@ -10055,32 +10112,32 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
+      <c r="U11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="101" t="s">
         <v>8</v>
       </c>
       <c r="X11" s="48"/>
-      <c r="Y11" s="98">
+      <c r="Y11" s="101">
         <v>22</v>
       </c>
-      <c r="Z11" s="101">
+      <c r="Z11" s="104">
         <v>6060</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AA11" s="99">
         <f>SUM(E12:T12)</f>
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="26">
         <v>2</v>
       </c>
@@ -10129,18 +10186,18 @@
       <c r="T12" s="26">
         <v>2</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="102"/>
       <c r="X12" s="50"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="101"/>
+      <c r="Y12" s="103"/>
+      <c r="Z12" s="104"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -10189,24 +10246,24 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="108"/>
+      <c r="W13" s="102"/>
       <c r="X13" s="50"/>
-      <c r="Y13" s="98">
+      <c r="Y13" s="101">
         <v>44</v>
       </c>
-      <c r="Z13" s="101"/>
-      <c r="AB13" s="2">
+      <c r="Z13" s="104"/>
+      <c r="AB13" s="99">
         <f>AA11+AA14</f>
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="26">
         <v>2</v>
       </c>
@@ -10255,13 +10312,13 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="103"/>
       <c r="X14" s="49"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="101"/>
-      <c r="AA14" s="2">
+      <c r="Y14" s="103"/>
+      <c r="Z14" s="104"/>
+      <c r="AA14" s="99">
         <f>SUM(E14:T14)</f>
         <v>20</v>
       </c>
@@ -10318,7 +10375,7 @@
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
     </row>
-    <row r="17" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -10344,22 +10401,24 @@
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
     </row>
-    <row r="18" spans="1:24" s="39" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="102" t="s">
+    <row r="18" spans="1:28" s="39" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="149">
+      <c r="C18" s="105"/>
+      <c r="D18" s="152">
         <f>Мельницький!C36</f>
         <v>44470</v>
       </c>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
       <c r="L18" s="39" t="s">
         <v>60</v>
       </c>
+      <c r="AA18" s="166"/>
+      <c r="AB18" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -10424,11 +10483,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -10518,142 +10577,142 @@
       <c r="W4" s="96"/>
     </row>
     <row r="5" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A5" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
+      <c r="A5" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
     </row>
     <row r="6" spans="1:28" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="str">
+      <c r="A6" s="117" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="117"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="117"/>
     </row>
     <row r="7" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="120"/>
-      <c r="T7" s="124" t="s">
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+      <c r="S7" s="123"/>
+      <c r="T7" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="124" t="s">
+      <c r="U7" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="124" t="s">
+      <c r="V7" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="124" t="s">
+      <c r="W7" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="X7" s="124" t="s">
+      <c r="X7" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" s="110" t="s">
+      <c r="Y7" s="113" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="116"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="122"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="122"/>
-      <c r="P8" s="122"/>
-      <c r="Q8" s="122"/>
-      <c r="R8" s="122"/>
-      <c r="S8" s="123"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
-      <c r="V8" s="124"/>
-      <c r="W8" s="124"/>
-      <c r="X8" s="124"/>
-      <c r="Y8" s="110"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="125"/>
+      <c r="R8" s="125"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="127"/>
+      <c r="U8" s="127"/>
+      <c r="V8" s="127"/>
+      <c r="W8" s="127"/>
+      <c r="X8" s="127"/>
+      <c r="Y8" s="113"/>
     </row>
     <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="107">
+      <c r="A9" s="110">
         <v>1</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="139" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="25">
@@ -10704,29 +10763,29 @@
       <c r="S9" s="25">
         <v>16</v>
       </c>
-      <c r="T9" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V9" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X9" s="98">
+      <c r="T9" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="X9" s="101">
         <v>22</v>
       </c>
-      <c r="Y9" s="101">
+      <c r="Y9" s="104">
         <v>6300</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="107"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="137"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="140"/>
       <c r="D10" s="26">
         <v>8</v>
       </c>
@@ -10775,21 +10834,21 @@
       <c r="S10" s="26">
         <v>8</v>
       </c>
-      <c r="T10" s="105"/>
-      <c r="U10" s="105"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="99"/>
-      <c r="X10" s="100"/>
-      <c r="Y10" s="101"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="108"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="104"/>
       <c r="Z10" s="3">
         <f>SUM(D10:S10)</f>
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="137"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="140"/>
       <c r="D11" s="27">
         <v>17</v>
       </c>
@@ -10838,20 +10897,20 @@
       <c r="S11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T11" s="105"/>
-      <c r="U11" s="105"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="98">
+      <c r="T11" s="108"/>
+      <c r="U11" s="108"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="101">
         <f>Z10+Z12</f>
         <v>176</v>
       </c>
-      <c r="Y11" s="101"/>
+      <c r="Y11" s="104"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="138"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="141"/>
       <c r="D12" s="26">
         <v>8</v>
       </c>
@@ -10900,25 +10959,25 @@
       <c r="S12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="101"/>
+      <c r="T12" s="109"/>
+      <c r="U12" s="109"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="103"/>
+      <c r="X12" s="103"/>
+      <c r="Y12" s="104"/>
       <c r="Z12" s="2">
         <f>SUM(D12:S12)</f>
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107">
-        <v>2</v>
-      </c>
-      <c r="B13" s="108" t="s">
+      <c r="A13" s="110">
+        <v>2</v>
+      </c>
+      <c r="B13" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="109" t="str">
+      <c r="C13" s="112" t="str">
         <f>C9</f>
         <v>лікар-стоматолог</v>
       </c>
@@ -10970,22 +11029,22 @@
       <c r="S13" s="25">
         <v>16</v>
       </c>
-      <c r="T13" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U13" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" s="98">
+      <c r="T13" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="101">
         <v>22</v>
       </c>
-      <c r="Y13" s="101">
+      <c r="Y13" s="104">
         <v>6300</v>
       </c>
       <c r="Z13" s="2" t="s">
@@ -10997,9 +11056,9 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="26">
         <v>8</v>
       </c>
@@ -11048,12 +11107,12 @@
       <c r="S14" s="26">
         <v>8</v>
       </c>
-      <c r="T14" s="105"/>
-      <c r="U14" s="105"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="101"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="103"/>
+      <c r="Y14" s="104"/>
       <c r="Z14" s="2">
         <f>SUM(D14:S14)</f>
         <v>96</v>
@@ -11064,9 +11123,9 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="107"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="109"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="112"/>
       <c r="D15" s="27">
         <v>17</v>
       </c>
@@ -11115,20 +11174,20 @@
       <c r="S15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="105"/>
-      <c r="U15" s="105"/>
-      <c r="V15" s="99"/>
-      <c r="W15" s="99"/>
-      <c r="X15" s="98">
+      <c r="T15" s="108"/>
+      <c r="U15" s="108"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="101">
         <f>Z14+Z16</f>
         <v>176</v>
       </c>
-      <c r="Y15" s="101"/>
+      <c r="Y15" s="104"/>
     </row>
     <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="107"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="112"/>
       <c r="D16" s="26">
         <v>8</v>
       </c>
@@ -11177,12 +11236,12 @@
       <c r="S16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="100"/>
-      <c r="X16" s="100"/>
-      <c r="Y16" s="101"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
+      <c r="V16" s="103"/>
+      <c r="W16" s="103"/>
+      <c r="X16" s="103"/>
+      <c r="Y16" s="104"/>
       <c r="Z16" s="2">
         <f>SUM(D16:S16)</f>
         <v>80</v>
@@ -11193,13 +11252,13 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="160">
+      <c r="A17" s="163">
         <v>3</v>
       </c>
-      <c r="B17" s="161" t="s">
+      <c r="B17" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="153" t="s">
+      <c r="C17" s="156" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="25">
@@ -11250,29 +11309,29 @@
       <c r="S17" s="25">
         <v>16</v>
       </c>
-      <c r="T17" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U17" s="157" t="s">
-        <v>8</v>
-      </c>
-      <c r="V17" s="154" t="s">
-        <v>8</v>
-      </c>
-      <c r="W17" s="154" t="s">
-        <v>8</v>
-      </c>
-      <c r="X17" s="154">
+      <c r="T17" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="160" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="157" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="157" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="157">
         <v>22</v>
       </c>
-      <c r="Y17" s="101">
+      <c r="Y17" s="104">
         <v>6060</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="160"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="153"/>
+      <c r="A18" s="163"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="156"/>
       <c r="D18" s="26">
         <v>8</v>
       </c>
@@ -11321,21 +11380,21 @@
       <c r="S18" s="26">
         <v>8</v>
       </c>
-      <c r="T18" s="105"/>
-      <c r="U18" s="158"/>
-      <c r="V18" s="156"/>
-      <c r="W18" s="156"/>
-      <c r="X18" s="155"/>
-      <c r="Y18" s="101"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="161"/>
+      <c r="V18" s="159"/>
+      <c r="W18" s="159"/>
+      <c r="X18" s="158"/>
+      <c r="Y18" s="104"/>
       <c r="Z18" s="2">
         <f>SUM(D18:S18)</f>
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="160"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="153"/>
+      <c r="A19" s="163"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="156"/>
       <c r="D19" s="27">
         <v>17</v>
       </c>
@@ -11384,20 +11443,20 @@
       <c r="S19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T19" s="105"/>
-      <c r="U19" s="158"/>
-      <c r="V19" s="156"/>
-      <c r="W19" s="156"/>
-      <c r="X19" s="154">
+      <c r="T19" s="108"/>
+      <c r="U19" s="161"/>
+      <c r="V19" s="159"/>
+      <c r="W19" s="159"/>
+      <c r="X19" s="157">
         <f>Z18+Z20</f>
         <v>176</v>
       </c>
-      <c r="Y19" s="101"/>
+      <c r="Y19" s="104"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="160"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="153"/>
+      <c r="A20" s="163"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="156"/>
       <c r="D20" s="26">
         <v>8</v>
       </c>
@@ -11446,26 +11505,26 @@
       <c r="S20" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T20" s="106"/>
-      <c r="U20" s="159"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
-      <c r="Y20" s="101"/>
+      <c r="T20" s="109"/>
+      <c r="U20" s="162"/>
+      <c r="V20" s="158"/>
+      <c r="W20" s="158"/>
+      <c r="X20" s="158"/>
+      <c r="Y20" s="104"/>
       <c r="Z20" s="2">
         <f>SUM(D20:S20)</f>
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="133">
+      <c r="A21" s="136">
         <v>4</v>
       </c>
-      <c r="B21" s="150" t="s">
+      <c r="B21" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="153" t="s">
-        <v>105</v>
+      <c r="C21" s="156" t="s">
+        <v>104</v>
       </c>
       <c r="D21" s="25">
         <v>1</v>
@@ -11515,29 +11574,29 @@
       <c r="S21" s="25">
         <v>16</v>
       </c>
-      <c r="T21" s="104">
+      <c r="T21" s="107">
         <v>24</v>
       </c>
-      <c r="U21" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="98">
+      <c r="U21" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="101">
         <v>4</v>
       </c>
-      <c r="Y21" s="101">
+      <c r="Y21" s="104">
         <v>6060</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="134"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="153"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="156"/>
       <c r="D22" s="26" t="s">
         <v>91</v>
       </c>
@@ -11586,21 +11645,21 @@
       <c r="S22" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="T22" s="105"/>
-      <c r="U22" s="105"/>
-      <c r="V22" s="99"/>
-      <c r="W22" s="99"/>
-      <c r="X22" s="99"/>
-      <c r="Y22" s="101"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="108"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="102"/>
+      <c r="X22" s="102"/>
+      <c r="Y22" s="104"/>
       <c r="Z22" s="2">
         <f>SUM(D22:S22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="134"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="153"/>
+      <c r="A23" s="137"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="156"/>
       <c r="D23" s="27">
         <v>17</v>
       </c>
@@ -11649,20 +11708,20 @@
       <c r="S23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="105"/>
-      <c r="U23" s="105"/>
-      <c r="V23" s="99"/>
-      <c r="W23" s="99"/>
-      <c r="X23" s="98">
+      <c r="T23" s="108"/>
+      <c r="U23" s="108"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="101">
         <f>Z22+Z24</f>
         <v>16</v>
       </c>
-      <c r="Y23" s="101"/>
+      <c r="Y23" s="104"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="135"/>
-      <c r="B24" s="152"/>
-      <c r="C24" s="153"/>
+      <c r="A24" s="138"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="156"/>
       <c r="D24" s="26" t="s">
         <v>91</v>
       </c>
@@ -11711,12 +11770,12 @@
       <c r="S24" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="101"/>
+      <c r="T24" s="109"/>
+      <c r="U24" s="109"/>
+      <c r="V24" s="103"/>
+      <c r="W24" s="103"/>
+      <c r="X24" s="103"/>
+      <c r="Y24" s="104"/>
       <c r="Z24" s="2">
         <f>SUM(D24:S24)</f>
         <v>16</v>
@@ -11756,10 +11815,10 @@
       </c>
     </row>
     <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="102"/>
+      <c r="B26" s="105"/>
       <c r="C26" s="97">
         <v>44440</v>
       </c>
@@ -12006,11 +12065,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
       <c r="Q1" s="15" t="s">
         <v>40</v>
       </c>
@@ -12124,141 +12183,141 @@
       <c r="W5" s="70"/>
     </row>
     <row r="6" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
+      <c r="A6" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="117"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="117"/>
     </row>
     <row r="7" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
     </row>
     <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="116" t="s">
+      <c r="D8" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="124" t="s">
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="124" t="s">
+      <c r="U8" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="124" t="s">
+      <c r="V8" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="124" t="s">
+      <c r="W8" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="X8" s="124" t="s">
+      <c r="X8" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="110" t="s">
+      <c r="Y8" s="113" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="124"/>
-      <c r="U9" s="124"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="124"/>
-      <c r="X9" s="124"/>
-      <c r="Y9" s="110"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="127"/>
+      <c r="Y9" s="113"/>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="107">
+      <c r="A10" s="110">
         <v>1</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="112" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="25">
@@ -12309,29 +12368,29 @@
       <c r="S10" s="25">
         <v>16</v>
       </c>
-      <c r="T10" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="U10" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X10" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="101">
+      <c r="T10" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="104">
         <v>4770</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="109"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="112"/>
       <c r="D11" s="26" t="s">
         <v>88</v>
       </c>
@@ -12380,17 +12439,17 @@
       <c r="S11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="T11" s="105"/>
-      <c r="U11" s="105"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="100"/>
-      <c r="Y11" s="101"/>
+      <c r="T11" s="108"/>
+      <c r="U11" s="108"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="103"/>
+      <c r="Y11" s="104"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="109"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="112"/>
       <c r="D12" s="27">
         <v>17</v>
       </c>
@@ -12439,19 +12498,19 @@
       <c r="S12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="105"/>
-      <c r="U12" s="105"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="101"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="104"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="112"/>
       <c r="D13" s="26" t="s">
         <v>88</v>
       </c>
@@ -12500,12 +12559,12 @@
       <c r="S13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="100"/>
-      <c r="Y13" s="101"/>
+      <c r="T13" s="109"/>
+      <c r="U13" s="109"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="103"/>
+      <c r="X13" s="103"/>
+      <c r="Y13" s="104"/>
     </row>
     <row r="14" spans="1:25" s="69" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="68"/>
@@ -12520,10 +12579,10 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="102"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="71">
         <v>44013</v>
       </c>
@@ -12777,63 +12836,63 @@
       <c r="Y5" s="65"/>
     </row>
     <row r="6" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A6" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="114"/>
-      <c r="Y6" s="114"/>
+      <c r="A6" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="117"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="117"/>
+      <c r="X6" s="117"/>
+      <c r="Y6" s="117"/>
     </row>
     <row r="7" spans="1:26" ht="20" x14ac:dyDescent="0.35">
-      <c r="A7" s="114" t="str">
+      <c r="A7" s="117" t="str">
         <f>Мельницький!A8</f>
         <v>обліку робочого часу працівників за ВЕРЕСЕНЬ 2021р.</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
+      <c r="Y7" s="117"/>
     </row>
     <row r="8" spans="1:26" ht="20" x14ac:dyDescent="0.35">
       <c r="A8" s="63"/>
@@ -12863,94 +12922,94 @@
       <c r="Y8" s="63"/>
     </row>
     <row r="9" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="124" t="s">
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="119"/>
+      <c r="U9" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="124" t="s">
+      <c r="V9" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="X9" s="124" t="s">
+      <c r="X9" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="Y9" s="124" t="s">
+      <c r="Y9" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Z9" s="110" t="s">
+      <c r="Z9" s="113" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="110"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="113"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="110">
         <v>1</v>
       </c>
-      <c r="B11" s="107">
+      <c r="B11" s="110">
         <v>1</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="112" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="25">
@@ -13001,28 +13060,28 @@
       <c r="T11" s="25">
         <v>16</v>
       </c>
-      <c r="U11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="146"/>
-      <c r="Y11" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="162">
+      <c r="U11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="149"/>
+      <c r="Y11" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="165">
         <v>4770</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="26" t="s">
         <v>88</v>
       </c>
@@ -13071,18 +13130,18 @@
       <c r="T12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="162"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="150"/>
+      <c r="Y12" s="103"/>
+      <c r="Z12" s="165"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="27">
         <v>17</v>
       </c>
@@ -13131,20 +13190,20 @@
       <c r="T13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="162"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="108"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="150"/>
+      <c r="Y13" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="165"/>
     </row>
     <row r="14" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="26" t="s">
         <v>88</v>
       </c>
@@ -13193,18 +13252,18 @@
       <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="148"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="162"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="103"/>
+      <c r="X14" s="151"/>
+      <c r="Y14" s="103"/>
+      <c r="Z14" s="165"/>
     </row>
     <row r="15" spans="1:26" s="64" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="102"/>
+      <c r="C15" s="105"/>
       <c r="D15" s="66">
         <f>Мельницький!C36</f>
         <v>44470</v>
